--- a/assets/excel/2021_1-2-8.xlsx
+++ b/assets/excel/2021_1-2-8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\IM_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0EAADC-F600-4519-8875-90A776BCB46C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EC5F71-ABD0-4D93-95A1-7A8C767C7EFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{E9FBBBCE-8816-4DD0-890B-F929484014B7}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="70">
   <si>
     <t>Indikator 1.2.8: Lebendgeborene Deutsche und Ausländerinnen und Ausländer in Niedersachsen</t>
   </si>
@@ -88,12 +88,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hannover,Region          </t>
-  </si>
-  <si>
-    <t>Hannover,Landeshauptstadt</t>
-  </si>
-  <si>
-    <t>Hannover, Umland</t>
   </si>
   <si>
     <t xml:space="preserve">Diepholz                 </t>
@@ -219,9 +213,6 @@
     <t xml:space="preserve">Hannover, Region          </t>
   </si>
   <si>
-    <t>Hannover, Landeshauptstadt</t>
-  </si>
-  <si>
     <t>Statistische Region Hannover</t>
   </si>
   <si>
@@ -229,9 +220,6 @@
   </si>
   <si>
     <t>Quelle: Statistik der natürlichen Bevölkerungsbewegung</t>
-  </si>
-  <si>
-    <t>Migration und Teilhabe in Niedersachsen - Integrationsmonitoring 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Niedersächsisches Ministerium für Soziales, Gesundheit und Gleichstellung (Hrsg.), </t>
@@ -244,6 +232,15 @@
   </si>
   <si>
     <t>https://www.integrationsmonitoring.niedersachsen.de.</t>
+  </si>
+  <si>
+    <t>Migration und Teilhabe in Niedersachsen - Integrationsmonitoring 2021</t>
+  </si>
+  <si>
+    <t>dav. Hannover,Landeshauptstadt</t>
+  </si>
+  <si>
+    <t>dav. Hannover, Umland</t>
   </si>
 </sst>
 </file>
@@ -510,24 +507,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,15 +514,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -561,18 +531,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -624,6 +582,45 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3816,8 +3813,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B1:T128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3826,20 +3823,20 @@
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="39"/>
+    <col min="20" max="20" width="11.42578125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="47"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="48"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3854,7 +3851,7 @@
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
@@ -3875,3552 +3872,3552 @@
       <c r="R4" s="8"/>
     </row>
     <row r="6" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
     </row>
     <row r="7" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
     </row>
     <row r="8" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="16">
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="10">
         <v>2005</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="11">
         <v>2006</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="11">
         <v>2007</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="11">
         <v>2008</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="11">
         <v>2009</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="11">
         <v>2010</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="11">
         <v>2011</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="11">
         <v>2012</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="11">
         <v>2013</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="11">
         <v>2014</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="11">
         <v>2015</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="12">
         <v>2016</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="12">
         <v>2017</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R8" s="12">
         <v>2018</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S8" s="12">
         <v>2019</v>
       </c>
-      <c r="T8" s="40">
+      <c r="T8" s="27">
         <v>2020</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
     </row>
     <row r="10" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="22">
+      <c r="C10" s="13">
         <v>1</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="14">
         <v>2</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="14">
         <v>3</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="14">
         <v>4</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="15">
         <v>5</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="14">
         <v>6</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="14">
         <v>7</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="14">
         <v>8</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="15">
         <v>9</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="14">
         <v>10</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="14">
         <v>11</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="14">
         <v>12</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="15">
         <v>13</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="14">
         <v>14</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="14">
         <v>15</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="14">
         <v>16</v>
       </c>
-      <c r="S10" s="24">
+      <c r="S10" s="15">
         <v>17</v>
       </c>
-      <c r="T10" s="41">
+      <c r="T10" s="28">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25">
+      <c r="B11" s="16">
         <v>101</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="17">
         <v>84</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="17">
         <v>72</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="17">
         <v>82</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="17">
         <v>67</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="17">
         <v>63</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="17">
         <v>87</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="17">
         <v>84</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="17">
         <v>110</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="17">
         <v>117</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="17">
         <v>138</v>
       </c>
-      <c r="O11" s="26">
+      <c r="O11" s="17">
         <v>167</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="17">
         <v>222</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="Q11" s="17">
         <v>185</v>
       </c>
-      <c r="R11" s="26">
+      <c r="R11" s="17">
         <v>232</v>
       </c>
-      <c r="S11" s="26">
+      <c r="S11" s="17">
         <f>VLOOKUP(B11,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>239</v>
       </c>
-      <c r="T11" s="42">
+      <c r="T11" s="29">
         <f>VLOOKUP(B11,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>239</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25">
+      <c r="B12" s="16">
         <v>102</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="17">
         <v>41</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="17">
         <v>37</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="17">
         <v>32</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="17">
         <v>32</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="17">
         <v>20</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="17">
         <v>27</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="17">
         <v>28</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="17">
         <v>22</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="17">
         <v>43</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="17">
         <v>71</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="17">
         <v>90</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="17">
         <v>210</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="17">
         <v>266</v>
       </c>
-      <c r="R12" s="26">
+      <c r="R12" s="17">
         <v>336</v>
       </c>
-      <c r="S12" s="26">
+      <c r="S12" s="17">
         <f>VLOOKUP(B12,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>292</v>
       </c>
-      <c r="T12" s="42">
+      <c r="T12" s="29">
         <f>VLOOKUP(B12,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>307</v>
       </c>
     </row>
     <row r="13" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="25">
+      <c r="B13" s="16">
         <v>103</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="17">
         <v>42</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="17">
         <v>49</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="17">
         <v>43</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="17">
         <v>50</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="17">
         <v>28</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="17">
         <v>45</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="17">
         <v>53</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="17">
         <v>60</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="17">
         <v>73</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N13" s="17">
         <v>99</v>
       </c>
-      <c r="O13" s="26">
+      <c r="O13" s="17">
         <v>143</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P13" s="17">
         <v>208</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="Q13" s="17">
         <v>158</v>
       </c>
-      <c r="R13" s="26">
+      <c r="R13" s="17">
         <v>184</v>
       </c>
-      <c r="S13" s="26">
+      <c r="S13" s="17">
         <f>VLOOKUP(B13,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>187</v>
       </c>
-      <c r="T13" s="42">
+      <c r="T13" s="29">
         <f>VLOOKUP(B13,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="25">
+      <c r="B14" s="16">
         <v>151</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="17">
         <v>12</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="17">
         <v>8</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="17">
         <v>11</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="17">
         <v>34</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="17">
         <v>12</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="17">
         <v>8</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="17">
         <v>4</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="17">
         <v>35</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="17">
         <v>31</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="17">
         <v>62</v>
       </c>
-      <c r="O14" s="26">
+      <c r="O14" s="17">
         <v>86</v>
       </c>
-      <c r="P14" s="26">
+      <c r="P14" s="17">
         <v>106</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="Q14" s="17">
         <v>115</v>
       </c>
-      <c r="R14" s="26">
+      <c r="R14" s="17">
         <v>129</v>
       </c>
-      <c r="S14" s="26">
+      <c r="S14" s="17">
         <f>VLOOKUP(B14,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>128</v>
       </c>
-      <c r="T14" s="42">
+      <c r="T14" s="29">
         <f>VLOOKUP(B14,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>136</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25">
+      <c r="B15" s="16">
         <v>153</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="17">
         <v>44</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="17">
         <v>44</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="17">
         <v>28</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="17">
         <v>39</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="17">
         <v>43</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="17">
         <v>32</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="17">
         <v>39</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="17">
         <v>41</v>
       </c>
-      <c r="M15" s="26">
+      <c r="M15" s="17">
         <v>59</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="17">
         <v>54</v>
       </c>
-      <c r="O15" s="26">
+      <c r="O15" s="17">
         <v>105</v>
       </c>
-      <c r="P15" s="26">
+      <c r="P15" s="17">
         <v>164</v>
       </c>
-      <c r="Q15" s="26">
+      <c r="Q15" s="17">
         <v>149</v>
       </c>
-      <c r="R15" s="26">
+      <c r="R15" s="17">
         <v>159</v>
       </c>
-      <c r="S15" s="26">
+      <c r="S15" s="17">
         <f>VLOOKUP(B15,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>133</v>
       </c>
-      <c r="T15" s="42">
+      <c r="T15" s="29">
         <f>VLOOKUP(B15,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25">
+      <c r="B16" s="16">
         <v>154</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="17">
         <v>20</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="17">
         <v>12</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="17">
         <v>15</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="17">
         <v>16</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="17">
         <v>14</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="17">
         <v>8</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="17">
         <v>10</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="17">
         <v>11</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="17">
         <v>19</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="17">
         <v>15</v>
       </c>
-      <c r="O16" s="26">
+      <c r="O16" s="17">
         <v>33</v>
       </c>
-      <c r="P16" s="26">
+      <c r="P16" s="17">
         <v>75</v>
       </c>
-      <c r="Q16" s="26">
+      <c r="Q16" s="17">
         <v>86</v>
       </c>
-      <c r="R16" s="26">
+      <c r="R16" s="17">
         <v>53</v>
       </c>
-      <c r="S16" s="26">
+      <c r="S16" s="17">
         <f>VLOOKUP(B16,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>75</v>
       </c>
-      <c r="T16" s="42">
+      <c r="T16" s="29">
         <f>VLOOKUP(B16,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="25">
+      <c r="B17" s="16">
         <v>155</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="17">
         <v>41</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="17">
         <v>40</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="17">
         <v>49</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="17">
         <v>55</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="17">
         <v>35</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="17">
         <v>35</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="17">
         <v>36</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="17">
         <v>32</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="17">
         <v>40</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="17">
         <v>55</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="17">
         <v>79</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="17">
         <v>141</v>
       </c>
-      <c r="Q17" s="26">
+      <c r="Q17" s="17">
         <v>129</v>
       </c>
-      <c r="R17" s="26">
+      <c r="R17" s="17">
         <v>109</v>
       </c>
-      <c r="S17" s="26">
+      <c r="S17" s="17">
         <f>VLOOKUP(B17,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>111</v>
       </c>
-      <c r="T17" s="42">
+      <c r="T17" s="29">
         <f>VLOOKUP(B17,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>103</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="25">
+      <c r="B18" s="16">
         <v>157</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="17">
         <v>38</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="17">
         <v>29</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="17">
         <v>27</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="17">
         <v>28</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="17">
         <v>23</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="17">
         <v>26</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="17">
         <v>30</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="17">
         <v>38</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M18" s="17">
         <v>28</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="17">
         <v>43</v>
       </c>
-      <c r="O18" s="26">
+      <c r="O18" s="17">
         <v>70</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="17">
         <v>121</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="Q18" s="17">
         <v>112</v>
       </c>
-      <c r="R18" s="26">
+      <c r="R18" s="17">
         <v>109</v>
       </c>
-      <c r="S18" s="26">
+      <c r="S18" s="17">
         <f>VLOOKUP(B18,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>128</v>
       </c>
-      <c r="T18" s="42">
+      <c r="T18" s="29">
         <f>VLOOKUP(B18,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>104</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="25">
+      <c r="B19" s="16">
         <v>158</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="17">
         <v>18</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="17">
         <v>19</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="17">
         <v>26</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="17">
         <v>9</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="17">
         <v>25</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="17">
         <v>23</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="17">
         <v>13</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="17">
         <v>19</v>
       </c>
-      <c r="M19" s="26">
+      <c r="M19" s="17">
         <v>21</v>
       </c>
-      <c r="N19" s="26">
+      <c r="N19" s="17">
         <v>37</v>
       </c>
-      <c r="O19" s="26">
+      <c r="O19" s="17">
         <v>38</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="17">
         <v>125</v>
       </c>
-      <c r="Q19" s="26">
+      <c r="Q19" s="17">
         <v>78</v>
       </c>
-      <c r="R19" s="26">
+      <c r="R19" s="17">
         <v>91</v>
       </c>
-      <c r="S19" s="26">
+      <c r="S19" s="17">
         <f>VLOOKUP(B19,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>79</v>
       </c>
-      <c r="T19" s="42">
+      <c r="T19" s="29">
         <f>VLOOKUP(B19,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="25">
+      <c r="B20" s="16">
         <v>159</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="17">
         <v>128</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="17">
         <v>114</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="17">
         <v>113</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="17">
         <v>117</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="17">
         <v>115</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="17">
         <v>127</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="17">
         <v>126</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="17">
         <v>150</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="17">
         <v>158</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="17">
         <v>185</v>
       </c>
-      <c r="O20" s="26">
+      <c r="O20" s="17">
         <v>202</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="17">
         <v>337</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="Q20" s="17">
         <v>310</v>
       </c>
-      <c r="R20" s="26">
+      <c r="R20" s="17">
         <v>346</v>
       </c>
-      <c r="S20" s="26">
+      <c r="S20" s="17">
         <f>VLOOKUP(B20,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>287</v>
       </c>
-      <c r="T20" s="42">
+      <c r="T20" s="29">
         <f>VLOOKUP(B20,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>311</v>
       </c>
     </row>
     <row r="21" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="25">
+      <c r="B21" s="16">
         <v>1</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="18">
         <v>468</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="18">
         <v>424</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="18">
         <v>426</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="18">
         <v>447</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="18">
         <v>378</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="18">
         <v>418</v>
       </c>
-      <c r="K21" s="27">
+      <c r="K21" s="18">
         <v>423</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L21" s="18">
         <v>518</v>
       </c>
-      <c r="M21" s="27">
+      <c r="M21" s="18">
         <v>589</v>
       </c>
-      <c r="N21" s="27">
+      <c r="N21" s="18">
         <v>759</v>
       </c>
-      <c r="O21" s="27">
+      <c r="O21" s="18">
         <v>1013</v>
       </c>
-      <c r="P21" s="27">
+      <c r="P21" s="18">
         <v>1709</v>
       </c>
-      <c r="Q21" s="27">
+      <c r="Q21" s="18">
         <v>1588</v>
       </c>
-      <c r="R21" s="27">
+      <c r="R21" s="18">
         <v>1748</v>
       </c>
-      <c r="S21" s="27">
+      <c r="S21" s="18">
         <f>VLOOKUP(B21,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>1659</v>
       </c>
-      <c r="T21" s="43">
+      <c r="T21" s="30">
         <f>VLOOKUP(B21,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>1657</v>
       </c>
     </row>
     <row r="22" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="25">
+      <c r="B22" s="16">
         <v>241</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="17">
         <v>404</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="17">
         <v>467</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="17">
         <v>421</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="17">
         <v>395</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="17">
         <v>394</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J22" s="17">
         <v>397</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="17">
         <v>415</v>
       </c>
-      <c r="L22" s="26">
+      <c r="L22" s="17">
         <v>466</v>
       </c>
-      <c r="M22" s="26">
+      <c r="M22" s="17">
         <v>531</v>
       </c>
-      <c r="N22" s="26">
+      <c r="N22" s="17">
         <v>770</v>
       </c>
-      <c r="O22" s="26">
+      <c r="O22" s="17">
         <v>933</v>
       </c>
-      <c r="P22" s="26">
+      <c r="P22" s="17">
         <v>1603</v>
       </c>
-      <c r="Q22" s="26">
+      <c r="Q22" s="17">
         <v>1490</v>
       </c>
-      <c r="R22" s="26">
+      <c r="R22" s="17">
         <v>1596</v>
       </c>
-      <c r="S22" s="26">
+      <c r="S22" s="17">
         <f>VLOOKUP(B22,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>1360</v>
       </c>
-      <c r="T22" s="42">
+      <c r="T22" s="29">
         <f>VLOOKUP(B22,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>1763</v>
       </c>
     </row>
     <row r="23" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="25">
+      <c r="B23" s="16">
         <v>241001</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="26" t="s">
+      <c r="C23" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="17">
         <v>270</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="17">
         <v>293</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="17">
         <v>262</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="17">
         <v>237</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="17">
         <v>246</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="17">
         <v>258</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="17">
         <v>284</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="17">
         <v>335</v>
       </c>
-      <c r="M23" s="26">
+      <c r="M23" s="17">
         <v>351</v>
       </c>
-      <c r="N23" s="26">
+      <c r="N23" s="17">
         <v>493</v>
       </c>
-      <c r="O23" s="26">
+      <c r="O23" s="17">
         <v>569</v>
       </c>
-      <c r="P23" s="26">
+      <c r="P23" s="17">
         <v>831</v>
       </c>
-      <c r="Q23" s="26">
+      <c r="Q23" s="17">
         <v>779</v>
       </c>
-      <c r="R23" s="26">
+      <c r="R23" s="17">
         <v>870</v>
       </c>
-      <c r="S23" s="26">
+      <c r="S23" s="17">
         <f>VLOOKUP(B23,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>798</v>
       </c>
-      <c r="T23" s="42">
+      <c r="T23" s="29">
         <f>VLOOKUP(B23,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>1020</v>
       </c>
     </row>
     <row r="24" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="25">
+      <c r="B24" s="16">
         <v>241999</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="26" t="s">
+      <c r="C24" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="17">
         <v>134</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="17">
         <v>174</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="17">
         <v>159</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="17">
         <v>158</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="17">
         <v>148</v>
       </c>
-      <c r="J24" s="26">
+      <c r="J24" s="17">
         <v>139</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="17">
         <v>131</v>
       </c>
-      <c r="L24" s="26">
+      <c r="L24" s="17">
         <v>131</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="17">
         <v>180</v>
       </c>
-      <c r="N24" s="26">
+      <c r="N24" s="17">
         <v>277</v>
       </c>
-      <c r="O24" s="26">
+      <c r="O24" s="17">
         <v>364</v>
       </c>
-      <c r="P24" s="26">
+      <c r="P24" s="17">
         <v>772</v>
       </c>
-      <c r="Q24" s="26">
+      <c r="Q24" s="17">
         <v>711</v>
       </c>
-      <c r="R24" s="26">
+      <c r="R24" s="17">
         <v>726</v>
       </c>
-      <c r="S24" s="26">
+      <c r="S24" s="17">
         <f>VLOOKUP(B24,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>562</v>
       </c>
-      <c r="T24" s="42">
+      <c r="T24" s="29">
         <f>VLOOKUP(B24,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>743</v>
       </c>
     </row>
     <row r="25" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="25">
+      <c r="B25" s="16">
         <v>251</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="26" t="s">
+      <c r="C25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="17">
         <v>50</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="17">
         <v>48</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="17">
         <v>43</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="17">
         <v>61</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="17">
         <v>61</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="17">
         <v>54</v>
       </c>
-      <c r="K25" s="26">
+      <c r="K25" s="17">
         <v>45</v>
       </c>
-      <c r="L25" s="26">
+      <c r="L25" s="17">
         <v>58</v>
       </c>
-      <c r="M25" s="26">
+      <c r="M25" s="17">
         <v>75</v>
       </c>
-      <c r="N25" s="26">
+      <c r="N25" s="17">
         <v>102</v>
       </c>
-      <c r="O25" s="26">
+      <c r="O25" s="17">
         <v>127</v>
       </c>
-      <c r="P25" s="26">
+      <c r="P25" s="17">
         <v>232</v>
       </c>
-      <c r="Q25" s="26">
+      <c r="Q25" s="17">
         <v>240</v>
       </c>
-      <c r="R25" s="26">
+      <c r="R25" s="17">
         <v>233</v>
       </c>
-      <c r="S25" s="26">
+      <c r="S25" s="17">
         <f>VLOOKUP(B25,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>218</v>
       </c>
-      <c r="T25" s="42">
+      <c r="T25" s="29">
         <f>VLOOKUP(B25,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>228</v>
       </c>
     </row>
     <row r="26" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="25">
+      <c r="B26" s="16">
         <v>252</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="26" t="s">
+      <c r="C26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="17">
         <v>35</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="17">
         <v>64</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="17">
         <v>66</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="17">
         <v>75</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="17">
         <v>39</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="17">
         <v>39</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="17">
         <v>43</v>
       </c>
-      <c r="L26" s="26">
+      <c r="L26" s="17">
         <v>64</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="17">
         <v>73</v>
       </c>
-      <c r="N26" s="26">
+      <c r="N26" s="17">
         <v>101</v>
       </c>
-      <c r="O26" s="26">
+      <c r="O26" s="17">
         <v>109</v>
       </c>
-      <c r="P26" s="26">
+      <c r="P26" s="17">
         <v>197</v>
       </c>
-      <c r="Q26" s="26">
+      <c r="Q26" s="17">
         <v>174</v>
       </c>
-      <c r="R26" s="26">
+      <c r="R26" s="17">
         <v>200</v>
       </c>
-      <c r="S26" s="26">
+      <c r="S26" s="17">
         <f>VLOOKUP(B26,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>198</v>
       </c>
-      <c r="T26" s="42">
+      <c r="T26" s="29">
         <f>VLOOKUP(B26,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>202</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="25">
+      <c r="B27" s="16">
         <v>254</v>
       </c>
-      <c r="C27" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="26" t="s">
+      <c r="C27" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="17">
         <v>118</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="17">
         <v>107</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="17">
         <v>111</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="17">
         <v>109</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="17">
         <v>82</v>
       </c>
-      <c r="J27" s="26">
+      <c r="J27" s="17">
         <v>91</v>
       </c>
-      <c r="K27" s="26">
+      <c r="K27" s="17">
         <v>90</v>
       </c>
-      <c r="L27" s="26">
+      <c r="L27" s="17">
         <v>93</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M27" s="17">
         <v>120</v>
       </c>
-      <c r="N27" s="26">
+      <c r="N27" s="17">
         <v>124</v>
       </c>
-      <c r="O27" s="26">
+      <c r="O27" s="17">
         <v>163</v>
       </c>
-      <c r="P27" s="26">
+      <c r="P27" s="17">
         <v>284</v>
       </c>
-      <c r="Q27" s="26">
+      <c r="Q27" s="17">
         <v>226</v>
       </c>
-      <c r="R27" s="26">
+      <c r="R27" s="17">
         <v>270</v>
       </c>
-      <c r="S27" s="26">
+      <c r="S27" s="17">
         <f>VLOOKUP(B27,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>262</v>
       </c>
-      <c r="T27" s="42">
+      <c r="T27" s="29">
         <f>VLOOKUP(B27,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>269</v>
       </c>
     </row>
     <row r="28" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="25">
+      <c r="B28" s="16">
         <v>255</v>
       </c>
-      <c r="C28" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="26" t="s">
+      <c r="C28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="17">
         <v>13</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="17">
         <v>16</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="17">
         <v>18</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="17">
         <v>10</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="17">
         <v>14</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J28" s="17">
         <v>14</v>
       </c>
-      <c r="K28" s="26">
+      <c r="K28" s="17">
         <v>14</v>
       </c>
-      <c r="L28" s="26">
+      <c r="L28" s="17">
         <v>11</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28" s="17">
         <v>9</v>
       </c>
-      <c r="N28" s="26">
+      <c r="N28" s="17">
         <v>20</v>
       </c>
-      <c r="O28" s="26">
+      <c r="O28" s="17">
         <v>38</v>
       </c>
-      <c r="P28" s="26">
+      <c r="P28" s="17">
         <v>71</v>
       </c>
-      <c r="Q28" s="26">
+      <c r="Q28" s="17">
         <v>61</v>
       </c>
-      <c r="R28" s="26">
+      <c r="R28" s="17">
         <v>52</v>
       </c>
-      <c r="S28" s="26">
+      <c r="S28" s="17">
         <f>VLOOKUP(B28,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="T28" s="42">
+      <c r="T28" s="29">
         <f>VLOOKUP(B28,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="25">
+      <c r="B29" s="16">
         <v>256</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="26" t="s">
+      <c r="C29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="17">
         <v>48</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="17">
         <v>36</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="17">
         <v>29</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="17">
         <v>34</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="17">
         <v>19</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="17">
         <v>15</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="17">
         <v>12</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L29" s="17">
         <v>24</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M29" s="17">
         <v>35</v>
       </c>
-      <c r="N29" s="26">
+      <c r="N29" s="17">
         <v>27</v>
       </c>
-      <c r="O29" s="26">
+      <c r="O29" s="17">
         <v>58</v>
       </c>
-      <c r="P29" s="26">
+      <c r="P29" s="17">
         <v>154</v>
       </c>
-      <c r="Q29" s="26">
+      <c r="Q29" s="17">
         <v>116</v>
       </c>
-      <c r="R29" s="26">
+      <c r="R29" s="17">
         <v>109</v>
       </c>
-      <c r="S29" s="26">
+      <c r="S29" s="17">
         <f>VLOOKUP(B29,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>142</v>
       </c>
-      <c r="T29" s="42">
+      <c r="T29" s="29">
         <f>VLOOKUP(B29,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>119</v>
       </c>
     </row>
     <row r="30" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="25">
+      <c r="B30" s="16">
         <v>257</v>
       </c>
-      <c r="C30" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="26" t="s">
+      <c r="C30" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="17">
         <v>33</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="17">
         <v>33</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="17">
         <v>47</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="17">
         <v>50</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="17">
         <v>6</v>
       </c>
-      <c r="J30" s="26">
+      <c r="J30" s="17">
         <v>12</v>
       </c>
-      <c r="K30" s="26">
+      <c r="K30" s="17">
         <v>6</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L30" s="17">
         <v>27</v>
       </c>
-      <c r="M30" s="26">
+      <c r="M30" s="17">
         <v>49</v>
       </c>
-      <c r="N30" s="26">
+      <c r="N30" s="17">
         <v>85</v>
       </c>
-      <c r="O30" s="26">
+      <c r="O30" s="17">
         <v>83</v>
       </c>
-      <c r="P30" s="26">
+      <c r="P30" s="17">
         <v>166</v>
       </c>
-      <c r="Q30" s="26">
+      <c r="Q30" s="17">
         <v>155</v>
       </c>
-      <c r="R30" s="26">
+      <c r="R30" s="17">
         <v>195</v>
       </c>
-      <c r="S30" s="26">
+      <c r="S30" s="17">
         <f>VLOOKUP(B30,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>139</v>
       </c>
-      <c r="T30" s="42">
+      <c r="T30" s="29">
         <f>VLOOKUP(B30,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>129</v>
       </c>
     </row>
     <row r="31" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="25">
+      <c r="B31" s="16">
         <v>2</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="26" t="s">
+      <c r="C31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="18">
         <v>701</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="18">
         <v>771</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="18">
         <v>735</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H31" s="18">
         <v>734</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I31" s="18">
         <v>615</v>
       </c>
-      <c r="J31" s="27">
+      <c r="J31" s="18">
         <v>622</v>
       </c>
-      <c r="K31" s="27">
+      <c r="K31" s="18">
         <v>625</v>
       </c>
-      <c r="L31" s="27">
+      <c r="L31" s="18">
         <v>743</v>
       </c>
-      <c r="M31" s="27">
+      <c r="M31" s="18">
         <v>892</v>
       </c>
-      <c r="N31" s="27">
+      <c r="N31" s="18">
         <v>1229</v>
       </c>
-      <c r="O31" s="27">
+      <c r="O31" s="18">
         <v>1511</v>
       </c>
-      <c r="P31" s="27">
+      <c r="P31" s="18">
         <v>2707</v>
       </c>
-      <c r="Q31" s="27">
+      <c r="Q31" s="18">
         <v>2462</v>
       </c>
-      <c r="R31" s="27">
+      <c r="R31" s="18">
         <v>2655</v>
       </c>
-      <c r="S31" s="27">
+      <c r="S31" s="18">
         <f>VLOOKUP(B31,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>2369</v>
       </c>
-      <c r="T31" s="43">
+      <c r="T31" s="30">
         <f>VLOOKUP(B31,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>2765</v>
       </c>
     </row>
     <row r="32" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="25">
+      <c r="B32" s="16">
         <v>351</v>
       </c>
-      <c r="C32" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="26" t="s">
+      <c r="C32" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="17">
         <v>40</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="17">
         <v>29</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="17">
         <v>35</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="17">
         <v>33</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="17">
         <v>32</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J32" s="17">
         <v>33</v>
       </c>
-      <c r="K32" s="26">
+      <c r="K32" s="17">
         <v>40</v>
       </c>
-      <c r="L32" s="26">
+      <c r="L32" s="17">
         <v>30</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M32" s="17">
         <v>67</v>
       </c>
-      <c r="N32" s="26">
+      <c r="N32" s="17">
         <v>97</v>
       </c>
-      <c r="O32" s="26">
+      <c r="O32" s="17">
         <v>87</v>
       </c>
-      <c r="P32" s="26">
+      <c r="P32" s="17">
         <v>182</v>
       </c>
-      <c r="Q32" s="26">
+      <c r="Q32" s="17">
         <v>168</v>
       </c>
-      <c r="R32" s="26">
+      <c r="R32" s="17">
         <v>176</v>
       </c>
-      <c r="S32" s="26">
+      <c r="S32" s="17">
         <f>VLOOKUP(B32,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>160</v>
       </c>
-      <c r="T32" s="42">
+      <c r="T32" s="29">
         <f>VLOOKUP(B32,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>170</v>
       </c>
     </row>
     <row r="33" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="25">
+      <c r="B33" s="16">
         <v>352</v>
       </c>
-      <c r="C33" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="26" t="s">
+      <c r="C33" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="17">
         <v>45</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="17">
         <v>44</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="17">
         <v>49</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="17">
         <v>44</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="17">
         <v>47</v>
       </c>
-      <c r="J33" s="26">
+      <c r="J33" s="17">
         <v>47</v>
       </c>
-      <c r="K33" s="26">
+      <c r="K33" s="17">
         <v>45</v>
       </c>
-      <c r="L33" s="26">
+      <c r="L33" s="17">
         <v>41</v>
       </c>
-      <c r="M33" s="26">
+      <c r="M33" s="17">
         <v>48</v>
       </c>
-      <c r="N33" s="26">
+      <c r="N33" s="17">
         <v>83</v>
       </c>
-      <c r="O33" s="26">
+      <c r="O33" s="17">
         <v>84</v>
       </c>
-      <c r="P33" s="26">
+      <c r="P33" s="17">
         <v>168</v>
       </c>
-      <c r="Q33" s="26">
+      <c r="Q33" s="17">
         <v>165</v>
       </c>
-      <c r="R33" s="26">
+      <c r="R33" s="17">
         <v>143</v>
       </c>
-      <c r="S33" s="26">
+      <c r="S33" s="17">
         <f>VLOOKUP(B33,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>131</v>
       </c>
-      <c r="T33" s="42">
+      <c r="T33" s="29">
         <f>VLOOKUP(B33,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>111</v>
       </c>
     </row>
     <row r="34" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="25">
+      <c r="B34" s="16">
         <v>353</v>
       </c>
-      <c r="C34" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="26" t="s">
+      <c r="C34" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="17">
         <v>55</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F34" s="17">
         <v>47</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="17">
         <v>60</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="17">
         <v>62</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I34" s="17">
         <v>58</v>
       </c>
-      <c r="J34" s="26">
+      <c r="J34" s="17">
         <v>60</v>
       </c>
-      <c r="K34" s="26">
+      <c r="K34" s="17">
         <v>44</v>
       </c>
-      <c r="L34" s="26">
+      <c r="L34" s="17">
         <v>42</v>
       </c>
-      <c r="M34" s="26">
+      <c r="M34" s="17">
         <v>67</v>
       </c>
-      <c r="N34" s="26">
+      <c r="N34" s="17">
         <v>84</v>
       </c>
-      <c r="O34" s="26">
+      <c r="O34" s="17">
         <v>90</v>
       </c>
-      <c r="P34" s="26">
+      <c r="P34" s="17">
         <v>128</v>
       </c>
-      <c r="Q34" s="26">
+      <c r="Q34" s="17">
         <v>157</v>
       </c>
-      <c r="R34" s="26">
+      <c r="R34" s="17">
         <v>149</v>
       </c>
-      <c r="S34" s="26">
+      <c r="S34" s="17">
         <f>VLOOKUP(B34,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>185</v>
       </c>
-      <c r="T34" s="42">
+      <c r="T34" s="29">
         <f>VLOOKUP(B34,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>196</v>
       </c>
     </row>
     <row r="35" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="25">
+      <c r="B35" s="16">
         <v>354</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="26" t="s">
+      <c r="C35" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="17">
         <v>5</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F35" s="17">
         <v>10</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G35" s="17">
         <v>10</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="17">
         <v>3</v>
       </c>
-      <c r="I35" s="26">
+      <c r="I35" s="17">
         <v>10</v>
       </c>
-      <c r="J35" s="26">
+      <c r="J35" s="17">
         <v>4</v>
       </c>
-      <c r="K35" s="26">
+      <c r="K35" s="17">
         <v>5</v>
       </c>
-      <c r="L35" s="26">
+      <c r="L35" s="17">
         <v>9</v>
       </c>
-      <c r="M35" s="26">
+      <c r="M35" s="17">
         <v>15</v>
       </c>
-      <c r="N35" s="26">
+      <c r="N35" s="17">
         <v>22</v>
       </c>
-      <c r="O35" s="26">
+      <c r="O35" s="17">
         <v>35</v>
       </c>
-      <c r="P35" s="26">
+      <c r="P35" s="17">
         <v>52</v>
       </c>
-      <c r="Q35" s="26">
+      <c r="Q35" s="17">
         <v>30</v>
       </c>
-      <c r="R35" s="26">
+      <c r="R35" s="17">
         <v>41</v>
       </c>
-      <c r="S35" s="26">
+      <c r="S35" s="17">
         <f>VLOOKUP(B35,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="T35" s="42">
+      <c r="T35" s="29">
         <f>VLOOKUP(B35,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="25">
+      <c r="B36" s="16">
         <v>355</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="17">
+        <v>42</v>
+      </c>
+      <c r="F36" s="17">
+        <v>29</v>
+      </c>
+      <c r="G36" s="17">
+        <v>33</v>
+      </c>
+      <c r="H36" s="17">
+        <v>21</v>
+      </c>
+      <c r="I36" s="17">
+        <v>29</v>
+      </c>
+      <c r="J36" s="17">
+        <v>21</v>
+      </c>
+      <c r="K36" s="17">
         <v>32</v>
       </c>
-      <c r="D36" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="26">
-        <v>42</v>
-      </c>
-      <c r="F36" s="26">
-        <v>29</v>
-      </c>
-      <c r="G36" s="26">
-        <v>33</v>
-      </c>
-      <c r="H36" s="26">
-        <v>21</v>
-      </c>
-      <c r="I36" s="26">
-        <v>29</v>
-      </c>
-      <c r="J36" s="26">
-        <v>21</v>
-      </c>
-      <c r="K36" s="26">
-        <v>32</v>
-      </c>
-      <c r="L36" s="26">
+      <c r="L36" s="17">
         <v>30</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M36" s="17">
         <v>39</v>
       </c>
-      <c r="N36" s="26">
+      <c r="N36" s="17">
         <v>52</v>
       </c>
-      <c r="O36" s="26">
+      <c r="O36" s="17">
         <v>62</v>
       </c>
-      <c r="P36" s="26">
+      <c r="P36" s="17">
         <v>168</v>
       </c>
-      <c r="Q36" s="26">
+      <c r="Q36" s="17">
         <v>126</v>
       </c>
-      <c r="R36" s="26">
+      <c r="R36" s="17">
         <v>111</v>
       </c>
-      <c r="S36" s="26">
+      <c r="S36" s="17">
         <f>VLOOKUP(B36,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>146</v>
       </c>
-      <c r="T36" s="42">
+      <c r="T36" s="29">
         <f>VLOOKUP(B36,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>137</v>
       </c>
     </row>
     <row r="37" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="25">
+      <c r="B37" s="16">
         <v>356</v>
       </c>
-      <c r="C37" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="26" t="s">
+      <c r="C37" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="17">
         <v>42</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="17">
         <v>28</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="17">
         <v>29</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="17">
         <v>22</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I37" s="17">
         <v>22</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37" s="17">
         <v>24</v>
       </c>
-      <c r="K37" s="26">
+      <c r="K37" s="17">
         <v>14</v>
       </c>
-      <c r="L37" s="26">
+      <c r="L37" s="17">
         <v>14</v>
       </c>
-      <c r="M37" s="26">
+      <c r="M37" s="17">
         <v>30</v>
       </c>
-      <c r="N37" s="26">
+      <c r="N37" s="17">
         <v>42</v>
       </c>
-      <c r="O37" s="26">
+      <c r="O37" s="17">
         <v>60</v>
       </c>
-      <c r="P37" s="26">
+      <c r="P37" s="17">
         <v>106</v>
       </c>
-      <c r="Q37" s="26">
+      <c r="Q37" s="17">
         <v>72</v>
       </c>
-      <c r="R37" s="26">
+      <c r="R37" s="17">
         <v>62</v>
       </c>
-      <c r="S37" s="26">
+      <c r="S37" s="17">
         <f>VLOOKUP(B37,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>82</v>
       </c>
-      <c r="T37" s="42">
+      <c r="T37" s="29">
         <f>VLOOKUP(B37,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>61</v>
       </c>
     </row>
     <row r="38" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="25">
+      <c r="B38" s="16">
         <v>357</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="26" t="s">
+      <c r="C38" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="17">
         <v>37</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="17">
         <v>41</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="17">
         <v>38</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="17">
         <v>23</v>
       </c>
-      <c r="I38" s="26">
+      <c r="I38" s="17">
         <v>11</v>
       </c>
-      <c r="J38" s="26">
+      <c r="J38" s="17">
         <v>10</v>
       </c>
-      <c r="K38" s="26">
+      <c r="K38" s="17">
         <v>10</v>
       </c>
-      <c r="L38" s="26">
+      <c r="L38" s="17">
         <v>27</v>
       </c>
-      <c r="M38" s="26">
+      <c r="M38" s="17">
         <v>41</v>
       </c>
-      <c r="N38" s="26">
+      <c r="N38" s="17">
         <v>58</v>
       </c>
-      <c r="O38" s="26">
+      <c r="O38" s="17">
         <v>62</v>
       </c>
-      <c r="P38" s="26">
+      <c r="P38" s="17">
         <v>125</v>
       </c>
-      <c r="Q38" s="26">
+      <c r="Q38" s="17">
         <v>122</v>
       </c>
-      <c r="R38" s="26">
+      <c r="R38" s="17">
         <v>100</v>
       </c>
-      <c r="S38" s="26">
+      <c r="S38" s="17">
         <f>VLOOKUP(B38,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>105</v>
       </c>
-      <c r="T38" s="42">
+      <c r="T38" s="29">
         <f>VLOOKUP(B38,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="25">
+      <c r="B39" s="16">
         <v>358</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="26" t="s">
+      <c r="C39" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="17">
         <v>42</v>
       </c>
-      <c r="F39" s="26">
+      <c r="F39" s="17">
         <v>40</v>
       </c>
-      <c r="G39" s="26">
+      <c r="G39" s="17">
         <v>23</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="17">
         <v>22</v>
       </c>
-      <c r="I39" s="26">
+      <c r="I39" s="17">
         <v>22</v>
       </c>
-      <c r="J39" s="26">
+      <c r="J39" s="17">
         <v>18</v>
       </c>
-      <c r="K39" s="26">
+      <c r="K39" s="17">
         <v>18</v>
       </c>
-      <c r="L39" s="26">
+      <c r="L39" s="17">
         <v>22</v>
       </c>
-      <c r="M39" s="26">
+      <c r="M39" s="17">
         <v>49</v>
       </c>
-      <c r="N39" s="26">
+      <c r="N39" s="17">
         <v>67</v>
       </c>
-      <c r="O39" s="26">
+      <c r="O39" s="17">
         <v>95</v>
       </c>
-      <c r="P39" s="26">
+      <c r="P39" s="17">
         <v>160</v>
       </c>
-      <c r="Q39" s="26">
+      <c r="Q39" s="17">
         <v>124</v>
       </c>
-      <c r="R39" s="26">
+      <c r="R39" s="17">
         <v>160</v>
       </c>
-      <c r="S39" s="26">
+      <c r="S39" s="17">
         <f>VLOOKUP(B39,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>185</v>
       </c>
-      <c r="T39" s="42">
+      <c r="T39" s="29">
         <f>VLOOKUP(B39,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>180</v>
       </c>
     </row>
     <row r="40" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="25">
+      <c r="B40" s="16">
         <v>359</v>
       </c>
-      <c r="C40" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="26" t="s">
+      <c r="C40" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E40" s="17">
         <v>43</v>
       </c>
-      <c r="F40" s="26">
+      <c r="F40" s="17">
         <v>50</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G40" s="17">
         <v>31</v>
       </c>
-      <c r="H40" s="26">
+      <c r="H40" s="17">
         <v>38</v>
       </c>
-      <c r="I40" s="26">
+      <c r="I40" s="17">
         <v>48</v>
       </c>
-      <c r="J40" s="26">
+      <c r="J40" s="17">
         <v>29</v>
       </c>
-      <c r="K40" s="26">
+      <c r="K40" s="17">
         <v>26</v>
       </c>
-      <c r="L40" s="26">
+      <c r="L40" s="17">
         <v>44</v>
       </c>
-      <c r="M40" s="26">
+      <c r="M40" s="17">
         <v>53</v>
       </c>
-      <c r="N40" s="26">
+      <c r="N40" s="17">
         <v>90</v>
       </c>
-      <c r="O40" s="26">
+      <c r="O40" s="17">
         <v>127</v>
       </c>
-      <c r="P40" s="26">
+      <c r="P40" s="17">
         <v>243</v>
       </c>
-      <c r="Q40" s="26">
+      <c r="Q40" s="17">
         <v>222</v>
       </c>
-      <c r="R40" s="26">
+      <c r="R40" s="17">
         <v>251</v>
       </c>
-      <c r="S40" s="26">
+      <c r="S40" s="17">
         <f>VLOOKUP(B40,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>218</v>
       </c>
-      <c r="T40" s="42">
+      <c r="T40" s="29">
         <f>VLOOKUP(B40,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>235</v>
       </c>
     </row>
     <row r="41" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="25">
+      <c r="B41" s="16">
         <v>360</v>
       </c>
-      <c r="C41" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="26" t="s">
+      <c r="C41" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E41" s="17">
         <v>28</v>
       </c>
-      <c r="F41" s="26">
+      <c r="F41" s="17">
         <v>25</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G41" s="17">
         <v>20</v>
       </c>
-      <c r="H41" s="26">
+      <c r="H41" s="17">
         <v>21</v>
       </c>
-      <c r="I41" s="26">
+      <c r="I41" s="17">
         <v>21</v>
       </c>
-      <c r="J41" s="26">
+      <c r="J41" s="17">
         <v>21</v>
       </c>
-      <c r="K41" s="26">
+      <c r="K41" s="17">
         <v>17</v>
       </c>
-      <c r="L41" s="26">
+      <c r="L41" s="17">
         <v>17</v>
       </c>
-      <c r="M41" s="26">
+      <c r="M41" s="17">
         <v>19</v>
       </c>
-      <c r="N41" s="26">
+      <c r="N41" s="17">
         <v>44</v>
       </c>
-      <c r="O41" s="26">
+      <c r="O41" s="17">
         <v>53</v>
       </c>
-      <c r="P41" s="26">
+      <c r="P41" s="17">
         <v>71</v>
       </c>
-      <c r="Q41" s="26">
+      <c r="Q41" s="17">
         <v>52</v>
       </c>
-      <c r="R41" s="26">
+      <c r="R41" s="17">
         <v>67</v>
       </c>
-      <c r="S41" s="26">
+      <c r="S41" s="17">
         <f>VLOOKUP(B41,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>57</v>
       </c>
-      <c r="T41" s="42">
+      <c r="T41" s="29">
         <f>VLOOKUP(B41,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="25">
+      <c r="B42" s="16">
         <v>361</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="17">
+        <v>44</v>
+      </c>
+      <c r="F42" s="17">
+        <v>28</v>
+      </c>
+      <c r="G42" s="17">
+        <v>46</v>
+      </c>
+      <c r="H42" s="17">
+        <v>33</v>
+      </c>
+      <c r="I42" s="17">
+        <v>19</v>
+      </c>
+      <c r="J42" s="17">
+        <v>22</v>
+      </c>
+      <c r="K42" s="17">
+        <v>20</v>
+      </c>
+      <c r="L42" s="17">
+        <v>34</v>
+      </c>
+      <c r="M42" s="17">
+        <v>35</v>
+      </c>
+      <c r="N42" s="17">
         <v>38</v>
       </c>
-      <c r="D42" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="26">
-        <v>44</v>
-      </c>
-      <c r="F42" s="26">
-        <v>28</v>
-      </c>
-      <c r="G42" s="26">
-        <v>46</v>
-      </c>
-      <c r="H42" s="26">
-        <v>33</v>
-      </c>
-      <c r="I42" s="26">
-        <v>19</v>
-      </c>
-      <c r="J42" s="26">
-        <v>22</v>
-      </c>
-      <c r="K42" s="26">
-        <v>20</v>
-      </c>
-      <c r="L42" s="26">
-        <v>34</v>
-      </c>
-      <c r="M42" s="26">
-        <v>35</v>
-      </c>
-      <c r="N42" s="26">
-        <v>38</v>
-      </c>
-      <c r="O42" s="26">
+      <c r="O42" s="17">
         <v>58</v>
       </c>
-      <c r="P42" s="26">
+      <c r="P42" s="17">
         <v>132</v>
       </c>
-      <c r="Q42" s="26">
+      <c r="Q42" s="17">
         <v>110</v>
       </c>
-      <c r="R42" s="26">
+      <c r="R42" s="17">
         <v>127</v>
       </c>
-      <c r="S42" s="26">
+      <c r="S42" s="17">
         <f>VLOOKUP(B42,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>113</v>
       </c>
-      <c r="T42" s="42">
+      <c r="T42" s="29">
         <f>VLOOKUP(B42,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>108</v>
       </c>
     </row>
     <row r="43" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="25">
+      <c r="B43" s="16">
         <v>3</v>
       </c>
-      <c r="C43" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="26" t="s">
+      <c r="C43" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="18">
         <v>423</v>
       </c>
-      <c r="F43" s="27">
+      <c r="F43" s="18">
         <v>371</v>
       </c>
-      <c r="G43" s="27">
+      <c r="G43" s="18">
         <v>374</v>
       </c>
-      <c r="H43" s="27">
+      <c r="H43" s="18">
         <v>322</v>
       </c>
-      <c r="I43" s="27">
+      <c r="I43" s="18">
         <v>319</v>
       </c>
-      <c r="J43" s="27">
+      <c r="J43" s="18">
         <v>289</v>
       </c>
-      <c r="K43" s="27">
+      <c r="K43" s="18">
         <v>271</v>
       </c>
-      <c r="L43" s="27">
+      <c r="L43" s="18">
         <v>310</v>
       </c>
-      <c r="M43" s="27">
+      <c r="M43" s="18">
         <v>463</v>
       </c>
-      <c r="N43" s="27">
+      <c r="N43" s="18">
         <v>677</v>
       </c>
-      <c r="O43" s="27">
+      <c r="O43" s="18">
         <v>813</v>
       </c>
-      <c r="P43" s="27">
+      <c r="P43" s="18">
         <v>1535</v>
       </c>
-      <c r="Q43" s="27">
+      <c r="Q43" s="18">
         <v>1348</v>
       </c>
-      <c r="R43" s="27">
+      <c r="R43" s="18">
         <v>1387</v>
       </c>
-      <c r="S43" s="27">
+      <c r="S43" s="18">
         <f>VLOOKUP(B43,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>1412</v>
       </c>
-      <c r="T43" s="43">
+      <c r="T43" s="30">
         <f>VLOOKUP(B43,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>1416</v>
       </c>
     </row>
     <row r="44" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="25">
+      <c r="B44" s="16">
         <v>401</v>
       </c>
-      <c r="C44" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="26" t="s">
+      <c r="C44" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E44" s="17">
         <v>18</v>
       </c>
-      <c r="F44" s="26">
+      <c r="F44" s="17">
         <v>16</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="17">
         <v>28</v>
       </c>
-      <c r="H44" s="26">
+      <c r="H44" s="17">
         <v>25</v>
       </c>
-      <c r="I44" s="26">
+      <c r="I44" s="17">
         <v>24</v>
       </c>
-      <c r="J44" s="26">
+      <c r="J44" s="17">
         <v>29</v>
       </c>
-      <c r="K44" s="26">
+      <c r="K44" s="17">
         <v>20</v>
       </c>
-      <c r="L44" s="26">
+      <c r="L44" s="17">
         <v>46</v>
       </c>
-      <c r="M44" s="26">
+      <c r="M44" s="17">
         <v>23</v>
       </c>
-      <c r="N44" s="26">
+      <c r="N44" s="17">
         <v>50</v>
       </c>
-      <c r="O44" s="26">
+      <c r="O44" s="17">
         <v>83</v>
       </c>
-      <c r="P44" s="26">
+      <c r="P44" s="17">
         <v>180</v>
       </c>
-      <c r="Q44" s="26">
+      <c r="Q44" s="17">
         <v>202</v>
       </c>
-      <c r="R44" s="26">
+      <c r="R44" s="17">
         <v>184</v>
       </c>
-      <c r="S44" s="26">
+      <c r="S44" s="17">
         <f>VLOOKUP(B44,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>186</v>
       </c>
-      <c r="T44" s="42">
+      <c r="T44" s="29">
         <f>VLOOKUP(B44,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>179</v>
       </c>
     </row>
     <row r="45" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="25">
+      <c r="B45" s="16">
         <v>402</v>
       </c>
-      <c r="C45" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="26" t="s">
+      <c r="C45" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="26">
+      <c r="E45" s="17">
         <v>14</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F45" s="17">
         <v>15</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G45" s="17">
         <v>16</v>
       </c>
-      <c r="H45" s="26">
+      <c r="H45" s="17">
         <v>17</v>
       </c>
-      <c r="I45" s="26">
+      <c r="I45" s="17">
         <v>17</v>
       </c>
-      <c r="J45" s="26">
+      <c r="J45" s="17">
         <v>12</v>
       </c>
-      <c r="K45" s="26">
+      <c r="K45" s="17">
         <v>13</v>
       </c>
-      <c r="L45" s="26">
+      <c r="L45" s="17">
         <v>16</v>
       </c>
-      <c r="M45" s="26">
+      <c r="M45" s="17">
         <v>26</v>
       </c>
-      <c r="N45" s="26">
+      <c r="N45" s="17">
         <v>29</v>
       </c>
-      <c r="O45" s="26">
+      <c r="O45" s="17">
         <v>40</v>
       </c>
-      <c r="P45" s="26">
+      <c r="P45" s="17">
         <v>80</v>
       </c>
-      <c r="Q45" s="26">
+      <c r="Q45" s="17">
         <v>68</v>
       </c>
-      <c r="R45" s="26">
+      <c r="R45" s="17">
         <v>79</v>
       </c>
-      <c r="S45" s="26">
+      <c r="S45" s="17">
         <f>VLOOKUP(B45,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>77</v>
       </c>
-      <c r="T45" s="42">
+      <c r="T45" s="29">
         <f>VLOOKUP(B45,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>75</v>
       </c>
     </row>
     <row r="46" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="25">
+      <c r="B46" s="16">
         <v>403</v>
       </c>
-      <c r="C46" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="26" t="s">
+      <c r="C46" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="26">
+      <c r="E46" s="17">
         <v>101</v>
       </c>
-      <c r="F46" s="26">
+      <c r="F46" s="17">
         <v>97</v>
       </c>
-      <c r="G46" s="26">
+      <c r="G46" s="17">
         <v>95</v>
       </c>
-      <c r="H46" s="26">
+      <c r="H46" s="17">
         <v>80</v>
       </c>
-      <c r="I46" s="26">
+      <c r="I46" s="17">
         <v>101</v>
       </c>
-      <c r="J46" s="26">
+      <c r="J46" s="17">
         <v>113</v>
       </c>
-      <c r="K46" s="26">
+      <c r="K46" s="17">
         <v>84</v>
       </c>
-      <c r="L46" s="26">
+      <c r="L46" s="17">
         <v>107</v>
       </c>
-      <c r="M46" s="26">
+      <c r="M46" s="17">
         <v>105</v>
       </c>
-      <c r="N46" s="26">
+      <c r="N46" s="17">
         <v>136</v>
       </c>
-      <c r="O46" s="26">
+      <c r="O46" s="17">
         <v>140</v>
       </c>
-      <c r="P46" s="26">
+      <c r="P46" s="17">
         <v>211</v>
       </c>
-      <c r="Q46" s="26">
+      <c r="Q46" s="17">
         <v>221</v>
       </c>
-      <c r="R46" s="26">
+      <c r="R46" s="17">
         <v>223</v>
       </c>
-      <c r="S46" s="26">
+      <c r="S46" s="17">
         <f>VLOOKUP(B46,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>214</v>
       </c>
-      <c r="T46" s="42">
+      <c r="T46" s="29">
         <f>VLOOKUP(B46,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>256</v>
       </c>
     </row>
     <row r="47" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="25">
+      <c r="B47" s="16">
         <v>404</v>
       </c>
-      <c r="C47" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="26" t="s">
+      <c r="C47" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="26">
+      <c r="E47" s="17">
         <v>60</v>
       </c>
-      <c r="F47" s="26">
+      <c r="F47" s="17">
         <v>80</v>
       </c>
-      <c r="G47" s="26">
+      <c r="G47" s="17">
         <v>75</v>
       </c>
-      <c r="H47" s="26">
+      <c r="H47" s="17">
         <v>89</v>
       </c>
-      <c r="I47" s="26">
+      <c r="I47" s="17">
         <v>49</v>
       </c>
-      <c r="J47" s="26">
+      <c r="J47" s="17">
         <v>93</v>
       </c>
-      <c r="K47" s="26">
+      <c r="K47" s="17">
         <v>82</v>
       </c>
-      <c r="L47" s="26">
+      <c r="L47" s="17">
         <v>74</v>
       </c>
-      <c r="M47" s="26">
+      <c r="M47" s="17">
         <v>102</v>
       </c>
-      <c r="N47" s="26">
+      <c r="N47" s="17">
         <v>137</v>
       </c>
-      <c r="O47" s="26">
+      <c r="O47" s="17">
         <v>151</v>
       </c>
-      <c r="P47" s="26">
+      <c r="P47" s="17">
         <v>220</v>
       </c>
-      <c r="Q47" s="26">
+      <c r="Q47" s="17">
         <v>241</v>
       </c>
-      <c r="R47" s="26">
+      <c r="R47" s="17">
         <v>234</v>
       </c>
-      <c r="S47" s="26">
+      <c r="S47" s="17">
         <f>VLOOKUP(B47,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>253</v>
       </c>
-      <c r="T47" s="42">
+      <c r="T47" s="29">
         <f>VLOOKUP(B47,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>242</v>
       </c>
     </row>
     <row r="48" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="25">
+      <c r="B48" s="16">
         <v>405</v>
       </c>
-      <c r="C48" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="26" t="s">
+      <c r="C48" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="26">
+      <c r="E48" s="17">
         <v>26</v>
       </c>
-      <c r="F48" s="26">
+      <c r="F48" s="17">
         <v>22</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G48" s="17">
         <v>16</v>
       </c>
-      <c r="H48" s="26">
+      <c r="H48" s="17">
         <v>9</v>
       </c>
-      <c r="I48" s="26">
+      <c r="I48" s="17">
         <v>14</v>
       </c>
-      <c r="J48" s="26">
+      <c r="J48" s="17">
         <v>21</v>
       </c>
-      <c r="K48" s="26">
+      <c r="K48" s="17">
         <v>24</v>
       </c>
-      <c r="L48" s="26">
+      <c r="L48" s="17">
         <v>19</v>
       </c>
-      <c r="M48" s="26">
+      <c r="M48" s="17">
         <v>18</v>
       </c>
-      <c r="N48" s="26">
+      <c r="N48" s="17">
         <v>35</v>
       </c>
-      <c r="O48" s="26">
+      <c r="O48" s="17">
         <v>84</v>
       </c>
-      <c r="P48" s="26">
+      <c r="P48" s="17">
         <v>106</v>
       </c>
-      <c r="Q48" s="26">
+      <c r="Q48" s="17">
         <v>137</v>
       </c>
-      <c r="R48" s="26">
+      <c r="R48" s="17">
         <v>133</v>
       </c>
-      <c r="S48" s="26">
+      <c r="S48" s="17">
         <f>VLOOKUP(B48,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>136</v>
       </c>
-      <c r="T48" s="42">
+      <c r="T48" s="29">
         <f>VLOOKUP(B48,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>150</v>
       </c>
     </row>
     <row r="49" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="25">
+      <c r="B49" s="16">
         <v>451</v>
       </c>
-      <c r="C49" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="26" t="s">
+      <c r="C49" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="26">
+      <c r="E49" s="17">
         <v>14</v>
       </c>
-      <c r="F49" s="26">
+      <c r="F49" s="17">
         <v>16</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G49" s="17">
         <v>20</v>
       </c>
-      <c r="H49" s="26">
+      <c r="H49" s="17">
         <v>22</v>
       </c>
-      <c r="I49" s="26">
+      <c r="I49" s="17">
         <v>19</v>
       </c>
-      <c r="J49" s="26">
+      <c r="J49" s="17">
         <v>12</v>
       </c>
-      <c r="K49" s="26">
+      <c r="K49" s="17">
         <v>27</v>
       </c>
-      <c r="L49" s="26">
+      <c r="L49" s="17">
         <v>29</v>
       </c>
-      <c r="M49" s="26">
+      <c r="M49" s="17">
         <v>25</v>
       </c>
-      <c r="N49" s="26">
+      <c r="N49" s="17">
         <v>37</v>
       </c>
-      <c r="O49" s="26">
+      <c r="O49" s="17">
         <v>63</v>
       </c>
-      <c r="P49" s="26">
+      <c r="P49" s="17">
         <v>119</v>
       </c>
-      <c r="Q49" s="26">
+      <c r="Q49" s="17">
         <v>94</v>
       </c>
-      <c r="R49" s="26">
+      <c r="R49" s="17">
         <v>104</v>
       </c>
-      <c r="S49" s="26">
+      <c r="S49" s="17">
         <f>VLOOKUP(B49,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>95</v>
       </c>
-      <c r="T49" s="42">
+      <c r="T49" s="29">
         <f>VLOOKUP(B49,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>81</v>
       </c>
     </row>
     <row r="50" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="25">
+      <c r="B50" s="16">
         <v>452</v>
       </c>
-      <c r="C50" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="26" t="s">
+      <c r="C50" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="26">
+      <c r="E50" s="17">
         <v>43</v>
       </c>
-      <c r="F50" s="26">
+      <c r="F50" s="17">
         <v>37</v>
       </c>
-      <c r="G50" s="26">
+      <c r="G50" s="17">
         <v>60</v>
       </c>
-      <c r="H50" s="26">
+      <c r="H50" s="17">
         <v>33</v>
       </c>
-      <c r="I50" s="26">
+      <c r="I50" s="17">
         <v>30</v>
       </c>
-      <c r="J50" s="26">
+      <c r="J50" s="17">
         <v>9</v>
       </c>
-      <c r="K50" s="26">
+      <c r="K50" s="17">
         <v>14</v>
       </c>
-      <c r="L50" s="26">
+      <c r="L50" s="17">
         <v>30</v>
       </c>
-      <c r="M50" s="26">
+      <c r="M50" s="17">
         <v>43</v>
       </c>
-      <c r="N50" s="26">
+      <c r="N50" s="17">
         <v>62</v>
       </c>
-      <c r="O50" s="26">
+      <c r="O50" s="17">
         <v>97</v>
       </c>
-      <c r="P50" s="26">
+      <c r="P50" s="17">
         <v>162</v>
       </c>
-      <c r="Q50" s="26">
+      <c r="Q50" s="17">
         <v>153</v>
       </c>
-      <c r="R50" s="26">
+      <c r="R50" s="17">
         <v>138</v>
       </c>
-      <c r="S50" s="26">
+      <c r="S50" s="17">
         <f>VLOOKUP(B50,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>132</v>
       </c>
-      <c r="T50" s="42">
+      <c r="T50" s="29">
         <f>VLOOKUP(B50,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>122</v>
       </c>
     </row>
     <row r="51" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="25">
+      <c r="B51" s="16">
         <v>453</v>
       </c>
-      <c r="C51" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="26" t="s">
+      <c r="C51" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="26">
+      <c r="E51" s="17">
         <v>32</v>
       </c>
-      <c r="F51" s="26">
+      <c r="F51" s="17">
         <v>20</v>
       </c>
-      <c r="G51" s="26">
+      <c r="G51" s="17">
         <v>44</v>
       </c>
-      <c r="H51" s="26">
+      <c r="H51" s="17">
         <v>39</v>
       </c>
-      <c r="I51" s="26">
+      <c r="I51" s="17">
         <v>24</v>
       </c>
-      <c r="J51" s="26">
+      <c r="J51" s="17">
         <v>23</v>
       </c>
-      <c r="K51" s="26">
+      <c r="K51" s="17">
         <v>17</v>
       </c>
-      <c r="L51" s="26">
+      <c r="L51" s="17">
         <v>62</v>
       </c>
-      <c r="M51" s="26">
+      <c r="M51" s="17">
         <v>116</v>
       </c>
-      <c r="N51" s="26">
+      <c r="N51" s="17">
         <v>159</v>
       </c>
-      <c r="O51" s="26">
+      <c r="O51" s="17">
         <v>180</v>
       </c>
-      <c r="P51" s="26">
+      <c r="P51" s="17">
         <v>260</v>
       </c>
-      <c r="Q51" s="26">
+      <c r="Q51" s="17">
         <v>242</v>
       </c>
-      <c r="R51" s="26">
+      <c r="R51" s="17">
         <v>299</v>
       </c>
-      <c r="S51" s="26">
+      <c r="S51" s="17">
         <f>VLOOKUP(B51,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>299</v>
       </c>
-      <c r="T51" s="42">
+      <c r="T51" s="29">
         <f>VLOOKUP(B51,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>284</v>
       </c>
     </row>
     <row r="52" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="25">
+      <c r="B52" s="16">
         <v>454</v>
       </c>
-      <c r="C52" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="26" t="s">
+      <c r="C52" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="26">
+      <c r="E52" s="17">
         <v>87</v>
       </c>
-      <c r="F52" s="26">
+      <c r="F52" s="17">
         <v>81</v>
       </c>
-      <c r="G52" s="26">
+      <c r="G52" s="17">
         <v>89</v>
       </c>
-      <c r="H52" s="26">
+      <c r="H52" s="17">
         <v>108</v>
       </c>
-      <c r="I52" s="26">
+      <c r="I52" s="17">
         <v>85</v>
       </c>
-      <c r="J52" s="26">
+      <c r="J52" s="17">
         <v>65</v>
       </c>
-      <c r="K52" s="26">
+      <c r="K52" s="17">
         <v>84</v>
       </c>
-      <c r="L52" s="26">
+      <c r="L52" s="17">
         <v>115</v>
       </c>
-      <c r="M52" s="26">
+      <c r="M52" s="17">
         <v>147</v>
       </c>
-      <c r="N52" s="26">
+      <c r="N52" s="17">
         <v>236</v>
       </c>
-      <c r="O52" s="26">
+      <c r="O52" s="17">
         <v>291</v>
       </c>
-      <c r="P52" s="26">
+      <c r="P52" s="17">
         <v>419</v>
       </c>
-      <c r="Q52" s="26">
+      <c r="Q52" s="17">
         <v>420</v>
       </c>
-      <c r="R52" s="26">
+      <c r="R52" s="17">
         <v>421</v>
       </c>
-      <c r="S52" s="26">
+      <c r="S52" s="17">
         <f>VLOOKUP(B52,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>434</v>
       </c>
-      <c r="T52" s="42">
+      <c r="T52" s="29">
         <f>VLOOKUP(B52,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>434</v>
       </c>
     </row>
     <row r="53" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="25">
+      <c r="B53" s="16">
         <v>455</v>
       </c>
-      <c r="C53" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="26" t="s">
+      <c r="C53" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="26">
+      <c r="E53" s="17">
         <v>17</v>
       </c>
-      <c r="F53" s="26">
+      <c r="F53" s="17">
         <v>19</v>
       </c>
-      <c r="G53" s="26">
+      <c r="G53" s="17">
         <v>18</v>
       </c>
-      <c r="H53" s="26">
+      <c r="H53" s="17">
         <v>15</v>
       </c>
-      <c r="I53" s="26">
+      <c r="I53" s="17">
         <v>18</v>
       </c>
-      <c r="J53" s="26">
+      <c r="J53" s="17">
         <v>12</v>
       </c>
-      <c r="K53" s="26">
+      <c r="K53" s="17">
         <v>15</v>
       </c>
-      <c r="L53" s="26">
+      <c r="L53" s="17">
         <v>16</v>
       </c>
-      <c r="M53" s="26">
+      <c r="M53" s="17">
         <v>22</v>
       </c>
-      <c r="N53" s="26">
+      <c r="N53" s="17">
         <v>29</v>
       </c>
-      <c r="O53" s="26">
+      <c r="O53" s="17">
         <v>62</v>
       </c>
-      <c r="P53" s="26">
+      <c r="P53" s="17">
         <v>126</v>
       </c>
-      <c r="Q53" s="26">
+      <c r="Q53" s="17">
         <v>85</v>
       </c>
-      <c r="R53" s="26">
+      <c r="R53" s="17">
         <v>63</v>
       </c>
-      <c r="S53" s="26">
+      <c r="S53" s="17">
         <f>VLOOKUP(B53,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="T53" s="42">
+      <c r="T53" s="29">
         <f>VLOOKUP(B53,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>47</v>
       </c>
     </row>
     <row r="54" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="25">
+      <c r="B54" s="16">
         <v>456</v>
       </c>
-      <c r="C54" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="26" t="s">
+      <c r="C54" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="26">
+      <c r="E54" s="17">
         <v>57</v>
       </c>
-      <c r="F54" s="26">
+      <c r="F54" s="17">
         <v>86</v>
       </c>
-      <c r="G54" s="26">
+      <c r="G54" s="17">
         <v>109</v>
       </c>
-      <c r="H54" s="26">
+      <c r="H54" s="17">
         <v>100</v>
       </c>
-      <c r="I54" s="26">
+      <c r="I54" s="17">
         <v>92</v>
       </c>
-      <c r="J54" s="26">
+      <c r="J54" s="17">
         <v>87</v>
       </c>
-      <c r="K54" s="26">
+      <c r="K54" s="17">
         <v>56</v>
       </c>
-      <c r="L54" s="26">
+      <c r="L54" s="17">
         <v>74</v>
       </c>
-      <c r="M54" s="26">
+      <c r="M54" s="17">
         <v>79</v>
       </c>
-      <c r="N54" s="26">
+      <c r="N54" s="17">
         <v>108</v>
       </c>
-      <c r="O54" s="26">
+      <c r="O54" s="17">
         <v>132</v>
       </c>
-      <c r="P54" s="26">
+      <c r="P54" s="17">
         <v>185</v>
       </c>
-      <c r="Q54" s="26">
+      <c r="Q54" s="17">
         <v>156</v>
       </c>
-      <c r="R54" s="26">
+      <c r="R54" s="17">
         <v>160</v>
       </c>
-      <c r="S54" s="26">
+      <c r="S54" s="17">
         <f>VLOOKUP(B54,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>148</v>
       </c>
-      <c r="T54" s="42">
+      <c r="T54" s="29">
         <f>VLOOKUP(B54,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>175</v>
       </c>
     </row>
     <row r="55" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="25">
+      <c r="B55" s="16">
         <v>457</v>
       </c>
-      <c r="C55" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="26" t="s">
+      <c r="C55" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="26">
+      <c r="E55" s="17">
         <v>35</v>
       </c>
-      <c r="F55" s="26">
+      <c r="F55" s="17">
         <v>23</v>
       </c>
-      <c r="G55" s="26">
+      <c r="G55" s="17">
         <v>40</v>
       </c>
-      <c r="H55" s="26">
+      <c r="H55" s="17">
         <v>36</v>
       </c>
-      <c r="I55" s="26">
+      <c r="I55" s="17">
         <v>36</v>
       </c>
-      <c r="J55" s="26">
+      <c r="J55" s="17">
         <v>46</v>
       </c>
-      <c r="K55" s="26">
+      <c r="K55" s="17">
         <v>41</v>
       </c>
-      <c r="L55" s="26">
+      <c r="L55" s="17">
         <v>36</v>
       </c>
-      <c r="M55" s="26">
+      <c r="M55" s="17">
         <v>46</v>
       </c>
-      <c r="N55" s="26">
+      <c r="N55" s="17">
         <v>78</v>
       </c>
-      <c r="O55" s="26">
+      <c r="O55" s="17">
         <v>93</v>
       </c>
-      <c r="P55" s="26">
+      <c r="P55" s="17">
         <v>170</v>
       </c>
-      <c r="Q55" s="26">
+      <c r="Q55" s="17">
         <v>160</v>
       </c>
-      <c r="R55" s="26">
+      <c r="R55" s="17">
         <v>183</v>
       </c>
-      <c r="S55" s="26">
+      <c r="S55" s="17">
         <f>VLOOKUP(B55,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>196</v>
       </c>
-      <c r="T55" s="42">
+      <c r="T55" s="29">
         <f>VLOOKUP(B55,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>209</v>
       </c>
     </row>
     <row r="56" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="25">
+      <c r="B56" s="16">
         <v>458</v>
       </c>
-      <c r="C56" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="26" t="s">
+      <c r="C56" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="26">
+      <c r="E56" s="17">
         <v>28</v>
       </c>
-      <c r="F56" s="26">
+      <c r="F56" s="17">
         <v>15</v>
       </c>
-      <c r="G56" s="26">
+      <c r="G56" s="17">
         <v>30</v>
       </c>
-      <c r="H56" s="26">
+      <c r="H56" s="17">
         <v>28</v>
       </c>
-      <c r="I56" s="26">
+      <c r="I56" s="17">
         <v>24</v>
       </c>
-      <c r="J56" s="26">
+      <c r="J56" s="17">
         <v>25</v>
       </c>
-      <c r="K56" s="26">
+      <c r="K56" s="17">
         <v>21</v>
       </c>
-      <c r="L56" s="26">
+      <c r="L56" s="17">
         <v>43</v>
       </c>
-      <c r="M56" s="26">
+      <c r="M56" s="17">
         <v>64</v>
       </c>
-      <c r="N56" s="26">
+      <c r="N56" s="17">
         <v>80</v>
       </c>
-      <c r="O56" s="26">
+      <c r="O56" s="17">
         <v>83</v>
       </c>
-      <c r="P56" s="26">
+      <c r="P56" s="17">
         <v>155</v>
       </c>
-      <c r="Q56" s="26">
+      <c r="Q56" s="17">
         <v>132</v>
       </c>
-      <c r="R56" s="26">
+      <c r="R56" s="17">
         <v>136</v>
       </c>
-      <c r="S56" s="26">
+      <c r="S56" s="17">
         <f>VLOOKUP(B56,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>138</v>
       </c>
-      <c r="T56" s="42">
+      <c r="T56" s="29">
         <f>VLOOKUP(B56,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>120</v>
       </c>
     </row>
     <row r="57" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="25">
+      <c r="B57" s="16">
         <v>459</v>
       </c>
-      <c r="C57" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="26" t="s">
+      <c r="C57" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="26">
+      <c r="E57" s="17">
         <v>61</v>
       </c>
-      <c r="F57" s="26">
+      <c r="F57" s="17">
         <v>59</v>
       </c>
-      <c r="G57" s="26">
+      <c r="G57" s="17">
         <v>87</v>
       </c>
-      <c r="H57" s="26">
+      <c r="H57" s="17">
         <v>83</v>
       </c>
-      <c r="I57" s="26">
+      <c r="I57" s="17">
         <v>69</v>
       </c>
-      <c r="J57" s="26">
+      <c r="J57" s="17">
         <v>75</v>
       </c>
-      <c r="K57" s="26">
+      <c r="K57" s="17">
         <v>65</v>
       </c>
-      <c r="L57" s="26">
+      <c r="L57" s="17">
         <v>81</v>
       </c>
-      <c r="M57" s="26">
+      <c r="M57" s="17">
         <v>107</v>
       </c>
-      <c r="N57" s="26">
+      <c r="N57" s="17">
         <v>185</v>
       </c>
-      <c r="O57" s="26">
+      <c r="O57" s="17">
         <v>199</v>
       </c>
-      <c r="P57" s="26">
+      <c r="P57" s="17">
         <v>335</v>
       </c>
-      <c r="Q57" s="26">
+      <c r="Q57" s="17">
         <v>341</v>
       </c>
-      <c r="R57" s="26">
+      <c r="R57" s="17">
         <v>350</v>
       </c>
-      <c r="S57" s="26">
+      <c r="S57" s="17">
         <f>VLOOKUP(B57,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>385</v>
       </c>
-      <c r="T57" s="42">
+      <c r="T57" s="29">
         <f>VLOOKUP(B57,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>382</v>
       </c>
     </row>
     <row r="58" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="25">
+      <c r="B58" s="16">
         <v>460</v>
       </c>
-      <c r="C58" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D58" s="26" t="s">
+      <c r="C58" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="26">
+      <c r="E58" s="17">
         <v>86</v>
       </c>
-      <c r="F58" s="26">
+      <c r="F58" s="17">
         <v>92</v>
       </c>
-      <c r="G58" s="26">
+      <c r="G58" s="17">
         <v>86</v>
       </c>
-      <c r="H58" s="26">
+      <c r="H58" s="17">
         <v>88</v>
       </c>
-      <c r="I58" s="26">
+      <c r="I58" s="17">
         <v>63</v>
       </c>
-      <c r="J58" s="26">
+      <c r="J58" s="17">
         <v>62</v>
       </c>
-      <c r="K58" s="26">
+      <c r="K58" s="17">
         <v>53</v>
       </c>
-      <c r="L58" s="26">
+      <c r="L58" s="17">
         <v>90</v>
       </c>
-      <c r="M58" s="26">
+      <c r="M58" s="17">
         <v>113</v>
       </c>
-      <c r="N58" s="26">
+      <c r="N58" s="17">
         <v>171</v>
       </c>
-      <c r="O58" s="26">
+      <c r="O58" s="17">
         <v>212</v>
       </c>
-      <c r="P58" s="26">
+      <c r="P58" s="17">
         <v>279</v>
       </c>
-      <c r="Q58" s="26">
+      <c r="Q58" s="17">
         <v>239</v>
       </c>
-      <c r="R58" s="26">
+      <c r="R58" s="17">
         <v>235</v>
       </c>
-      <c r="S58" s="26">
+      <c r="S58" s="17">
         <f>VLOOKUP(B58,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>263</v>
       </c>
-      <c r="T58" s="42">
+      <c r="T58" s="29">
         <f>VLOOKUP(B58,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>288</v>
       </c>
     </row>
     <row r="59" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="25">
+      <c r="B59" s="16">
         <v>461</v>
       </c>
-      <c r="C59" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D59" s="26" t="s">
+      <c r="C59" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="26">
+      <c r="E59" s="17">
         <v>17</v>
       </c>
-      <c r="F59" s="26">
+      <c r="F59" s="17">
         <v>16</v>
       </c>
-      <c r="G59" s="26">
+      <c r="G59" s="17">
         <v>28</v>
       </c>
-      <c r="H59" s="26">
+      <c r="H59" s="17">
         <v>26</v>
       </c>
-      <c r="I59" s="26">
+      <c r="I59" s="17">
         <v>19</v>
       </c>
-      <c r="J59" s="26">
+      <c r="J59" s="17">
         <v>17</v>
       </c>
-      <c r="K59" s="26">
+      <c r="K59" s="17">
         <v>19</v>
       </c>
-      <c r="L59" s="26">
+      <c r="L59" s="17">
         <v>18</v>
       </c>
-      <c r="M59" s="26">
+      <c r="M59" s="17">
         <v>27</v>
       </c>
-      <c r="N59" s="26">
+      <c r="N59" s="17">
         <v>33</v>
       </c>
-      <c r="O59" s="26">
+      <c r="O59" s="17">
         <v>50</v>
       </c>
-      <c r="P59" s="26">
+      <c r="P59" s="17">
         <v>94</v>
       </c>
-      <c r="Q59" s="26">
+      <c r="Q59" s="17">
         <v>79</v>
       </c>
-      <c r="R59" s="26">
+      <c r="R59" s="17">
         <v>84</v>
       </c>
-      <c r="S59" s="26">
+      <c r="S59" s="17">
         <f>VLOOKUP(B59,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>72</v>
       </c>
-      <c r="T59" s="42">
+      <c r="T59" s="29">
         <f>VLOOKUP(B59,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>83</v>
       </c>
     </row>
     <row r="60" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="25">
+      <c r="B60" s="16">
         <v>462</v>
       </c>
-      <c r="C60" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" s="26" t="s">
+      <c r="C60" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="26">
+      <c r="E60" s="17">
         <v>16</v>
       </c>
-      <c r="F60" s="26">
+      <c r="F60" s="17">
         <v>14</v>
       </c>
-      <c r="G60" s="26">
+      <c r="G60" s="17">
         <v>9</v>
       </c>
-      <c r="H60" s="26">
+      <c r="H60" s="17">
         <v>17</v>
       </c>
-      <c r="I60" s="26">
+      <c r="I60" s="17">
         <v>9</v>
       </c>
-      <c r="J60" s="26">
+      <c r="J60" s="17">
         <v>9</v>
       </c>
-      <c r="K60" s="26">
+      <c r="K60" s="17">
         <v>12</v>
       </c>
-      <c r="L60" s="26">
+      <c r="L60" s="17">
         <v>12</v>
       </c>
-      <c r="M60" s="26">
+      <c r="M60" s="17">
         <v>9</v>
       </c>
-      <c r="N60" s="26">
+      <c r="N60" s="17">
         <v>18</v>
       </c>
-      <c r="O60" s="26">
+      <c r="O60" s="17">
         <v>25</v>
       </c>
-      <c r="P60" s="26">
+      <c r="P60" s="17">
         <v>41</v>
       </c>
-      <c r="Q60" s="26">
+      <c r="Q60" s="17">
         <v>36</v>
       </c>
-      <c r="R60" s="26">
+      <c r="R60" s="17">
         <v>23</v>
       </c>
-      <c r="S60" s="26">
+      <c r="S60" s="17">
         <f>VLOOKUP(B60,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="T60" s="42">
+      <c r="T60" s="29">
         <f>VLOOKUP(B60,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>39</v>
       </c>
     </row>
     <row r="61" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="25">
+      <c r="B61" s="16">
         <v>4</v>
       </c>
-      <c r="C61" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="26" t="s">
+      <c r="C61" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E61" s="18">
         <v>712</v>
       </c>
-      <c r="F61" s="27">
+      <c r="F61" s="18">
         <v>708</v>
       </c>
-      <c r="G61" s="27">
+      <c r="G61" s="18">
         <v>850</v>
       </c>
-      <c r="H61" s="27">
+      <c r="H61" s="18">
         <v>815</v>
       </c>
-      <c r="I61" s="27">
+      <c r="I61" s="18">
         <v>693</v>
       </c>
-      <c r="J61" s="27">
+      <c r="J61" s="18">
         <v>710</v>
       </c>
-      <c r="K61" s="27">
+      <c r="K61" s="18">
         <v>647</v>
       </c>
-      <c r="L61" s="27">
+      <c r="L61" s="18">
         <v>868</v>
       </c>
-      <c r="M61" s="27">
+      <c r="M61" s="18">
         <v>1072</v>
       </c>
-      <c r="N61" s="27">
+      <c r="N61" s="18">
         <v>1583</v>
       </c>
-      <c r="O61" s="27">
+      <c r="O61" s="18">
         <v>1985</v>
       </c>
-      <c r="P61" s="27">
+      <c r="P61" s="18">
         <v>3142</v>
       </c>
-      <c r="Q61" s="27">
+      <c r="Q61" s="18">
         <v>3006</v>
       </c>
-      <c r="R61" s="27">
+      <c r="R61" s="18">
         <v>3049</v>
       </c>
-      <c r="S61" s="27">
+      <c r="S61" s="18">
         <f>VLOOKUP(B61,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>3107</v>
       </c>
-      <c r="T61" s="43">
+      <c r="T61" s="30">
         <f>VLOOKUP(B61,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>3166</v>
       </c>
     </row>
     <row r="62" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="25">
+      <c r="B62" s="16">
         <v>0</v>
       </c>
-      <c r="C62" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" s="27" t="s">
+      <c r="C62" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="27">
+      <c r="E62" s="18">
         <v>2304</v>
       </c>
-      <c r="F62" s="27">
+      <c r="F62" s="18">
         <v>2274</v>
       </c>
-      <c r="G62" s="27">
+      <c r="G62" s="18">
         <v>2385</v>
       </c>
-      <c r="H62" s="27">
+      <c r="H62" s="18">
         <v>2318</v>
       </c>
-      <c r="I62" s="27">
+      <c r="I62" s="18">
         <v>2005</v>
       </c>
-      <c r="J62" s="27">
+      <c r="J62" s="18">
         <v>2039</v>
       </c>
-      <c r="K62" s="27">
+      <c r="K62" s="18">
         <v>1966</v>
       </c>
-      <c r="L62" s="27">
+      <c r="L62" s="18">
         <v>2439</v>
       </c>
-      <c r="M62" s="27">
+      <c r="M62" s="18">
         <v>3016</v>
       </c>
-      <c r="N62" s="27">
+      <c r="N62" s="18">
         <v>4248</v>
       </c>
-      <c r="O62" s="27">
+      <c r="O62" s="18">
         <v>5322</v>
       </c>
-      <c r="P62" s="27">
+      <c r="P62" s="18">
         <v>9093</v>
       </c>
-      <c r="Q62" s="27">
+      <c r="Q62" s="18">
         <v>8404</v>
       </c>
-      <c r="R62" s="27">
+      <c r="R62" s="18">
         <v>8839</v>
       </c>
-      <c r="S62" s="27">
+      <c r="S62" s="18">
         <f>VLOOKUP(B62,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>8547</v>
       </c>
-      <c r="T62" s="43">
+      <c r="T62" s="30">
         <f>VLOOKUP(B62,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>9004</v>
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
     </row>
     <row r="65" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="29"/>
-      <c r="S65" s="29"/>
-      <c r="T65" s="29"/>
+      <c r="E65" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="48"/>
+      <c r="O65" s="48"/>
+      <c r="P65" s="48"/>
+      <c r="Q65" s="48"/>
+      <c r="R65" s="48"/>
+      <c r="S65" s="48"/>
+      <c r="T65" s="48"/>
     </row>
     <row r="66" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="31"/>
-      <c r="S66" s="31"/>
-      <c r="T66" s="31"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="50"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="50"/>
+      <c r="P66" s="50"/>
+      <c r="Q66" s="50"/>
+      <c r="R66" s="50"/>
+      <c r="S66" s="50"/>
+      <c r="T66" s="50"/>
     </row>
     <row r="67" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="32">
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="19">
         <v>2005</v>
       </c>
-      <c r="F67" s="33">
+      <c r="F67" s="20">
         <v>2006</v>
       </c>
-      <c r="G67" s="33">
+      <c r="G67" s="20">
         <v>2007</v>
       </c>
-      <c r="H67" s="33">
+      <c r="H67" s="20">
         <v>2008</v>
       </c>
-      <c r="I67" s="33">
+      <c r="I67" s="20">
         <v>2009</v>
       </c>
-      <c r="J67" s="33">
+      <c r="J67" s="20">
         <v>2010</v>
       </c>
-      <c r="K67" s="33">
+      <c r="K67" s="20">
         <v>2011</v>
       </c>
-      <c r="L67" s="33">
+      <c r="L67" s="20">
         <v>2012</v>
       </c>
-      <c r="M67" s="33">
+      <c r="M67" s="20">
         <v>2013</v>
       </c>
-      <c r="N67" s="33">
+      <c r="N67" s="20">
         <v>2014</v>
       </c>
-      <c r="O67" s="33">
+      <c r="O67" s="20">
         <v>2015</v>
       </c>
-      <c r="P67" s="34">
+      <c r="P67" s="21">
         <v>2016</v>
       </c>
-      <c r="Q67" s="34">
+      <c r="Q67" s="21">
         <v>2017</v>
       </c>
-      <c r="R67" s="34">
+      <c r="R67" s="21">
         <v>2018</v>
       </c>
-      <c r="S67" s="34">
+      <c r="S67" s="21">
         <v>2019</v>
       </c>
-      <c r="T67" s="44">
+      <c r="T67" s="31">
         <v>2020</v>
       </c>
     </row>
     <row r="68" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="20" t="s">
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="21"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="46"/>
+      <c r="P68" s="46"/>
+      <c r="Q68" s="46"/>
+      <c r="R68" s="46"/>
+      <c r="S68" s="46"/>
+      <c r="T68" s="46"/>
     </row>
     <row r="69" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="22">
+      <c r="C69" s="13">
         <v>1</v>
       </c>
-      <c r="D69" s="23">
+      <c r="D69" s="14">
         <v>2</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="14">
         <v>3</v>
       </c>
-      <c r="F69" s="23">
+      <c r="F69" s="14">
         <v>4</v>
       </c>
-      <c r="G69" s="24">
+      <c r="G69" s="15">
         <v>5</v>
       </c>
-      <c r="H69" s="23">
+      <c r="H69" s="14">
         <v>6</v>
       </c>
-      <c r="I69" s="23">
+      <c r="I69" s="14">
         <v>7</v>
       </c>
-      <c r="J69" s="23">
+      <c r="J69" s="14">
         <v>8</v>
       </c>
-      <c r="K69" s="24">
+      <c r="K69" s="15">
         <v>9</v>
       </c>
-      <c r="L69" s="23">
+      <c r="L69" s="14">
         <v>10</v>
       </c>
-      <c r="M69" s="23">
+      <c r="M69" s="14">
         <v>11</v>
       </c>
-      <c r="N69" s="23">
+      <c r="N69" s="14">
         <v>12</v>
       </c>
-      <c r="O69" s="24">
+      <c r="O69" s="15">
         <v>13</v>
       </c>
-      <c r="P69" s="23">
+      <c r="P69" s="14">
         <v>14</v>
       </c>
-      <c r="Q69" s="23">
+      <c r="Q69" s="14">
         <v>15</v>
       </c>
-      <c r="R69" s="23">
+      <c r="R69" s="14">
         <v>16</v>
       </c>
-      <c r="S69" s="24">
+      <c r="S69" s="15">
         <v>17</v>
       </c>
-      <c r="T69" s="41">
+      <c r="T69" s="28">
         <v>18</v>
       </c>
     </row>
@@ -7428,59 +7425,59 @@
       <c r="B70">
         <v>101</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E70" s="35">
+      <c r="D70" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="22">
         <v>1968</v>
       </c>
-      <c r="F70" s="35">
+      <c r="F70" s="22">
         <v>1999</v>
       </c>
-      <c r="G70" s="35">
+      <c r="G70" s="22">
         <v>2110</v>
       </c>
-      <c r="H70" s="35">
+      <c r="H70" s="22">
         <v>2060</v>
       </c>
-      <c r="I70" s="35">
+      <c r="I70" s="22">
         <v>2050</v>
       </c>
-      <c r="J70" s="35">
+      <c r="J70" s="22">
         <v>2152</v>
       </c>
-      <c r="K70" s="35">
+      <c r="K70" s="22">
         <v>2134</v>
       </c>
-      <c r="L70" s="35">
+      <c r="L70" s="22">
         <v>2171</v>
       </c>
-      <c r="M70" s="35">
+      <c r="M70" s="22">
         <v>2117</v>
       </c>
-      <c r="N70" s="35">
+      <c r="N70" s="22">
         <v>2160</v>
       </c>
-      <c r="O70" s="35">
+      <c r="O70" s="22">
         <v>2241</v>
       </c>
-      <c r="P70" s="35">
+      <c r="P70" s="22">
         <v>2345</v>
       </c>
-      <c r="Q70" s="35">
+      <c r="Q70" s="22">
         <v>2178</v>
       </c>
-      <c r="R70" s="35">
+      <c r="R70" s="22">
         <v>2236</v>
       </c>
-      <c r="S70" s="35">
+      <c r="S70" s="22">
         <f>VLOOKUP(B70,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>2192</v>
       </c>
-      <c r="T70" s="45">
+      <c r="T70" s="32">
         <f>VLOOKUP(B70,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>2036</v>
       </c>
@@ -7489,59 +7486,59 @@
       <c r="B71">
         <v>102</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E71" s="35">
+      <c r="D71" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="22">
         <v>825</v>
       </c>
-      <c r="F71" s="35">
+      <c r="F71" s="22">
         <v>812</v>
       </c>
-      <c r="G71" s="35">
+      <c r="G71" s="22">
         <v>784</v>
       </c>
-      <c r="H71" s="35">
+      <c r="H71" s="22">
         <v>807</v>
       </c>
-      <c r="I71" s="35">
+      <c r="I71" s="22">
         <v>749</v>
       </c>
-      <c r="J71" s="35">
+      <c r="J71" s="22">
         <v>755</v>
       </c>
-      <c r="K71" s="35">
+      <c r="K71" s="22">
         <v>766</v>
       </c>
-      <c r="L71" s="35">
+      <c r="L71" s="22">
         <v>763</v>
       </c>
-      <c r="M71" s="35">
+      <c r="M71" s="22">
         <v>750</v>
       </c>
-      <c r="N71" s="35">
+      <c r="N71" s="22">
         <v>769</v>
       </c>
-      <c r="O71" s="35">
+      <c r="O71" s="22">
         <v>774</v>
       </c>
-      <c r="P71" s="35">
+      <c r="P71" s="22">
         <v>891</v>
       </c>
-      <c r="Q71" s="35">
+      <c r="Q71" s="22">
         <v>836</v>
       </c>
-      <c r="R71" s="35">
+      <c r="R71" s="22">
         <v>854</v>
       </c>
-      <c r="S71" s="35">
+      <c r="S71" s="22">
         <f>VLOOKUP(B71,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>835</v>
       </c>
-      <c r="T71" s="45">
+      <c r="T71" s="32">
         <f>VLOOKUP(B71,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>830</v>
       </c>
@@ -7550,59 +7547,59 @@
       <c r="B72">
         <v>103</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E72" s="35">
+      <c r="D72" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72" s="22">
         <v>853</v>
       </c>
-      <c r="F72" s="35">
+      <c r="F72" s="22">
         <v>893</v>
       </c>
-      <c r="G72" s="35">
+      <c r="G72" s="22">
         <v>903</v>
       </c>
-      <c r="H72" s="35">
+      <c r="H72" s="22">
         <v>894</v>
       </c>
-      <c r="I72" s="35">
+      <c r="I72" s="22">
         <v>971</v>
       </c>
-      <c r="J72" s="35">
+      <c r="J72" s="22">
         <v>948</v>
       </c>
-      <c r="K72" s="35">
+      <c r="K72" s="22">
         <v>951</v>
       </c>
-      <c r="L72" s="35">
+      <c r="L72" s="22">
         <v>1019</v>
       </c>
-      <c r="M72" s="35">
+      <c r="M72" s="22">
         <v>1029</v>
       </c>
-      <c r="N72" s="35">
+      <c r="N72" s="22">
         <v>1097</v>
       </c>
-      <c r="O72" s="35">
+      <c r="O72" s="22">
         <v>1117</v>
       </c>
-      <c r="P72" s="35">
+      <c r="P72" s="22">
         <v>1224</v>
       </c>
-      <c r="Q72" s="35">
+      <c r="Q72" s="22">
         <v>1121</v>
       </c>
-      <c r="R72" s="35">
+      <c r="R72" s="22">
         <v>1146</v>
       </c>
-      <c r="S72" s="35">
+      <c r="S72" s="22">
         <f>VLOOKUP(B72,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1110</v>
       </c>
-      <c r="T72" s="45">
+      <c r="T72" s="32">
         <f>VLOOKUP(B72,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1093</v>
       </c>
@@ -7611,59 +7608,59 @@
       <c r="B73">
         <v>151</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E73" s="35">
+      <c r="D73" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" s="22">
         <v>1537</v>
       </c>
-      <c r="F73" s="35">
+      <c r="F73" s="22">
         <v>1463</v>
       </c>
-      <c r="G73" s="35">
+      <c r="G73" s="22">
         <v>1509</v>
       </c>
-      <c r="H73" s="35">
+      <c r="H73" s="22">
         <v>1479</v>
       </c>
-      <c r="I73" s="35">
+      <c r="I73" s="22">
         <v>1383</v>
       </c>
-      <c r="J73" s="35">
+      <c r="J73" s="22">
         <v>1385</v>
       </c>
-      <c r="K73" s="35">
+      <c r="K73" s="22">
         <v>1268</v>
       </c>
-      <c r="L73" s="35">
+      <c r="L73" s="22">
         <v>1424</v>
       </c>
-      <c r="M73" s="35">
+      <c r="M73" s="22">
         <v>1386</v>
       </c>
-      <c r="N73" s="35">
+      <c r="N73" s="22">
         <v>1483</v>
       </c>
-      <c r="O73" s="35">
+      <c r="O73" s="22">
         <v>1474</v>
       </c>
-      <c r="P73" s="35">
+      <c r="P73" s="22">
         <v>1718</v>
       </c>
-      <c r="Q73" s="35">
+      <c r="Q73" s="22">
         <v>1534</v>
       </c>
-      <c r="R73" s="35">
+      <c r="R73" s="22">
         <v>1638</v>
       </c>
-      <c r="S73" s="35">
+      <c r="S73" s="22">
         <f>VLOOKUP(B73,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1655</v>
       </c>
-      <c r="T73" s="45">
+      <c r="T73" s="32">
         <f>VLOOKUP(B73,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1610</v>
       </c>
@@ -7672,59 +7669,59 @@
       <c r="B74">
         <v>153</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E74" s="35">
+      <c r="D74" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" s="22">
         <v>940</v>
       </c>
-      <c r="F74" s="35">
+      <c r="F74" s="22">
         <v>914</v>
       </c>
-      <c r="G74" s="35">
+      <c r="G74" s="22">
         <v>903</v>
       </c>
-      <c r="H74" s="35">
+      <c r="H74" s="22">
         <v>943</v>
       </c>
-      <c r="I74" s="35">
+      <c r="I74" s="22">
         <v>824</v>
       </c>
-      <c r="J74" s="35">
+      <c r="J74" s="22">
         <v>847</v>
       </c>
-      <c r="K74" s="35">
+      <c r="K74" s="22">
         <v>763</v>
       </c>
-      <c r="L74" s="35">
+      <c r="L74" s="22">
         <v>743</v>
       </c>
-      <c r="M74" s="35">
+      <c r="M74" s="22">
         <v>768</v>
       </c>
-      <c r="N74" s="35">
+      <c r="N74" s="22">
         <v>832</v>
       </c>
-      <c r="O74" s="35">
+      <c r="O74" s="22">
         <v>832</v>
       </c>
-      <c r="P74" s="35">
+      <c r="P74" s="22">
         <v>823</v>
       </c>
-      <c r="Q74" s="35">
+      <c r="Q74" s="22">
         <v>808</v>
       </c>
-      <c r="R74" s="35">
+      <c r="R74" s="22">
         <v>801</v>
       </c>
-      <c r="S74" s="35">
+      <c r="S74" s="22">
         <f>VLOOKUP(B74,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>796</v>
       </c>
-      <c r="T74" s="45">
+      <c r="T74" s="32">
         <f>VLOOKUP(B74,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>806</v>
       </c>
@@ -7733,59 +7730,59 @@
       <c r="B75">
         <v>154</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E75" s="35">
+      <c r="D75" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="22">
         <v>673</v>
       </c>
-      <c r="F75" s="35">
+      <c r="F75" s="22">
         <v>685</v>
       </c>
-      <c r="G75" s="35">
+      <c r="G75" s="22">
         <v>712</v>
       </c>
-      <c r="H75" s="35">
+      <c r="H75" s="22">
         <v>646</v>
       </c>
-      <c r="I75" s="35">
+      <c r="I75" s="22">
         <v>586</v>
       </c>
-      <c r="J75" s="35">
+      <c r="J75" s="22">
         <v>652</v>
       </c>
-      <c r="K75" s="35">
+      <c r="K75" s="22">
         <v>546</v>
       </c>
-      <c r="L75" s="35">
+      <c r="L75" s="22">
         <v>560</v>
       </c>
-      <c r="M75" s="35">
+      <c r="M75" s="22">
         <v>652</v>
       </c>
-      <c r="N75" s="35">
+      <c r="N75" s="22">
         <v>656</v>
       </c>
-      <c r="O75" s="35">
+      <c r="O75" s="22">
         <v>684</v>
       </c>
-      <c r="P75" s="35">
+      <c r="P75" s="22">
         <v>700</v>
       </c>
-      <c r="Q75" s="35">
+      <c r="Q75" s="22">
         <v>745</v>
       </c>
-      <c r="R75" s="35">
+      <c r="R75" s="22">
         <v>731</v>
       </c>
-      <c r="S75" s="35">
+      <c r="S75" s="22">
         <f>VLOOKUP(B75,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>734</v>
       </c>
-      <c r="T75" s="45">
+      <c r="T75" s="32">
         <f>VLOOKUP(B75,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>786</v>
       </c>
@@ -7794,59 +7791,59 @@
       <c r="B76">
         <v>155</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E76" s="35">
+      <c r="D76" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E76" s="22">
         <v>1037</v>
       </c>
-      <c r="F76" s="35">
+      <c r="F76" s="22">
         <v>984</v>
       </c>
-      <c r="G76" s="35">
+      <c r="G76" s="22">
         <v>986</v>
       </c>
-      <c r="H76" s="35">
+      <c r="H76" s="22">
         <v>991</v>
       </c>
-      <c r="I76" s="35">
+      <c r="I76" s="22">
         <v>889</v>
       </c>
-      <c r="J76" s="35">
+      <c r="J76" s="22">
         <v>931</v>
       </c>
-      <c r="K76" s="35">
+      <c r="K76" s="22">
         <v>872</v>
       </c>
-      <c r="L76" s="35">
+      <c r="L76" s="22">
         <v>872</v>
       </c>
-      <c r="M76" s="35">
+      <c r="M76" s="22">
         <v>915</v>
       </c>
-      <c r="N76" s="35">
+      <c r="N76" s="22">
         <v>941</v>
       </c>
-      <c r="O76" s="35">
+      <c r="O76" s="22">
         <v>904</v>
       </c>
-      <c r="P76" s="35">
+      <c r="P76" s="22">
         <v>927</v>
       </c>
-      <c r="Q76" s="35">
+      <c r="Q76" s="22">
         <v>895</v>
       </c>
-      <c r="R76" s="35">
+      <c r="R76" s="22">
         <v>896</v>
       </c>
-      <c r="S76" s="35">
+      <c r="S76" s="22">
         <f>VLOOKUP(B76,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>920</v>
       </c>
-      <c r="T76" s="45">
+      <c r="T76" s="32">
         <f>VLOOKUP(B76,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>959</v>
       </c>
@@ -7855,59 +7852,59 @@
       <c r="B77">
         <v>157</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E77" s="35">
+      <c r="D77" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" s="22">
         <v>1089</v>
       </c>
-      <c r="F77" s="35">
+      <c r="F77" s="22">
         <v>1061</v>
       </c>
-      <c r="G77" s="35">
+      <c r="G77" s="22">
         <v>1013</v>
       </c>
-      <c r="H77" s="35">
+      <c r="H77" s="22">
         <v>1049</v>
       </c>
-      <c r="I77" s="35">
+      <c r="I77" s="22">
         <v>983</v>
       </c>
-      <c r="J77" s="35">
+      <c r="J77" s="22">
         <v>980</v>
       </c>
-      <c r="K77" s="35">
+      <c r="K77" s="22">
         <v>945</v>
       </c>
-      <c r="L77" s="35">
+      <c r="L77" s="22">
         <v>979</v>
       </c>
-      <c r="M77" s="35">
+      <c r="M77" s="22">
         <v>937</v>
       </c>
-      <c r="N77" s="35">
+      <c r="N77" s="22">
         <v>1026</v>
       </c>
-      <c r="O77" s="35">
+      <c r="O77" s="22">
         <v>974</v>
       </c>
-      <c r="P77" s="35">
+      <c r="P77" s="22">
         <v>1138</v>
       </c>
-      <c r="Q77" s="35">
+      <c r="Q77" s="22">
         <v>1116</v>
       </c>
-      <c r="R77" s="35">
+      <c r="R77" s="22">
         <v>1122</v>
       </c>
-      <c r="S77" s="35">
+      <c r="S77" s="22">
         <f>VLOOKUP(B77,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1119</v>
       </c>
-      <c r="T77" s="45">
+      <c r="T77" s="32">
         <f>VLOOKUP(B77,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1246</v>
       </c>
@@ -7916,59 +7913,59 @@
       <c r="B78">
         <v>158</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E78" s="35">
+      <c r="D78" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" s="22">
         <v>916</v>
       </c>
-      <c r="F78" s="35">
+      <c r="F78" s="22">
         <v>894</v>
       </c>
-      <c r="G78" s="35">
+      <c r="G78" s="22">
         <v>885</v>
       </c>
-      <c r="H78" s="35">
+      <c r="H78" s="22">
         <v>831</v>
       </c>
-      <c r="I78" s="35">
+      <c r="I78" s="22">
         <v>758</v>
       </c>
-      <c r="J78" s="35">
+      <c r="J78" s="22">
         <v>825</v>
       </c>
-      <c r="K78" s="35">
+      <c r="K78" s="22">
         <v>850</v>
       </c>
-      <c r="L78" s="35">
+      <c r="L78" s="22">
         <v>796</v>
       </c>
-      <c r="M78" s="35">
+      <c r="M78" s="22">
         <v>782</v>
       </c>
-      <c r="N78" s="35">
+      <c r="N78" s="22">
         <v>839</v>
       </c>
-      <c r="O78" s="35">
+      <c r="O78" s="22">
         <v>819</v>
       </c>
-      <c r="P78" s="35">
+      <c r="P78" s="22">
         <v>875</v>
       </c>
-      <c r="Q78" s="35">
+      <c r="Q78" s="22">
         <v>890</v>
       </c>
-      <c r="R78" s="35">
+      <c r="R78" s="22">
         <v>907</v>
       </c>
-      <c r="S78" s="35">
+      <c r="S78" s="22">
         <f>VLOOKUP(B78,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>914</v>
       </c>
-      <c r="T78" s="45">
+      <c r="T78" s="32">
         <f>VLOOKUP(B78,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>933</v>
       </c>
@@ -7977,59 +7974,59 @@
       <c r="B79">
         <v>159</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E79" s="35">
+      <c r="D79" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E79" s="22">
         <v>2531</v>
       </c>
-      <c r="F79" s="35">
+      <c r="F79" s="22">
         <v>2487</v>
       </c>
-      <c r="G79" s="35">
+      <c r="G79" s="22">
         <v>2555</v>
       </c>
-      <c r="H79" s="35">
+      <c r="H79" s="22">
         <v>2380</v>
       </c>
-      <c r="I79" s="35">
+      <c r="I79" s="22">
         <v>2357</v>
       </c>
-      <c r="J79" s="35">
+      <c r="J79" s="22">
         <v>2303</v>
       </c>
-      <c r="K79" s="35">
+      <c r="K79" s="22">
         <v>2289</v>
       </c>
-      <c r="L79" s="35">
+      <c r="L79" s="22">
         <v>2236</v>
       </c>
-      <c r="M79" s="35">
+      <c r="M79" s="22">
         <v>2241</v>
       </c>
-      <c r="N79" s="35">
+      <c r="N79" s="22">
         <v>2440</v>
       </c>
-      <c r="O79" s="35">
+      <c r="O79" s="22">
         <v>2415</v>
       </c>
-      <c r="P79" s="35">
+      <c r="P79" s="22">
         <v>2650</v>
       </c>
-      <c r="Q79" s="35">
+      <c r="Q79" s="22">
         <v>2464</v>
       </c>
-      <c r="R79" s="35">
+      <c r="R79" s="22">
         <v>2525</v>
       </c>
-      <c r="S79" s="35">
+      <c r="S79" s="22">
         <f>VLOOKUP(B79,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>2348</v>
       </c>
-      <c r="T79" s="45">
+      <c r="T79" s="32">
         <f>VLOOKUP(B79,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>2472</v>
       </c>
@@ -8038,59 +8035,59 @@
       <c r="B80">
         <v>1</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E80" s="36">
+      <c r="D80" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" s="23">
         <v>12369</v>
       </c>
-      <c r="F80" s="36">
+      <c r="F80" s="23">
         <v>12192</v>
       </c>
-      <c r="G80" s="36">
+      <c r="G80" s="23">
         <v>12360</v>
       </c>
-      <c r="H80" s="36">
+      <c r="H80" s="23">
         <v>12080</v>
       </c>
-      <c r="I80" s="36">
+      <c r="I80" s="23">
         <v>11550</v>
       </c>
-      <c r="J80" s="36">
+      <c r="J80" s="23">
         <v>11778</v>
       </c>
-      <c r="K80" s="36">
+      <c r="K80" s="23">
         <v>11384</v>
       </c>
-      <c r="L80" s="36">
+      <c r="L80" s="23">
         <v>11563</v>
       </c>
-      <c r="M80" s="36">
+      <c r="M80" s="23">
         <v>11577</v>
       </c>
-      <c r="N80" s="36">
+      <c r="N80" s="23">
         <v>12243</v>
       </c>
-      <c r="O80" s="36">
+      <c r="O80" s="23">
         <v>12234</v>
       </c>
-      <c r="P80" s="36">
+      <c r="P80" s="23">
         <v>13291</v>
       </c>
-      <c r="Q80" s="36">
+      <c r="Q80" s="23">
         <v>12587</v>
       </c>
-      <c r="R80" s="36">
+      <c r="R80" s="23">
         <v>12856</v>
       </c>
-      <c r="S80" s="36">
+      <c r="S80" s="23">
         <f>VLOOKUP(B80,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>12623</v>
       </c>
-      <c r="T80" s="46">
+      <c r="T80" s="33">
         <f>VLOOKUP(B80,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>12771</v>
       </c>
@@ -8099,59 +8096,59 @@
       <c r="B81">
         <v>241</v>
       </c>
-      <c r="C81" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D81" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E81" s="35">
+      <c r="C81" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" s="22">
         <v>9082</v>
       </c>
-      <c r="F81" s="35">
+      <c r="F81" s="22">
         <v>9079</v>
       </c>
-      <c r="G81" s="35">
+      <c r="G81" s="22">
         <v>9328</v>
       </c>
-      <c r="H81" s="35">
+      <c r="H81" s="22">
         <v>9406</v>
       </c>
-      <c r="I81" s="35">
+      <c r="I81" s="22">
         <v>9130</v>
       </c>
-      <c r="J81" s="35">
+      <c r="J81" s="22">
         <v>9392</v>
       </c>
-      <c r="K81" s="35">
+      <c r="K81" s="22">
         <v>9302</v>
       </c>
-      <c r="L81" s="35">
+      <c r="L81" s="22">
         <v>9072</v>
       </c>
-      <c r="M81" s="35">
+      <c r="M81" s="22">
         <v>9427</v>
       </c>
-      <c r="N81" s="35">
+      <c r="N81" s="22">
         <v>9833</v>
       </c>
-      <c r="O81" s="35">
+      <c r="O81" s="22">
         <v>9645</v>
       </c>
-      <c r="P81" s="35">
+      <c r="P81" s="22">
         <v>10342</v>
       </c>
-      <c r="Q81" s="35">
+      <c r="Q81" s="22">
         <v>9855</v>
       </c>
-      <c r="R81" s="35">
+      <c r="R81" s="22">
         <v>9767</v>
       </c>
-      <c r="S81" s="35">
+      <c r="S81" s="22">
         <f>VLOOKUP(B81,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>9538</v>
       </c>
-      <c r="T81" s="45">
+      <c r="T81" s="32">
         <f>VLOOKUP(B81,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>9737</v>
       </c>
@@ -8160,59 +8157,59 @@
       <c r="B82">
         <v>241001</v>
       </c>
-      <c r="C82" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D82" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E82" s="35">
+      <c r="C82" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E82" s="22">
         <v>4519</v>
       </c>
-      <c r="F82" s="35">
+      <c r="F82" s="22">
         <v>4537</v>
       </c>
-      <c r="G82" s="35">
+      <c r="G82" s="22">
         <v>4755</v>
       </c>
-      <c r="H82" s="35">
+      <c r="H82" s="22">
         <v>4732</v>
       </c>
-      <c r="I82" s="35">
+      <c r="I82" s="22">
         <v>4682</v>
       </c>
-      <c r="J82" s="35">
+      <c r="J82" s="22">
         <v>4848</v>
       </c>
-      <c r="K82" s="35">
+      <c r="K82" s="22">
         <v>4793</v>
       </c>
-      <c r="L82" s="35">
+      <c r="L82" s="22">
         <v>4609</v>
       </c>
-      <c r="M82" s="35">
+      <c r="M82" s="22">
         <v>4855</v>
       </c>
-      <c r="N82" s="35">
+      <c r="N82" s="22">
         <v>5142</v>
       </c>
-      <c r="O82" s="35">
+      <c r="O82" s="22">
         <v>4976</v>
       </c>
-      <c r="P82" s="35">
+      <c r="P82" s="22">
         <v>5228</v>
       </c>
-      <c r="Q82" s="35">
+      <c r="Q82" s="22">
         <v>4860</v>
       </c>
-      <c r="R82" s="35">
+      <c r="R82" s="22">
         <v>4767</v>
       </c>
-      <c r="S82" s="35">
+      <c r="S82" s="22">
         <f>VLOOKUP(B82,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>4625</v>
       </c>
-      <c r="T82" s="45">
+      <c r="T82" s="32">
         <f>VLOOKUP(B82,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>4728</v>
       </c>
@@ -8221,59 +8218,59 @@
       <c r="B83">
         <v>241999</v>
       </c>
-      <c r="C83" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D83" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E83" s="35">
+      <c r="C83" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" s="22">
         <v>4563</v>
       </c>
-      <c r="F83" s="35">
+      <c r="F83" s="22">
         <v>4542</v>
       </c>
-      <c r="G83" s="35">
+      <c r="G83" s="22">
         <v>4573</v>
       </c>
-      <c r="H83" s="35">
+      <c r="H83" s="22">
         <v>4674</v>
       </c>
-      <c r="I83" s="35">
+      <c r="I83" s="22">
         <v>4448</v>
       </c>
-      <c r="J83" s="35">
+      <c r="J83" s="22">
         <v>4544</v>
       </c>
-      <c r="K83" s="35">
+      <c r="K83" s="22">
         <v>4509</v>
       </c>
-      <c r="L83" s="35">
+      <c r="L83" s="22">
         <v>4463</v>
       </c>
-      <c r="M83" s="35">
+      <c r="M83" s="22">
         <v>4572</v>
       </c>
-      <c r="N83" s="35">
+      <c r="N83" s="22">
         <v>4691</v>
       </c>
-      <c r="O83" s="35">
+      <c r="O83" s="22">
         <v>4669</v>
       </c>
-      <c r="P83" s="35">
+      <c r="P83" s="22">
         <v>5114</v>
       </c>
-      <c r="Q83" s="35">
+      <c r="Q83" s="22">
         <v>4995</v>
       </c>
-      <c r="R83" s="35">
+      <c r="R83" s="22">
         <v>5000</v>
       </c>
-      <c r="S83" s="35">
+      <c r="S83" s="22">
         <f>VLOOKUP(B83,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>4913</v>
       </c>
-      <c r="T83" s="45">
+      <c r="T83" s="32">
         <f>VLOOKUP(B83,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>5009</v>
       </c>
@@ -8282,59 +8279,59 @@
       <c r="B84">
         <v>251</v>
       </c>
-      <c r="C84" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E84" s="35">
+      <c r="C84" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84" s="22">
         <v>1728</v>
       </c>
-      <c r="F84" s="35">
+      <c r="F84" s="22">
         <v>1630</v>
       </c>
-      <c r="G84" s="35">
+      <c r="G84" s="22">
         <v>1611</v>
       </c>
-      <c r="H84" s="35">
+      <c r="H84" s="22">
         <v>1637</v>
       </c>
-      <c r="I84" s="35">
+      <c r="I84" s="22">
         <v>1502</v>
       </c>
-      <c r="J84" s="35">
+      <c r="J84" s="22">
         <v>1554</v>
       </c>
-      <c r="K84" s="35">
+      <c r="K84" s="22">
         <v>1510</v>
       </c>
-      <c r="L84" s="35">
+      <c r="L84" s="22">
         <v>1471</v>
       </c>
-      <c r="M84" s="35">
+      <c r="M84" s="22">
         <v>1436</v>
       </c>
-      <c r="N84" s="35">
+      <c r="N84" s="22">
         <v>1579</v>
       </c>
-      <c r="O84" s="35">
+      <c r="O84" s="22">
         <v>1515</v>
       </c>
-      <c r="P84" s="35">
+      <c r="P84" s="22">
         <v>1734</v>
       </c>
-      <c r="Q84" s="35">
+      <c r="Q84" s="22">
         <v>1600</v>
       </c>
-      <c r="R84" s="35">
+      <c r="R84" s="22">
         <v>1620</v>
       </c>
-      <c r="S84" s="35">
+      <c r="S84" s="22">
         <f>VLOOKUP(B84,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1731</v>
       </c>
-      <c r="T84" s="45">
+      <c r="T84" s="32">
         <f>VLOOKUP(B84,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1705</v>
       </c>
@@ -8343,59 +8340,59 @@
       <c r="B85">
         <v>252</v>
       </c>
-      <c r="C85" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E85" s="35">
+      <c r="C85" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E85" s="22">
         <v>1189</v>
       </c>
-      <c r="F85" s="35">
+      <c r="F85" s="22">
         <v>1111</v>
       </c>
-      <c r="G85" s="35">
+      <c r="G85" s="22">
         <v>1116</v>
       </c>
-      <c r="H85" s="35">
+      <c r="H85" s="22">
         <v>1120</v>
       </c>
-      <c r="I85" s="35">
+      <c r="I85" s="22">
         <v>1033</v>
       </c>
-      <c r="J85" s="35">
+      <c r="J85" s="22">
         <v>1010</v>
       </c>
-      <c r="K85" s="35">
+      <c r="K85" s="22">
         <v>1014</v>
       </c>
-      <c r="L85" s="35">
+      <c r="L85" s="22">
         <v>919</v>
       </c>
-      <c r="M85" s="35">
+      <c r="M85" s="22">
         <v>996</v>
       </c>
-      <c r="N85" s="35">
+      <c r="N85" s="22">
         <v>1006</v>
       </c>
-      <c r="O85" s="35">
+      <c r="O85" s="22">
         <v>1007</v>
       </c>
-      <c r="P85" s="35">
+      <c r="P85" s="22">
         <v>1109</v>
       </c>
-      <c r="Q85" s="35">
+      <c r="Q85" s="22">
         <v>1046</v>
       </c>
-      <c r="R85" s="35">
+      <c r="R85" s="22">
         <v>1044</v>
       </c>
-      <c r="S85" s="35">
+      <c r="S85" s="22">
         <f>VLOOKUP(B85,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1089</v>
       </c>
-      <c r="T85" s="45">
+      <c r="T85" s="32">
         <f>VLOOKUP(B85,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1080</v>
       </c>
@@ -8404,59 +8401,59 @@
       <c r="B86">
         <v>254</v>
       </c>
-      <c r="C86" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D86" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E86" s="35">
+      <c r="C86" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86" s="22">
         <v>2221</v>
       </c>
-      <c r="F86" s="35">
+      <c r="F86" s="22">
         <v>2059</v>
       </c>
-      <c r="G86" s="35">
+      <c r="G86" s="22">
         <v>2071</v>
       </c>
-      <c r="H86" s="35">
+      <c r="H86" s="22">
         <v>2074</v>
       </c>
-      <c r="I86" s="35">
+      <c r="I86" s="22">
         <v>1900</v>
       </c>
-      <c r="J86" s="35">
+      <c r="J86" s="22">
         <v>1946</v>
       </c>
-      <c r="K86" s="35">
+      <c r="K86" s="22">
         <v>1851</v>
       </c>
-      <c r="L86" s="35">
+      <c r="L86" s="22">
         <v>1870</v>
       </c>
-      <c r="M86" s="35">
+      <c r="M86" s="22">
         <v>1931</v>
       </c>
-      <c r="N86" s="35">
+      <c r="N86" s="22">
         <v>1970</v>
       </c>
-      <c r="O86" s="35">
+      <c r="O86" s="22">
         <v>2025</v>
       </c>
-      <c r="P86" s="35">
+      <c r="P86" s="22">
         <v>2004</v>
       </c>
-      <c r="Q86" s="35">
+      <c r="Q86" s="22">
         <v>1960</v>
       </c>
-      <c r="R86" s="35">
+      <c r="R86" s="22">
         <v>2112</v>
       </c>
-      <c r="S86" s="35">
+      <c r="S86" s="22">
         <f>VLOOKUP(B86,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>2077</v>
       </c>
-      <c r="T86" s="45">
+      <c r="T86" s="32">
         <f>VLOOKUP(B86,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>2048</v>
       </c>
@@ -8465,59 +8462,59 @@
       <c r="B87">
         <v>255</v>
       </c>
-      <c r="C87" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D87" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E87" s="35">
+      <c r="C87" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" s="22">
         <v>548</v>
       </c>
-      <c r="F87" s="35">
+      <c r="F87" s="22">
         <v>521</v>
       </c>
-      <c r="G87" s="35">
+      <c r="G87" s="22">
         <v>491</v>
       </c>
-      <c r="H87" s="35">
+      <c r="H87" s="22">
         <v>498</v>
       </c>
-      <c r="I87" s="35">
+      <c r="I87" s="22">
         <v>523</v>
       </c>
-      <c r="J87" s="35">
+      <c r="J87" s="22">
         <v>506</v>
       </c>
-      <c r="K87" s="35">
+      <c r="K87" s="22">
         <v>436</v>
       </c>
-      <c r="L87" s="35">
+      <c r="L87" s="22">
         <v>466</v>
       </c>
-      <c r="M87" s="35">
+      <c r="M87" s="22">
         <v>474</v>
       </c>
-      <c r="N87" s="35">
+      <c r="N87" s="22">
         <v>444</v>
       </c>
-      <c r="O87" s="35">
+      <c r="O87" s="22">
         <v>458</v>
       </c>
-      <c r="P87" s="35">
+      <c r="P87" s="22">
         <v>513</v>
       </c>
-      <c r="Q87" s="35">
+      <c r="Q87" s="22">
         <v>478</v>
       </c>
-      <c r="R87" s="35">
+      <c r="R87" s="22">
         <v>548</v>
       </c>
-      <c r="S87" s="35">
+      <c r="S87" s="22">
         <f>VLOOKUP(B87,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>448</v>
       </c>
-      <c r="T87" s="45">
+      <c r="T87" s="32">
         <f>VLOOKUP(B87,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>542</v>
       </c>
@@ -8526,59 +8523,59 @@
       <c r="B88">
         <v>256</v>
       </c>
-      <c r="C88" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D88" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E88" s="35">
+      <c r="C88" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E88" s="22">
         <v>1035</v>
       </c>
-      <c r="F88" s="35">
+      <c r="F88" s="22">
         <v>982</v>
       </c>
-      <c r="G88" s="35">
+      <c r="G88" s="22">
         <v>979</v>
       </c>
-      <c r="H88" s="35">
+      <c r="H88" s="22">
         <v>959</v>
       </c>
-      <c r="I88" s="35">
+      <c r="I88" s="22">
         <v>900</v>
       </c>
-      <c r="J88" s="35">
+      <c r="J88" s="22">
         <v>949</v>
       </c>
-      <c r="K88" s="35">
+      <c r="K88" s="22">
         <v>919</v>
       </c>
-      <c r="L88" s="35">
+      <c r="L88" s="22">
         <v>835</v>
       </c>
-      <c r="M88" s="35">
+      <c r="M88" s="22">
         <v>908</v>
       </c>
-      <c r="N88" s="35">
+      <c r="N88" s="22">
         <v>859</v>
       </c>
-      <c r="O88" s="35">
+      <c r="O88" s="22">
         <v>912</v>
       </c>
-      <c r="P88" s="35">
+      <c r="P88" s="22">
         <v>949</v>
       </c>
-      <c r="Q88" s="35">
+      <c r="Q88" s="22">
         <v>923</v>
       </c>
-      <c r="R88" s="35">
+      <c r="R88" s="22">
         <v>914</v>
       </c>
-      <c r="S88" s="35">
+      <c r="S88" s="22">
         <f>VLOOKUP(B88,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>923</v>
       </c>
-      <c r="T88" s="45">
+      <c r="T88" s="32">
         <f>VLOOKUP(B88,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>991</v>
       </c>
@@ -8587,59 +8584,59 @@
       <c r="B89">
         <v>257</v>
       </c>
-      <c r="C89" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D89" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E89" s="35">
+      <c r="C89" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89" s="22">
         <v>1187</v>
       </c>
-      <c r="F89" s="35">
+      <c r="F89" s="22">
         <v>1276</v>
       </c>
-      <c r="G89" s="35">
+      <c r="G89" s="22">
         <v>1152</v>
       </c>
-      <c r="H89" s="35">
+      <c r="H89" s="22">
         <v>1121</v>
       </c>
-      <c r="I89" s="35">
+      <c r="I89" s="22">
         <v>1100</v>
       </c>
-      <c r="J89" s="35">
+      <c r="J89" s="22">
         <v>1109</v>
       </c>
-      <c r="K89" s="35">
+      <c r="K89" s="22">
         <v>1053</v>
       </c>
-      <c r="L89" s="35">
+      <c r="L89" s="22">
         <v>1027</v>
       </c>
-      <c r="M89" s="35">
+      <c r="M89" s="22">
         <v>1048</v>
       </c>
-      <c r="N89" s="35">
+      <c r="N89" s="22">
         <v>1056</v>
       </c>
-      <c r="O89" s="35">
+      <c r="O89" s="22">
         <v>1060</v>
       </c>
-      <c r="P89" s="35">
+      <c r="P89" s="22">
         <v>1191</v>
       </c>
-      <c r="Q89" s="35">
+      <c r="Q89" s="22">
         <v>1082</v>
       </c>
-      <c r="R89" s="35">
+      <c r="R89" s="22">
         <v>1117</v>
       </c>
-      <c r="S89" s="35">
+      <c r="S89" s="22">
         <f>VLOOKUP(B89,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1114</v>
       </c>
-      <c r="T89" s="45">
+      <c r="T89" s="32">
         <f>VLOOKUP(B89,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1143</v>
       </c>
@@ -8648,59 +8645,59 @@
       <c r="B90">
         <v>2</v>
       </c>
-      <c r="C90" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D90" s="36" t="s">
+      <c r="C90" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E90" s="36">
+      <c r="D90" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" s="23">
         <v>16990</v>
       </c>
-      <c r="F90" s="36">
+      <c r="F90" s="23">
         <v>16658</v>
       </c>
-      <c r="G90" s="36">
+      <c r="G90" s="23">
         <v>16748</v>
       </c>
-      <c r="H90" s="36">
+      <c r="H90" s="23">
         <v>16815</v>
       </c>
-      <c r="I90" s="36">
+      <c r="I90" s="23">
         <v>16088</v>
       </c>
-      <c r="J90" s="36">
+      <c r="J90" s="23">
         <v>16466</v>
       </c>
-      <c r="K90" s="36">
+      <c r="K90" s="23">
         <v>16085</v>
       </c>
-      <c r="L90" s="36">
+      <c r="L90" s="23">
         <v>15660</v>
       </c>
-      <c r="M90" s="36">
+      <c r="M90" s="23">
         <v>16220</v>
       </c>
-      <c r="N90" s="36">
+      <c r="N90" s="23">
         <v>16747</v>
       </c>
-      <c r="O90" s="36">
+      <c r="O90" s="23">
         <v>16622</v>
       </c>
-      <c r="P90" s="36">
+      <c r="P90" s="23">
         <v>17842</v>
       </c>
-      <c r="Q90" s="36">
+      <c r="Q90" s="23">
         <v>16944</v>
       </c>
-      <c r="R90" s="36">
+      <c r="R90" s="23">
         <v>17122</v>
       </c>
-      <c r="S90" s="36">
+      <c r="S90" s="23">
         <f>VLOOKUP(B90,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>16920</v>
       </c>
-      <c r="T90" s="46">
+      <c r="T90" s="33">
         <f>VLOOKUP(B90,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>17246</v>
       </c>
@@ -8709,59 +8706,59 @@
       <c r="B91">
         <v>351</v>
       </c>
-      <c r="C91" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D91" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E91" s="35">
+      <c r="C91" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E91" s="22">
         <v>1602</v>
       </c>
-      <c r="F91" s="35">
+      <c r="F91" s="22">
         <v>1467</v>
       </c>
-      <c r="G91" s="35">
+      <c r="G91" s="22">
         <v>1438</v>
       </c>
-      <c r="H91" s="35">
+      <c r="H91" s="22">
         <v>1422</v>
       </c>
-      <c r="I91" s="35">
+      <c r="I91" s="22">
         <v>1399</v>
       </c>
-      <c r="J91" s="35">
+      <c r="J91" s="22">
         <v>1370</v>
       </c>
-      <c r="K91" s="35">
+      <c r="K91" s="22">
         <v>1355</v>
       </c>
-      <c r="L91" s="35">
+      <c r="L91" s="22">
         <v>1296</v>
       </c>
-      <c r="M91" s="35">
+      <c r="M91" s="22">
         <v>1313</v>
       </c>
-      <c r="N91" s="35">
+      <c r="N91" s="22">
         <v>1444</v>
       </c>
-      <c r="O91" s="35">
+      <c r="O91" s="22">
         <v>1420</v>
       </c>
-      <c r="P91" s="35">
+      <c r="P91" s="22">
         <v>1458</v>
       </c>
-      <c r="Q91" s="35">
+      <c r="Q91" s="22">
         <v>1431</v>
       </c>
-      <c r="R91" s="35">
+      <c r="R91" s="22">
         <v>1422</v>
       </c>
-      <c r="S91" s="35">
+      <c r="S91" s="22">
         <f>VLOOKUP(B91,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1483</v>
       </c>
-      <c r="T91" s="45">
+      <c r="T91" s="32">
         <f>VLOOKUP(B91,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1416</v>
       </c>
@@ -8770,59 +8767,59 @@
       <c r="B92">
         <v>352</v>
       </c>
-      <c r="C92" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D92" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E92" s="35">
+      <c r="C92" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E92" s="22">
         <v>1438</v>
       </c>
-      <c r="F92" s="35">
+      <c r="F92" s="22">
         <v>1435</v>
       </c>
-      <c r="G92" s="35">
+      <c r="G92" s="22">
         <v>1457</v>
       </c>
-      <c r="H92" s="35">
+      <c r="H92" s="22">
         <v>1514</v>
       </c>
-      <c r="I92" s="35">
+      <c r="I92" s="22">
         <v>1424</v>
       </c>
-      <c r="J92" s="35">
+      <c r="J92" s="22">
         <v>1352</v>
       </c>
-      <c r="K92" s="35">
+      <c r="K92" s="22">
         <v>1358</v>
       </c>
-      <c r="L92" s="35">
+      <c r="L92" s="22">
         <v>1331</v>
       </c>
-      <c r="M92" s="35">
+      <c r="M92" s="22">
         <v>1430</v>
       </c>
-      <c r="N92" s="35">
+      <c r="N92" s="22">
         <v>1352</v>
       </c>
-      <c r="O92" s="35">
+      <c r="O92" s="22">
         <v>1384</v>
       </c>
-      <c r="P92" s="35">
+      <c r="P92" s="22">
         <v>1464</v>
       </c>
-      <c r="Q92" s="35">
+      <c r="Q92" s="22">
         <v>1495</v>
       </c>
-      <c r="R92" s="35">
+      <c r="R92" s="22">
         <v>1554</v>
       </c>
-      <c r="S92" s="35">
+      <c r="S92" s="22">
         <f>VLOOKUP(B92,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1390</v>
       </c>
-      <c r="T92" s="45">
+      <c r="T92" s="32">
         <f>VLOOKUP(B92,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1584</v>
       </c>
@@ -8831,59 +8828,59 @@
       <c r="B93">
         <v>353</v>
       </c>
-      <c r="C93" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D93" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E93" s="35">
+      <c r="C93" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E93" s="22">
         <v>1990</v>
       </c>
-      <c r="F93" s="35">
+      <c r="F93" s="22">
         <v>1843</v>
       </c>
-      <c r="G93" s="35">
+      <c r="G93" s="22">
         <v>1955</v>
       </c>
-      <c r="H93" s="35">
+      <c r="H93" s="22">
         <v>1952</v>
       </c>
-      <c r="I93" s="35">
+      <c r="I93" s="22">
         <v>1809</v>
       </c>
-      <c r="J93" s="35">
+      <c r="J93" s="22">
         <v>1802</v>
       </c>
-      <c r="K93" s="35">
+      <c r="K93" s="22">
         <v>1864</v>
       </c>
-      <c r="L93" s="35">
+      <c r="L93" s="22">
         <v>1850</v>
       </c>
-      <c r="M93" s="35">
+      <c r="M93" s="22">
         <v>1944</v>
       </c>
-      <c r="N93" s="35">
+      <c r="N93" s="22">
         <v>1974</v>
       </c>
-      <c r="O93" s="35">
+      <c r="O93" s="22">
         <v>2070</v>
       </c>
-      <c r="P93" s="35">
+      <c r="P93" s="22">
         <v>2151</v>
       </c>
-      <c r="Q93" s="35">
+      <c r="Q93" s="22">
         <v>2135</v>
       </c>
-      <c r="R93" s="35">
+      <c r="R93" s="22">
         <v>2144</v>
       </c>
-      <c r="S93" s="35">
+      <c r="S93" s="22">
         <f>VLOOKUP(B93,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>2094</v>
       </c>
-      <c r="T93" s="45">
+      <c r="T93" s="32">
         <f>VLOOKUP(B93,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>2003</v>
       </c>
@@ -8892,59 +8889,59 @@
       <c r="B94">
         <v>354</v>
       </c>
-      <c r="C94" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D94" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E94" s="35">
+      <c r="C94" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E94" s="22">
         <v>415</v>
       </c>
-      <c r="F94" s="35">
+      <c r="F94" s="22">
         <v>351</v>
       </c>
-      <c r="G94" s="35">
+      <c r="G94" s="22">
         <v>337</v>
       </c>
-      <c r="H94" s="35">
+      <c r="H94" s="22">
         <v>300</v>
       </c>
-      <c r="I94" s="35">
+      <c r="I94" s="22">
         <v>305</v>
       </c>
-      <c r="J94" s="35">
+      <c r="J94" s="22">
         <v>321</v>
       </c>
-      <c r="K94" s="35">
+      <c r="K94" s="22">
         <v>286</v>
       </c>
-      <c r="L94" s="35">
+      <c r="L94" s="22">
         <v>310</v>
       </c>
-      <c r="M94" s="35">
+      <c r="M94" s="22">
         <v>305</v>
       </c>
-      <c r="N94" s="35">
+      <c r="N94" s="22">
         <v>326</v>
       </c>
-      <c r="O94" s="35">
+      <c r="O94" s="22">
         <v>291</v>
       </c>
-      <c r="P94" s="35">
+      <c r="P94" s="22">
         <v>297</v>
       </c>
-      <c r="Q94" s="35">
+      <c r="Q94" s="22">
         <v>318</v>
       </c>
-      <c r="R94" s="35">
+      <c r="R94" s="22">
         <v>314</v>
       </c>
-      <c r="S94" s="35">
+      <c r="S94" s="22">
         <f>VLOOKUP(B94,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>328</v>
       </c>
-      <c r="T94" s="45">
+      <c r="T94" s="32">
         <f>VLOOKUP(B94,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>300</v>
       </c>
@@ -8953,59 +8950,59 @@
       <c r="B95">
         <v>355</v>
       </c>
-      <c r="C95" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D95" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E95" s="35">
+      <c r="C95" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E95" s="22">
         <v>1445</v>
       </c>
-      <c r="F95" s="35">
+      <c r="F95" s="22">
         <v>1496</v>
       </c>
-      <c r="G95" s="35">
+      <c r="G95" s="22">
         <v>1479</v>
       </c>
-      <c r="H95" s="35">
+      <c r="H95" s="22">
         <v>1452</v>
       </c>
-      <c r="I95" s="35">
+      <c r="I95" s="22">
         <v>1467</v>
       </c>
-      <c r="J95" s="35">
+      <c r="J95" s="22">
         <v>1489</v>
       </c>
-      <c r="K95" s="35">
+      <c r="K95" s="22">
         <v>1411</v>
       </c>
-      <c r="L95" s="35">
+      <c r="L95" s="22">
         <v>1398</v>
       </c>
-      <c r="M95" s="35">
+      <c r="M95" s="22">
         <v>1537</v>
       </c>
-      <c r="N95" s="35">
+      <c r="N95" s="22">
         <v>1577</v>
       </c>
-      <c r="O95" s="35">
+      <c r="O95" s="22">
         <v>1481</v>
       </c>
-      <c r="P95" s="35">
+      <c r="P95" s="22">
         <v>1558</v>
       </c>
-      <c r="Q95" s="35">
+      <c r="Q95" s="22">
         <v>1521</v>
       </c>
-      <c r="R95" s="35">
+      <c r="R95" s="22">
         <v>1522</v>
       </c>
-      <c r="S95" s="35">
+      <c r="S95" s="22">
         <f>VLOOKUP(B95,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1510</v>
       </c>
-      <c r="T95" s="45">
+      <c r="T95" s="32">
         <f>VLOOKUP(B95,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1519</v>
       </c>
@@ -9014,59 +9011,59 @@
       <c r="B96">
         <v>356</v>
       </c>
-      <c r="C96" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D96" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E96" s="35">
+      <c r="C96" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E96" s="22">
         <v>798</v>
       </c>
-      <c r="F96" s="35">
+      <c r="F96" s="22">
         <v>832</v>
       </c>
-      <c r="G96" s="35">
+      <c r="G96" s="22">
         <v>824</v>
       </c>
-      <c r="H96" s="35">
+      <c r="H96" s="22">
         <v>772</v>
       </c>
-      <c r="I96" s="35">
+      <c r="I96" s="22">
         <v>779</v>
       </c>
-      <c r="J96" s="35">
+      <c r="J96" s="22">
         <v>777</v>
       </c>
-      <c r="K96" s="35">
+      <c r="K96" s="22">
         <v>793</v>
       </c>
-      <c r="L96" s="35">
+      <c r="L96" s="22">
         <v>721</v>
       </c>
-      <c r="M96" s="35">
+      <c r="M96" s="22">
         <v>753</v>
       </c>
-      <c r="N96" s="35">
+      <c r="N96" s="22">
         <v>805</v>
       </c>
-      <c r="O96" s="35">
+      <c r="O96" s="22">
         <v>808</v>
       </c>
-      <c r="P96" s="35">
+      <c r="P96" s="22">
         <v>863</v>
       </c>
-      <c r="Q96" s="35">
+      <c r="Q96" s="22">
         <v>884</v>
       </c>
-      <c r="R96" s="35">
+      <c r="R96" s="22">
         <v>883</v>
       </c>
-      <c r="S96" s="35">
+      <c r="S96" s="22">
         <f>VLOOKUP(B96,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>908</v>
       </c>
-      <c r="T96" s="45">
+      <c r="T96" s="32">
         <f>VLOOKUP(B96,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>877</v>
       </c>
@@ -9075,59 +9072,59 @@
       <c r="B97">
         <v>357</v>
       </c>
-      <c r="C97" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D97" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E97" s="35">
+      <c r="C97" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E97" s="22">
         <v>1424</v>
       </c>
-      <c r="F97" s="35">
+      <c r="F97" s="22">
         <v>1418</v>
       </c>
-      <c r="G97" s="35">
+      <c r="G97" s="22">
         <v>1418</v>
       </c>
-      <c r="H97" s="35">
+      <c r="H97" s="22">
         <v>1332</v>
       </c>
-      <c r="I97" s="35">
+      <c r="I97" s="22">
         <v>1318</v>
       </c>
-      <c r="J97" s="35">
+      <c r="J97" s="22">
         <v>1317</v>
       </c>
-      <c r="K97" s="35">
+      <c r="K97" s="22">
         <v>1191</v>
       </c>
-      <c r="L97" s="35">
+      <c r="L97" s="22">
         <v>1191</v>
       </c>
-      <c r="M97" s="35">
+      <c r="M97" s="22">
         <v>1168</v>
       </c>
-      <c r="N97" s="35">
+      <c r="N97" s="22">
         <v>1260</v>
       </c>
-      <c r="O97" s="35">
+      <c r="O97" s="22">
         <v>1253</v>
       </c>
-      <c r="P97" s="35">
+      <c r="P97" s="22">
         <v>1291</v>
       </c>
-      <c r="Q97" s="35">
+      <c r="Q97" s="22">
         <v>1307</v>
       </c>
-      <c r="R97" s="35">
+      <c r="R97" s="22">
         <v>1376</v>
       </c>
-      <c r="S97" s="35">
+      <c r="S97" s="22">
         <f>VLOOKUP(B97,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1370</v>
       </c>
-      <c r="T97" s="45">
+      <c r="T97" s="32">
         <f>VLOOKUP(B97,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1369</v>
       </c>
@@ -9136,59 +9133,59 @@
       <c r="B98">
         <v>358</v>
       </c>
-      <c r="C98" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D98" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E98" s="35">
+      <c r="C98" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E98" s="22">
         <v>1175</v>
       </c>
-      <c r="F98" s="35">
+      <c r="F98" s="22">
         <v>1178</v>
       </c>
-      <c r="G98" s="35">
+      <c r="G98" s="22">
         <v>1120</v>
       </c>
-      <c r="H98" s="35">
+      <c r="H98" s="22">
         <v>1094</v>
       </c>
-      <c r="I98" s="35">
+      <c r="I98" s="22">
         <v>1086</v>
       </c>
-      <c r="J98" s="35">
+      <c r="J98" s="22">
         <v>1134</v>
       </c>
-      <c r="K98" s="35">
+      <c r="K98" s="22">
         <v>1017</v>
       </c>
-      <c r="L98" s="35">
+      <c r="L98" s="22">
         <v>995</v>
       </c>
-      <c r="M98" s="35">
+      <c r="M98" s="22">
         <v>1016</v>
       </c>
-      <c r="N98" s="35">
+      <c r="N98" s="22">
         <v>991</v>
       </c>
-      <c r="O98" s="35">
+      <c r="O98" s="22">
         <v>1058</v>
       </c>
-      <c r="P98" s="35">
+      <c r="P98" s="22">
         <v>1032</v>
       </c>
-      <c r="Q98" s="35">
+      <c r="Q98" s="22">
         <v>1056</v>
       </c>
-      <c r="R98" s="35">
+      <c r="R98" s="22">
         <v>1091</v>
       </c>
-      <c r="S98" s="35">
+      <c r="S98" s="22">
         <f>VLOOKUP(B98,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1101</v>
       </c>
-      <c r="T98" s="45">
+      <c r="T98" s="32">
         <f>VLOOKUP(B98,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1120</v>
       </c>
@@ -9197,59 +9194,59 @@
       <c r="B99">
         <v>359</v>
       </c>
-      <c r="C99" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D99" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E99" s="35">
+      <c r="C99" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E99" s="22">
         <v>1633</v>
       </c>
-      <c r="F99" s="35">
+      <c r="F99" s="22">
         <v>1672</v>
       </c>
-      <c r="G99" s="35">
+      <c r="G99" s="22">
         <v>1622</v>
       </c>
-      <c r="H99" s="35">
+      <c r="H99" s="22">
         <v>1635</v>
       </c>
-      <c r="I99" s="35">
+      <c r="I99" s="22">
         <v>1592</v>
       </c>
-      <c r="J99" s="35">
+      <c r="J99" s="22">
         <v>1698</v>
       </c>
-      <c r="K99" s="35">
+      <c r="K99" s="22">
         <v>1572</v>
       </c>
-      <c r="L99" s="35">
+      <c r="L99" s="22">
         <v>1514</v>
       </c>
-      <c r="M99" s="35">
+      <c r="M99" s="22">
         <v>1623</v>
       </c>
-      <c r="N99" s="35">
+      <c r="N99" s="22">
         <v>1573</v>
       </c>
-      <c r="O99" s="35">
+      <c r="O99" s="22">
         <v>1635</v>
       </c>
-      <c r="P99" s="35">
+      <c r="P99" s="22">
         <v>1741</v>
       </c>
-      <c r="Q99" s="35">
+      <c r="Q99" s="22">
         <v>1702</v>
       </c>
-      <c r="R99" s="35">
+      <c r="R99" s="22">
         <v>1704</v>
       </c>
-      <c r="S99" s="35">
+      <c r="S99" s="22">
         <f>VLOOKUP(B99,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1716</v>
       </c>
-      <c r="T99" s="45">
+      <c r="T99" s="32">
         <f>VLOOKUP(B99,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1779</v>
       </c>
@@ -9258,59 +9255,59 @@
       <c r="B100">
         <v>360</v>
       </c>
-      <c r="C100" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D100" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E100" s="35">
+      <c r="C100" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E100" s="22">
         <v>713</v>
       </c>
-      <c r="F100" s="35">
+      <c r="F100" s="22">
         <v>727</v>
       </c>
-      <c r="G100" s="35">
+      <c r="G100" s="22">
         <v>685</v>
       </c>
-      <c r="H100" s="35">
+      <c r="H100" s="22">
         <v>649</v>
       </c>
-      <c r="I100" s="35">
+      <c r="I100" s="22">
         <v>632</v>
       </c>
-      <c r="J100" s="35">
+      <c r="J100" s="22">
         <v>647</v>
       </c>
-      <c r="K100" s="35">
+      <c r="K100" s="22">
         <v>602</v>
       </c>
-      <c r="L100" s="35">
+      <c r="L100" s="22">
         <v>611</v>
       </c>
-      <c r="M100" s="35">
+      <c r="M100" s="22">
         <v>610</v>
       </c>
-      <c r="N100" s="35">
+      <c r="N100" s="22">
         <v>629</v>
       </c>
-      <c r="O100" s="35">
+      <c r="O100" s="22">
         <v>591</v>
       </c>
-      <c r="P100" s="35">
+      <c r="P100" s="22">
         <v>623</v>
       </c>
-      <c r="Q100" s="35">
+      <c r="Q100" s="22">
         <v>652</v>
       </c>
-      <c r="R100" s="35">
+      <c r="R100" s="22">
         <v>633</v>
       </c>
-      <c r="S100" s="35">
+      <c r="S100" s="22">
         <f>VLOOKUP(B100,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>671</v>
       </c>
-      <c r="T100" s="45">
+      <c r="T100" s="32">
         <f>VLOOKUP(B100,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>651</v>
       </c>
@@ -9319,59 +9316,59 @@
       <c r="B101">
         <v>361</v>
       </c>
-      <c r="C101" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D101" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E101" s="35">
+      <c r="C101" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E101" s="22">
         <v>1113</v>
       </c>
-      <c r="F101" s="35">
+      <c r="F101" s="22">
         <v>1083</v>
       </c>
-      <c r="G101" s="35">
+      <c r="G101" s="22">
         <v>1102</v>
       </c>
-      <c r="H101" s="35">
+      <c r="H101" s="22">
         <v>1076</v>
       </c>
-      <c r="I101" s="35">
+      <c r="I101" s="22">
         <v>1046</v>
       </c>
-      <c r="J101" s="35">
+      <c r="J101" s="22">
         <v>1099</v>
       </c>
-      <c r="K101" s="35">
+      <c r="K101" s="22">
         <v>1002</v>
       </c>
-      <c r="L101" s="35">
+      <c r="L101" s="22">
         <v>1062</v>
       </c>
-      <c r="M101" s="35">
+      <c r="M101" s="22">
         <v>1074</v>
       </c>
-      <c r="N101" s="35">
+      <c r="N101" s="22">
         <v>1166</v>
       </c>
-      <c r="O101" s="35">
+      <c r="O101" s="22">
         <v>1169</v>
       </c>
-      <c r="P101" s="35">
+      <c r="P101" s="22">
         <v>1171</v>
       </c>
-      <c r="Q101" s="35">
+      <c r="Q101" s="22">
         <v>1266</v>
       </c>
-      <c r="R101" s="35">
+      <c r="R101" s="22">
         <v>1172</v>
       </c>
-      <c r="S101" s="35">
+      <c r="S101" s="22">
         <f>VLOOKUP(B101,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1156</v>
       </c>
-      <c r="T101" s="45">
+      <c r="T101" s="32">
         <f>VLOOKUP(B101,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1163</v>
       </c>
@@ -9380,59 +9377,59 @@
       <c r="B102">
         <v>3</v>
       </c>
-      <c r="C102" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D102" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E102" s="36">
+      <c r="C102" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E102" s="23">
         <v>13746</v>
       </c>
-      <c r="F102" s="36">
+      <c r="F102" s="23">
         <v>13502</v>
       </c>
-      <c r="G102" s="36">
+      <c r="G102" s="23">
         <v>13437</v>
       </c>
-      <c r="H102" s="36">
+      <c r="H102" s="23">
         <v>13198</v>
       </c>
-      <c r="I102" s="36">
+      <c r="I102" s="23">
         <v>12857</v>
       </c>
-      <c r="J102" s="36">
+      <c r="J102" s="23">
         <v>13006</v>
       </c>
-      <c r="K102" s="36">
+      <c r="K102" s="23">
         <v>12451</v>
       </c>
-      <c r="L102" s="36">
+      <c r="L102" s="23">
         <v>12279</v>
       </c>
-      <c r="M102" s="36">
+      <c r="M102" s="23">
         <v>12773</v>
       </c>
-      <c r="N102" s="36">
+      <c r="N102" s="23">
         <v>13097</v>
       </c>
-      <c r="O102" s="36">
+      <c r="O102" s="23">
         <v>13160</v>
       </c>
-      <c r="P102" s="36">
+      <c r="P102" s="23">
         <v>13649</v>
       </c>
-      <c r="Q102" s="36">
+      <c r="Q102" s="23">
         <v>13767</v>
       </c>
-      <c r="R102" s="36">
+      <c r="R102" s="23">
         <v>13815</v>
       </c>
-      <c r="S102" s="36">
+      <c r="S102" s="23">
         <f>VLOOKUP(B102,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>13727</v>
       </c>
-      <c r="T102" s="46">
+      <c r="T102" s="33">
         <f>VLOOKUP(B102,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>13781</v>
       </c>
@@ -9441,59 +9438,59 @@
       <c r="B103">
         <v>401</v>
       </c>
-      <c r="C103" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D103" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E103" s="35">
+      <c r="C103" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E103" s="22">
         <v>604</v>
       </c>
-      <c r="F103" s="35">
+      <c r="F103" s="22">
         <v>623</v>
       </c>
-      <c r="G103" s="35">
+      <c r="G103" s="22">
         <v>574</v>
       </c>
-      <c r="H103" s="35">
+      <c r="H103" s="22">
         <v>583</v>
       </c>
-      <c r="I103" s="35">
+      <c r="I103" s="22">
         <v>520</v>
       </c>
-      <c r="J103" s="35">
+      <c r="J103" s="22">
         <v>565</v>
       </c>
-      <c r="K103" s="35">
+      <c r="K103" s="22">
         <v>584</v>
       </c>
-      <c r="L103" s="35">
+      <c r="L103" s="22">
         <v>559</v>
       </c>
-      <c r="M103" s="35">
+      <c r="M103" s="22">
         <v>550</v>
       </c>
-      <c r="N103" s="35">
+      <c r="N103" s="22">
         <v>643</v>
       </c>
-      <c r="O103" s="35">
+      <c r="O103" s="22">
         <v>632</v>
       </c>
-      <c r="P103" s="35">
+      <c r="P103" s="22">
         <v>673</v>
       </c>
-      <c r="Q103" s="35">
+      <c r="Q103" s="22">
         <v>656</v>
       </c>
-      <c r="R103" s="35">
+      <c r="R103" s="22">
         <v>641</v>
       </c>
-      <c r="S103" s="35">
+      <c r="S103" s="22">
         <f>VLOOKUP(B103,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>663</v>
       </c>
-      <c r="T103" s="45">
+      <c r="T103" s="32">
         <f>VLOOKUP(B103,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>559</v>
       </c>
@@ -9502,59 +9499,59 @@
       <c r="B104">
         <v>402</v>
       </c>
-      <c r="C104" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D104" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E104" s="35">
+      <c r="C104" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E104" s="22">
         <v>390</v>
       </c>
-      <c r="F104" s="35">
+      <c r="F104" s="22">
         <v>430</v>
       </c>
-      <c r="G104" s="35">
+      <c r="G104" s="22">
         <v>398</v>
       </c>
-      <c r="H104" s="35">
+      <c r="H104" s="22">
         <v>394</v>
       </c>
-      <c r="I104" s="35">
+      <c r="I104" s="22">
         <v>419</v>
       </c>
-      <c r="J104" s="35">
+      <c r="J104" s="22">
         <v>458</v>
       </c>
-      <c r="K104" s="35">
+      <c r="K104" s="22">
         <v>402</v>
       </c>
-      <c r="L104" s="35">
+      <c r="L104" s="22">
         <v>408</v>
       </c>
-      <c r="M104" s="35">
+      <c r="M104" s="22">
         <v>396</v>
       </c>
-      <c r="N104" s="35">
+      <c r="N104" s="22">
         <v>420</v>
       </c>
-      <c r="O104" s="35">
+      <c r="O104" s="22">
         <v>399</v>
       </c>
-      <c r="P104" s="35">
+      <c r="P104" s="22">
         <v>438</v>
       </c>
-      <c r="Q104" s="35">
+      <c r="Q104" s="22">
         <v>413</v>
       </c>
-      <c r="R104" s="35">
+      <c r="R104" s="22">
         <v>389</v>
       </c>
-      <c r="S104" s="35">
+      <c r="S104" s="22">
         <f>VLOOKUP(B104,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>391</v>
       </c>
-      <c r="T104" s="45">
+      <c r="T104" s="32">
         <f>VLOOKUP(B104,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>360</v>
       </c>
@@ -9563,59 +9560,59 @@
       <c r="B105">
         <v>403</v>
       </c>
-      <c r="C105" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D105" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E105" s="35">
+      <c r="C105" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E105" s="22">
         <v>1311</v>
       </c>
-      <c r="F105" s="35">
+      <c r="F105" s="22">
         <v>1318</v>
       </c>
-      <c r="G105" s="35">
+      <c r="G105" s="22">
         <v>1264</v>
       </c>
-      <c r="H105" s="35">
+      <c r="H105" s="22">
         <v>1298</v>
       </c>
-      <c r="I105" s="35">
+      <c r="I105" s="22">
         <v>1322</v>
       </c>
-      <c r="J105" s="35">
+      <c r="J105" s="22">
         <v>1289</v>
       </c>
-      <c r="K105" s="35">
+      <c r="K105" s="22">
         <v>1299</v>
       </c>
-      <c r="L105" s="35">
+      <c r="L105" s="22">
         <v>1282</v>
       </c>
-      <c r="M105" s="35">
+      <c r="M105" s="22">
         <v>1349</v>
       </c>
-      <c r="N105" s="35">
+      <c r="N105" s="22">
         <v>1394</v>
       </c>
-      <c r="O105" s="35">
+      <c r="O105" s="22">
         <v>1372</v>
       </c>
-      <c r="P105" s="35">
+      <c r="P105" s="22">
         <v>1409</v>
       </c>
-      <c r="Q105" s="35">
+      <c r="Q105" s="22">
         <v>1423</v>
       </c>
-      <c r="R105" s="35">
+      <c r="R105" s="22">
         <v>1409</v>
       </c>
-      <c r="S105" s="35">
+      <c r="S105" s="22">
         <f>VLOOKUP(B105,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1373</v>
       </c>
-      <c r="T105" s="45">
+      <c r="T105" s="32">
         <f>VLOOKUP(B105,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1400</v>
       </c>
@@ -9624,59 +9621,59 @@
       <c r="B106">
         <v>404</v>
       </c>
-      <c r="C106" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D106" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E106" s="35">
+      <c r="C106" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E106" s="22">
         <v>1319</v>
       </c>
-      <c r="F106" s="35">
+      <c r="F106" s="22">
         <v>1274</v>
       </c>
-      <c r="G106" s="35">
+      <c r="G106" s="22">
         <v>1389</v>
       </c>
-      <c r="H106" s="35">
+      <c r="H106" s="22">
         <v>1398</v>
       </c>
-      <c r="I106" s="35">
+      <c r="I106" s="22">
         <v>1314</v>
       </c>
-      <c r="J106" s="35">
+      <c r="J106" s="22">
         <v>1296</v>
       </c>
-      <c r="K106" s="35">
+      <c r="K106" s="22">
         <v>1342</v>
       </c>
-      <c r="L106" s="35">
+      <c r="L106" s="22">
         <v>1342</v>
       </c>
-      <c r="M106" s="35">
+      <c r="M106" s="22">
         <v>1356</v>
       </c>
-      <c r="N106" s="35">
+      <c r="N106" s="22">
         <v>1339</v>
       </c>
-      <c r="O106" s="35">
+      <c r="O106" s="22">
         <v>1347</v>
       </c>
-      <c r="P106" s="35">
+      <c r="P106" s="22">
         <v>1452</v>
       </c>
-      <c r="Q106" s="35">
+      <c r="Q106" s="22">
         <v>1433</v>
       </c>
-      <c r="R106" s="35">
+      <c r="R106" s="22">
         <v>1426</v>
       </c>
-      <c r="S106" s="35">
+      <c r="S106" s="22">
         <f>VLOOKUP(B106,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1372</v>
       </c>
-      <c r="T106" s="45">
+      <c r="T106" s="32">
         <f>VLOOKUP(B106,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1282</v>
       </c>
@@ -9685,59 +9682,59 @@
       <c r="B107">
         <v>405</v>
       </c>
-      <c r="C107" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D107" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E107" s="35">
+      <c r="C107" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E107" s="22">
         <v>563</v>
       </c>
-      <c r="F107" s="35">
+      <c r="F107" s="22">
         <v>583</v>
       </c>
-      <c r="G107" s="35">
+      <c r="G107" s="22">
         <v>570</v>
       </c>
-      <c r="H107" s="35">
+      <c r="H107" s="22">
         <v>574</v>
       </c>
-      <c r="I107" s="35">
+      <c r="I107" s="22">
         <v>535</v>
       </c>
-      <c r="J107" s="35">
+      <c r="J107" s="22">
         <v>594</v>
       </c>
-      <c r="K107" s="35">
+      <c r="K107" s="22">
         <v>534</v>
       </c>
-      <c r="L107" s="35">
+      <c r="L107" s="22">
         <v>551</v>
       </c>
-      <c r="M107" s="35">
+      <c r="M107" s="22">
         <v>527</v>
       </c>
-      <c r="N107" s="35">
+      <c r="N107" s="22">
         <v>527</v>
       </c>
-      <c r="O107" s="35">
+      <c r="O107" s="22">
         <v>510</v>
       </c>
-      <c r="P107" s="35">
+      <c r="P107" s="22">
         <v>580</v>
       </c>
-      <c r="Q107" s="35">
+      <c r="Q107" s="22">
         <v>574</v>
       </c>
-      <c r="R107" s="35">
+      <c r="R107" s="22">
         <v>527</v>
       </c>
-      <c r="S107" s="35">
+      <c r="S107" s="22">
         <f>VLOOKUP(B107,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>536</v>
       </c>
-      <c r="T107" s="45">
+      <c r="T107" s="32">
         <f>VLOOKUP(B107,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>533</v>
       </c>
@@ -9746,59 +9743,59 @@
       <c r="B108">
         <v>451</v>
       </c>
-      <c r="C108" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D108" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E108" s="35">
+      <c r="C108" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E108" s="22">
         <v>984</v>
       </c>
-      <c r="F108" s="35">
+      <c r="F108" s="22">
         <v>949</v>
       </c>
-      <c r="G108" s="35">
+      <c r="G108" s="22">
         <v>872</v>
       </c>
-      <c r="H108" s="35">
+      <c r="H108" s="22">
         <v>901</v>
       </c>
-      <c r="I108" s="35">
+      <c r="I108" s="22">
         <v>831</v>
       </c>
-      <c r="J108" s="35">
+      <c r="J108" s="22">
         <v>918</v>
       </c>
-      <c r="K108" s="35">
+      <c r="K108" s="22">
         <v>884</v>
       </c>
-      <c r="L108" s="35">
+      <c r="L108" s="22">
         <v>893</v>
       </c>
-      <c r="M108" s="35">
+      <c r="M108" s="22">
         <v>852</v>
       </c>
-      <c r="N108" s="35">
+      <c r="N108" s="22">
         <v>945</v>
       </c>
-      <c r="O108" s="35">
+      <c r="O108" s="22">
         <v>944</v>
       </c>
-      <c r="P108" s="35">
+      <c r="P108" s="22">
         <v>1029</v>
       </c>
-      <c r="Q108" s="35">
+      <c r="Q108" s="22">
         <v>960</v>
       </c>
-      <c r="R108" s="35">
+      <c r="R108" s="22">
         <v>992</v>
       </c>
-      <c r="S108" s="35">
+      <c r="S108" s="22">
         <f>VLOOKUP(B108,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1071</v>
       </c>
-      <c r="T108" s="45">
+      <c r="T108" s="32">
         <f>VLOOKUP(B108,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1007</v>
       </c>
@@ -9807,59 +9804,59 @@
       <c r="B109">
         <v>452</v>
       </c>
-      <c r="C109" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="D109" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E109" s="35">
+      <c r="C109" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E109" s="22">
         <v>1616</v>
       </c>
-      <c r="F109" s="35">
+      <c r="F109" s="22">
         <v>1522</v>
       </c>
-      <c r="G109" s="35">
+      <c r="G109" s="22">
         <v>1579</v>
       </c>
-      <c r="H109" s="35">
+      <c r="H109" s="22">
         <v>1520</v>
       </c>
-      <c r="I109" s="35">
+      <c r="I109" s="22">
         <v>1440</v>
       </c>
-      <c r="J109" s="35">
+      <c r="J109" s="22">
         <v>1477</v>
       </c>
-      <c r="K109" s="35">
+      <c r="K109" s="22">
         <v>1422</v>
       </c>
-      <c r="L109" s="35">
+      <c r="L109" s="22">
         <v>1420</v>
       </c>
-      <c r="M109" s="35">
+      <c r="M109" s="22">
         <v>1414</v>
       </c>
-      <c r="N109" s="35">
+      <c r="N109" s="22">
         <v>1413</v>
       </c>
-      <c r="O109" s="35">
+      <c r="O109" s="22">
         <v>1433</v>
       </c>
-      <c r="P109" s="35">
+      <c r="P109" s="22">
         <v>1513</v>
       </c>
-      <c r="Q109" s="35">
+      <c r="Q109" s="22">
         <v>1552</v>
       </c>
-      <c r="R109" s="35">
+      <c r="R109" s="22">
         <v>1498</v>
       </c>
-      <c r="S109" s="35">
+      <c r="S109" s="22">
         <f>VLOOKUP(B109,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1524</v>
       </c>
-      <c r="T109" s="45">
+      <c r="T109" s="32">
         <f>VLOOKUP(B109,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1471</v>
       </c>
@@ -9868,59 +9865,59 @@
       <c r="B110">
         <v>453</v>
       </c>
-      <c r="C110" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D110" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E110" s="35">
+      <c r="C110" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E110" s="22">
         <v>1683</v>
       </c>
-      <c r="F110" s="35">
+      <c r="F110" s="22">
         <v>1663</v>
       </c>
-      <c r="G110" s="35">
+      <c r="G110" s="22">
         <v>1603</v>
       </c>
-      <c r="H110" s="35">
+      <c r="H110" s="22">
         <v>1518</v>
       </c>
-      <c r="I110" s="35">
+      <c r="I110" s="22">
         <v>1549</v>
       </c>
-      <c r="J110" s="35">
+      <c r="J110" s="22">
         <v>1528</v>
       </c>
-      <c r="K110" s="35">
+      <c r="K110" s="22">
         <v>1524</v>
       </c>
-      <c r="L110" s="35">
+      <c r="L110" s="22">
         <v>1481</v>
       </c>
-      <c r="M110" s="35">
+      <c r="M110" s="22">
         <v>1473</v>
       </c>
-      <c r="N110" s="35">
+      <c r="N110" s="22">
         <v>1538</v>
       </c>
-      <c r="O110" s="35">
+      <c r="O110" s="22">
         <v>1563</v>
       </c>
-      <c r="P110" s="35">
+      <c r="P110" s="22">
         <v>1631</v>
       </c>
-      <c r="Q110" s="35">
+      <c r="Q110" s="22">
         <v>1664</v>
       </c>
-      <c r="R110" s="35">
+      <c r="R110" s="22">
         <v>1604</v>
       </c>
-      <c r="S110" s="35">
+      <c r="S110" s="22">
         <f>VLOOKUP(B110,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1683</v>
       </c>
-      <c r="T110" s="45">
+      <c r="T110" s="32">
         <f>VLOOKUP(B110,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1752</v>
       </c>
@@ -9929,59 +9926,59 @@
       <c r="B111">
         <v>454</v>
       </c>
-      <c r="C111" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D111" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E111" s="35">
+      <c r="C111" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E111" s="22">
         <v>2937</v>
       </c>
-      <c r="F111" s="35">
+      <c r="F111" s="22">
         <v>2769</v>
       </c>
-      <c r="G111" s="35">
+      <c r="G111" s="22">
         <v>2756</v>
       </c>
-      <c r="H111" s="35">
+      <c r="H111" s="22">
         <v>2707</v>
       </c>
-      <c r="I111" s="35">
+      <c r="I111" s="22">
         <v>2636</v>
       </c>
-      <c r="J111" s="35">
+      <c r="J111" s="22">
         <v>2562</v>
       </c>
-      <c r="K111" s="35">
+      <c r="K111" s="22">
         <v>2566</v>
       </c>
-      <c r="L111" s="35">
+      <c r="L111" s="22">
         <v>2542</v>
       </c>
-      <c r="M111" s="35">
+      <c r="M111" s="22">
         <v>2464</v>
       </c>
-      <c r="N111" s="35">
+      <c r="N111" s="22">
         <v>2679</v>
       </c>
-      <c r="O111" s="35">
+      <c r="O111" s="22">
         <v>2598</v>
       </c>
-      <c r="P111" s="35">
+      <c r="P111" s="22">
         <v>2882</v>
       </c>
-      <c r="Q111" s="35">
+      <c r="Q111" s="22">
         <v>2828</v>
       </c>
-      <c r="R111" s="35">
+      <c r="R111" s="22">
         <v>2791</v>
       </c>
-      <c r="S111" s="35">
+      <c r="S111" s="22">
         <f>VLOOKUP(B111,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>2834</v>
       </c>
-      <c r="T111" s="45">
+      <c r="T111" s="32">
         <f>VLOOKUP(B111,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>2902</v>
       </c>
@@ -9990,59 +9987,59 @@
       <c r="B112">
         <v>455</v>
       </c>
-      <c r="C112" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D112" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E112" s="35">
+      <c r="C112" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E112" s="22">
         <v>687</v>
       </c>
-      <c r="F112" s="35">
+      <c r="F112" s="22">
         <v>687</v>
       </c>
-      <c r="G112" s="35">
+      <c r="G112" s="22">
         <v>730</v>
       </c>
-      <c r="H112" s="35">
+      <c r="H112" s="22">
         <v>689</v>
       </c>
-      <c r="I112" s="35">
+      <c r="I112" s="22">
         <v>682</v>
       </c>
-      <c r="J112" s="35">
+      <c r="J112" s="22">
         <v>680</v>
       </c>
-      <c r="K112" s="35">
+      <c r="K112" s="22">
         <v>648</v>
       </c>
-      <c r="L112" s="35">
+      <c r="L112" s="22">
         <v>659</v>
       </c>
-      <c r="M112" s="35">
+      <c r="M112" s="22">
         <v>630</v>
       </c>
-      <c r="N112" s="35">
+      <c r="N112" s="22">
         <v>663</v>
       </c>
-      <c r="O112" s="35">
+      <c r="O112" s="22">
         <v>704</v>
       </c>
-      <c r="P112" s="35">
+      <c r="P112" s="22">
         <v>727</v>
       </c>
-      <c r="Q112" s="35">
+      <c r="Q112" s="22">
         <v>707</v>
       </c>
-      <c r="R112" s="35">
+      <c r="R112" s="22">
         <v>693</v>
       </c>
-      <c r="S112" s="35">
+      <c r="S112" s="22">
         <f>VLOOKUP(B112,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>754</v>
       </c>
-      <c r="T112" s="45">
+      <c r="T112" s="32">
         <f>VLOOKUP(B112,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>765</v>
       </c>
@@ -10051,59 +10048,59 @@
       <c r="B113">
         <v>456</v>
       </c>
-      <c r="C113" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D113" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E113" s="35">
+      <c r="C113" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E113" s="22">
         <v>1154</v>
       </c>
-      <c r="F113" s="35">
+      <c r="F113" s="22">
         <v>1136</v>
       </c>
-      <c r="G113" s="35">
+      <c r="G113" s="22">
         <v>1027</v>
       </c>
-      <c r="H113" s="35">
+      <c r="H113" s="22">
         <v>1121</v>
       </c>
-      <c r="I113" s="35">
+      <c r="I113" s="22">
         <v>1075</v>
       </c>
-      <c r="J113" s="35">
+      <c r="J113" s="22">
         <v>1096</v>
       </c>
-      <c r="K113" s="35">
+      <c r="K113" s="22">
         <v>1007</v>
       </c>
-      <c r="L113" s="35">
+      <c r="L113" s="22">
         <v>1009</v>
       </c>
-      <c r="M113" s="35">
+      <c r="M113" s="22">
         <v>1079</v>
       </c>
-      <c r="N113" s="35">
+      <c r="N113" s="22">
         <v>1118</v>
       </c>
-      <c r="O113" s="35">
+      <c r="O113" s="22">
         <v>1086</v>
       </c>
-      <c r="P113" s="35">
+      <c r="P113" s="22">
         <v>1044</v>
       </c>
-      <c r="Q113" s="35">
+      <c r="Q113" s="22">
         <v>1146</v>
       </c>
-      <c r="R113" s="35">
+      <c r="R113" s="22">
         <v>1149</v>
       </c>
-      <c r="S113" s="35">
+      <c r="S113" s="22">
         <f>VLOOKUP(B113,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1166</v>
       </c>
-      <c r="T113" s="45">
+      <c r="T113" s="32">
         <f>VLOOKUP(B113,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1158</v>
       </c>
@@ -10112,59 +10109,59 @@
       <c r="B114">
         <v>457</v>
       </c>
-      <c r="C114" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D114" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E114" s="35">
+      <c r="C114" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E114" s="22">
         <v>1444</v>
       </c>
-      <c r="F114" s="35">
+      <c r="F114" s="22">
         <v>1350</v>
       </c>
-      <c r="G114" s="35">
+      <c r="G114" s="22">
         <v>1364</v>
       </c>
-      <c r="H114" s="35">
+      <c r="H114" s="22">
         <v>1314</v>
       </c>
-      <c r="I114" s="35">
+      <c r="I114" s="22">
         <v>1301</v>
       </c>
-      <c r="J114" s="35">
+      <c r="J114" s="22">
         <v>1316</v>
       </c>
-      <c r="K114" s="35">
+      <c r="K114" s="22">
         <v>1222</v>
       </c>
-      <c r="L114" s="35">
+      <c r="L114" s="22">
         <v>1323</v>
       </c>
-      <c r="M114" s="35">
+      <c r="M114" s="22">
         <v>1312</v>
       </c>
-      <c r="N114" s="35">
+      <c r="N114" s="22">
         <v>1295</v>
       </c>
-      <c r="O114" s="35">
+      <c r="O114" s="22">
         <v>1301</v>
       </c>
-      <c r="P114" s="35">
+      <c r="P114" s="22">
         <v>1453</v>
       </c>
-      <c r="Q114" s="35">
+      <c r="Q114" s="22">
         <v>1419</v>
       </c>
-      <c r="R114" s="35">
+      <c r="R114" s="22">
         <v>1464</v>
       </c>
-      <c r="S114" s="35">
+      <c r="S114" s="22">
         <f>VLOOKUP(B114,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1392</v>
       </c>
-      <c r="T114" s="45">
+      <c r="T114" s="32">
         <f>VLOOKUP(B114,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1431</v>
       </c>
@@ -10173,59 +10170,59 @@
       <c r="B115">
         <v>458</v>
       </c>
-      <c r="C115" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D115" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E115" s="35">
+      <c r="C115" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E115" s="22">
         <v>1060</v>
       </c>
-      <c r="F115" s="35">
+      <c r="F115" s="22">
         <v>987</v>
       </c>
-      <c r="G115" s="35">
+      <c r="G115" s="22">
         <v>931</v>
       </c>
-      <c r="H115" s="35">
+      <c r="H115" s="22">
         <v>967</v>
       </c>
-      <c r="I115" s="35">
+      <c r="I115" s="22">
         <v>983</v>
       </c>
-      <c r="J115" s="35">
+      <c r="J115" s="22">
         <v>920</v>
       </c>
-      <c r="K115" s="35">
+      <c r="K115" s="22">
         <v>885</v>
       </c>
-      <c r="L115" s="35">
+      <c r="L115" s="22">
         <v>909</v>
       </c>
-      <c r="M115" s="35">
+      <c r="M115" s="22">
         <v>885</v>
       </c>
-      <c r="N115" s="35">
+      <c r="N115" s="22">
         <v>886</v>
       </c>
-      <c r="O115" s="35">
+      <c r="O115" s="22">
         <v>890</v>
       </c>
-      <c r="P115" s="35">
+      <c r="P115" s="22">
         <v>1058</v>
       </c>
-      <c r="Q115" s="35">
+      <c r="Q115" s="22">
         <v>1040</v>
       </c>
-      <c r="R115" s="35">
+      <c r="R115" s="22">
         <v>1024</v>
       </c>
-      <c r="S115" s="35">
+      <c r="S115" s="22">
         <f>VLOOKUP(B115,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1034</v>
       </c>
-      <c r="T115" s="45">
+      <c r="T115" s="32">
         <f>VLOOKUP(B115,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1030</v>
       </c>
@@ -10234,59 +10231,59 @@
       <c r="B116">
         <v>459</v>
       </c>
-      <c r="C116" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D116" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E116" s="35">
+      <c r="C116" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E116" s="22">
         <v>3274</v>
       </c>
-      <c r="F116" s="35">
+      <c r="F116" s="22">
         <v>3073</v>
       </c>
-      <c r="G116" s="35">
+      <c r="G116" s="22">
         <v>2931</v>
       </c>
-      <c r="H116" s="35">
+      <c r="H116" s="22">
         <v>3118</v>
       </c>
-      <c r="I116" s="35">
+      <c r="I116" s="22">
         <v>2811</v>
       </c>
-      <c r="J116" s="35">
+      <c r="J116" s="22">
         <v>2892</v>
       </c>
-      <c r="K116" s="35">
+      <c r="K116" s="22">
         <v>2879</v>
       </c>
-      <c r="L116" s="35">
+      <c r="L116" s="22">
         <v>2848</v>
       </c>
-      <c r="M116" s="35">
+      <c r="M116" s="22">
         <v>2793</v>
       </c>
-      <c r="N116" s="35">
+      <c r="N116" s="22">
         <v>2934</v>
       </c>
-      <c r="O116" s="35">
+      <c r="O116" s="22">
         <v>2906</v>
       </c>
-      <c r="P116" s="35">
+      <c r="P116" s="22">
         <v>3038</v>
       </c>
-      <c r="Q116" s="35">
+      <c r="Q116" s="22">
         <v>3094</v>
       </c>
-      <c r="R116" s="35">
+      <c r="R116" s="22">
         <v>3050</v>
       </c>
-      <c r="S116" s="35">
+      <c r="S116" s="22">
         <f>VLOOKUP(B116,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>3197</v>
       </c>
-      <c r="T116" s="45">
+      <c r="T116" s="32">
         <f>VLOOKUP(B116,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>3140</v>
       </c>
@@ -10295,59 +10292,59 @@
       <c r="B117">
         <v>460</v>
       </c>
-      <c r="C117" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D117" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E117" s="35">
+      <c r="C117" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E117" s="22">
         <v>1344</v>
       </c>
-      <c r="F117" s="35">
+      <c r="F117" s="22">
         <v>1185</v>
       </c>
-      <c r="G117" s="35">
+      <c r="G117" s="22">
         <v>1281</v>
       </c>
-      <c r="H117" s="35">
+      <c r="H117" s="22">
         <v>1266</v>
       </c>
-      <c r="I117" s="35">
+      <c r="I117" s="22">
         <v>1255</v>
       </c>
-      <c r="J117" s="35">
+      <c r="J117" s="22">
         <v>1237</v>
       </c>
-      <c r="K117" s="35">
+      <c r="K117" s="22">
         <v>1208</v>
       </c>
-      <c r="L117" s="35">
+      <c r="L117" s="22">
         <v>1290</v>
       </c>
-      <c r="M117" s="35">
+      <c r="M117" s="22">
         <v>1232</v>
       </c>
-      <c r="N117" s="35">
+      <c r="N117" s="22">
         <v>1251</v>
       </c>
-      <c r="O117" s="35">
+      <c r="O117" s="22">
         <v>1151</v>
       </c>
-      <c r="P117" s="35">
+      <c r="P117" s="22">
         <v>1313</v>
       </c>
-      <c r="Q117" s="35">
+      <c r="Q117" s="22">
         <v>1308</v>
       </c>
-      <c r="R117" s="35">
+      <c r="R117" s="22">
         <v>1317</v>
       </c>
-      <c r="S117" s="35">
+      <c r="S117" s="22">
         <f>VLOOKUP(B117,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1403</v>
       </c>
-      <c r="T117" s="45">
+      <c r="T117" s="32">
         <f>VLOOKUP(B117,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1380</v>
       </c>
@@ -10356,59 +10353,59 @@
       <c r="B118">
         <v>461</v>
       </c>
-      <c r="C118" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D118" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E118" s="35">
+      <c r="C118" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E118" s="22">
         <v>740</v>
       </c>
-      <c r="F118" s="35">
+      <c r="F118" s="22">
         <v>685</v>
       </c>
-      <c r="G118" s="35">
+      <c r="G118" s="22">
         <v>685</v>
       </c>
-      <c r="H118" s="35">
+      <c r="H118" s="22">
         <v>673</v>
       </c>
-      <c r="I118" s="35">
+      <c r="I118" s="22">
         <v>628</v>
       </c>
-      <c r="J118" s="35">
+      <c r="J118" s="22">
         <v>600</v>
       </c>
-      <c r="K118" s="35">
+      <c r="K118" s="22">
         <v>588</v>
       </c>
-      <c r="L118" s="35">
+      <c r="L118" s="22">
         <v>596</v>
       </c>
-      <c r="M118" s="35">
+      <c r="M118" s="22">
         <v>594</v>
       </c>
-      <c r="N118" s="35">
+      <c r="N118" s="22">
         <v>612</v>
       </c>
-      <c r="O118" s="35">
+      <c r="O118" s="22">
         <v>572</v>
       </c>
-      <c r="P118" s="35">
+      <c r="P118" s="22">
         <v>704</v>
       </c>
-      <c r="Q118" s="35">
+      <c r="Q118" s="22">
         <v>681</v>
       </c>
-      <c r="R118" s="35">
+      <c r="R118" s="22">
         <v>649</v>
       </c>
-      <c r="S118" s="35">
+      <c r="S118" s="22">
         <f>VLOOKUP(B118,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>669</v>
       </c>
-      <c r="T118" s="45">
+      <c r="T118" s="32">
         <f>VLOOKUP(B118,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>692</v>
       </c>
@@ -10417,59 +10414,59 @@
       <c r="B119">
         <v>462</v>
       </c>
-      <c r="C119" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D119" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E119" s="35">
+      <c r="C119" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E119" s="22">
         <v>474</v>
       </c>
-      <c r="F119" s="35">
+      <c r="F119" s="22">
         <v>467</v>
       </c>
-      <c r="G119" s="35">
+      <c r="G119" s="22">
         <v>442</v>
       </c>
-      <c r="H119" s="35">
+      <c r="H119" s="22">
         <v>435</v>
       </c>
-      <c r="I119" s="35">
+      <c r="I119" s="22">
         <v>427</v>
       </c>
-      <c r="J119" s="35">
+      <c r="J119" s="22">
         <v>413</v>
       </c>
-      <c r="K119" s="35">
+      <c r="K119" s="22">
         <v>400</v>
       </c>
-      <c r="L119" s="35">
+      <c r="L119" s="22">
         <v>425</v>
       </c>
-      <c r="M119" s="35">
+      <c r="M119" s="22">
         <v>387</v>
       </c>
-      <c r="N119" s="35">
+      <c r="N119" s="22">
         <v>414</v>
       </c>
-      <c r="O119" s="35">
+      <c r="O119" s="22">
         <v>437</v>
       </c>
-      <c r="P119" s="35">
+      <c r="P119" s="22">
         <v>396</v>
       </c>
-      <c r="Q119" s="35">
+      <c r="Q119" s="22">
         <v>420</v>
       </c>
-      <c r="R119" s="35">
+      <c r="R119" s="22">
         <v>397</v>
       </c>
-      <c r="S119" s="35">
+      <c r="S119" s="22">
         <f>VLOOKUP(B119,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>407</v>
       </c>
-      <c r="T119" s="45">
+      <c r="T119" s="32">
         <f>VLOOKUP(B119,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>455</v>
       </c>
@@ -10478,59 +10475,59 @@
       <c r="B120">
         <v>4</v>
       </c>
-      <c r="C120" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D120" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E120" s="36">
+      <c r="C120" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D120" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E120" s="23">
         <v>21584</v>
       </c>
-      <c r="F120" s="36">
+      <c r="F120" s="23">
         <v>20701</v>
       </c>
-      <c r="G120" s="36">
+      <c r="G120" s="23">
         <v>20396</v>
       </c>
-      <c r="H120" s="36">
+      <c r="H120" s="23">
         <v>20476</v>
       </c>
-      <c r="I120" s="36">
+      <c r="I120" s="23">
         <v>19728</v>
       </c>
-      <c r="J120" s="36">
+      <c r="J120" s="23">
         <v>19841</v>
       </c>
-      <c r="K120" s="36">
+      <c r="K120" s="23">
         <v>19394</v>
       </c>
-      <c r="L120" s="36">
+      <c r="L120" s="23">
         <v>19537</v>
       </c>
-      <c r="M120" s="36">
+      <c r="M120" s="23">
         <v>19293</v>
       </c>
-      <c r="N120" s="36">
+      <c r="N120" s="23">
         <v>20071</v>
       </c>
-      <c r="O120" s="36">
+      <c r="O120" s="23">
         <v>19845</v>
       </c>
-      <c r="P120" s="36">
+      <c r="P120" s="23">
         <v>21340</v>
       </c>
-      <c r="Q120" s="36">
+      <c r="Q120" s="23">
         <v>21318</v>
       </c>
-      <c r="R120" s="36">
+      <c r="R120" s="23">
         <v>21020</v>
       </c>
-      <c r="S120" s="36">
+      <c r="S120" s="23">
         <f>VLOOKUP(B120,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>21469</v>
       </c>
-      <c r="T120" s="46">
+      <c r="T120" s="33">
         <f>VLOOKUP(B120,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>21317</v>
       </c>
@@ -10539,115 +10536,115 @@
       <c r="B121">
         <v>0</v>
       </c>
-      <c r="C121" s="36" t="s">
+      <c r="C121" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D121" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D121" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E121" s="36">
+      <c r="E121" s="23">
         <v>64689</v>
       </c>
-      <c r="F121" s="36">
+      <c r="F121" s="23">
         <v>63053</v>
       </c>
-      <c r="G121" s="36">
+      <c r="G121" s="23">
         <v>62941</v>
       </c>
-      <c r="H121" s="36">
+      <c r="H121" s="23">
         <v>62569</v>
       </c>
-      <c r="I121" s="36">
+      <c r="I121" s="23">
         <v>60223</v>
       </c>
-      <c r="J121" s="36">
+      <c r="J121" s="23">
         <v>61091</v>
       </c>
-      <c r="K121" s="36">
+      <c r="K121" s="23">
         <v>59314</v>
       </c>
-      <c r="L121" s="36">
+      <c r="L121" s="23">
         <v>59039</v>
       </c>
-      <c r="M121" s="36">
+      <c r="M121" s="23">
         <v>59863</v>
       </c>
-      <c r="N121" s="36">
+      <c r="N121" s="23">
         <v>62158</v>
       </c>
-      <c r="O121" s="36">
+      <c r="O121" s="23">
         <v>61861</v>
       </c>
-      <c r="P121" s="36">
+      <c r="P121" s="23">
         <v>66122</v>
       </c>
-      <c r="Q121" s="36">
+      <c r="Q121" s="23">
         <v>64616</v>
       </c>
-      <c r="R121" s="36">
+      <c r="R121" s="23">
         <v>64813</v>
       </c>
-      <c r="S121" s="36">
+      <c r="S121" s="23">
         <f>VLOOKUP(B121,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>64739</v>
       </c>
-      <c r="T121" s="46">
+      <c r="T121" s="33">
         <f>VLOOKUP(B121,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>65115</v>
       </c>
     </row>
     <row r="122" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C122" s="37"/>
-      <c r="D122" s="37"/>
-      <c r="E122" s="37"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="37"/>
-      <c r="H122" s="37"/>
-      <c r="I122" s="37"/>
-      <c r="J122" s="37"/>
-      <c r="K122" s="37"/>
-      <c r="L122" s="37"/>
-      <c r="M122" s="37"/>
-      <c r="N122" s="37"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="24"/>
       <c r="O122" s="5"/>
-      <c r="P122" s="37"/>
+      <c r="P122" s="24"/>
     </row>
     <row r="123" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="38" t="s">
+      <c r="C123" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
+      <c r="M123" s="24"/>
+      <c r="N123" s="24"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="24"/>
+    </row>
+    <row r="125" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C125" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="126" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C126" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C127" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D123" s="37"/>
-      <c r="E123" s="37"/>
-      <c r="F123" s="37"/>
-      <c r="G123" s="37"/>
-      <c r="H123" s="37"/>
-      <c r="I123" s="37"/>
-      <c r="J123" s="37"/>
-      <c r="K123" s="37"/>
-      <c r="L123" s="37"/>
-      <c r="M123" s="37"/>
-      <c r="N123" s="37"/>
-      <c r="O123" s="5"/>
-      <c r="P123" s="37"/>
-    </row>
-    <row r="125" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="126" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="127" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="49" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="128" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="50" t="s">
-        <v>70</v>
+      <c r="C128" s="37" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/2021_1-2-8.xlsx
+++ b/assets/excel/2021_1-2-8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\IM_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EC5F71-ABD0-4D93-95A1-7A8C767C7EFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE61081-D1CE-4067-AA54-F496C89E9E64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{E9FBBBCE-8816-4DD0-890B-F929484014B7}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="69">
   <si>
     <t>Indikator 1.2.8: Lebendgeborene Deutsche und Ausländerinnen und Ausländer in Niedersachsen</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t xml:space="preserve">Schaumburg               </t>
-  </si>
-  <si>
-    <t>Stat. Region Hannover</t>
   </si>
   <si>
     <t xml:space="preserve">Celle                    </t>
@@ -311,7 +308,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -435,34 +432,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -480,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -516,15 +485,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -535,7 +495,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -555,9 +515,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -622,6 +579,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2455,9 +2421,11 @@
           <cell r="F34">
             <v>5009</v>
           </cell>
+          <cell r="G34"/>
           <cell r="H34">
             <v>743</v>
           </cell>
+          <cell r="I34"/>
         </row>
         <row r="35">
           <cell r="A35">
@@ -3813,8 +3781,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B1:T128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3823,20 +3791,20 @@
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="26"/>
+    <col min="20" max="20" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="34"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3851,7 +3819,7 @@
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="34"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
@@ -3872,54 +3840,54 @@
       <c r="R4" s="8"/>
     </row>
     <row r="6" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
     </row>
     <row r="7" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
     </row>
     <row r="8" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="10">
         <v>2005</v>
       </c>
@@ -3965,3459 +3933,3459 @@
       <c r="S8" s="12">
         <v>2019</v>
       </c>
-      <c r="T8" s="27">
+      <c r="T8" s="24">
         <v>2020</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="45" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
     </row>
     <row r="10" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="13">
+      <c r="C10" s="47">
         <v>1</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="48">
         <v>2</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="48">
         <v>3</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="48">
         <v>4</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="47">
         <v>5</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="48">
         <v>6</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="48">
         <v>7</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="48">
         <v>8</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="47">
         <v>9</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="48">
         <v>10</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="48">
         <v>11</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="48">
         <v>12</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="47">
         <v>13</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="48">
         <v>14</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="48">
         <v>15</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="48">
         <v>16</v>
       </c>
-      <c r="S10" s="15">
+      <c r="S10" s="47">
         <v>17</v>
       </c>
-      <c r="T10" s="28">
+      <c r="T10" s="49">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16">
+      <c r="B11" s="13">
         <v>101</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="14">
         <v>84</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="14">
         <v>72</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="14">
         <v>82</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="14">
         <v>67</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="14">
         <v>63</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="14">
         <v>87</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="14">
         <v>84</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="14">
         <v>110</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="14">
         <v>117</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="14">
         <v>138</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="14">
         <v>167</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="14">
         <v>222</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="14">
         <v>185</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R11" s="14">
         <v>232</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="14">
         <f>VLOOKUP(B11,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>239</v>
       </c>
-      <c r="T11" s="29">
+      <c r="T11" s="25">
         <f>VLOOKUP(B11,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>239</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
+      <c r="B12" s="13">
         <v>102</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="14">
         <v>41</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="14">
         <v>37</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="14">
         <v>32</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="14">
         <v>32</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="14">
         <v>20</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="14">
         <v>27</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="14">
         <v>28</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="14">
         <v>22</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="14">
         <v>43</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="14">
         <v>71</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="14">
         <v>90</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="14">
         <v>210</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="14">
         <v>266</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="14">
         <v>336</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="14">
         <f>VLOOKUP(B12,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>292</v>
       </c>
-      <c r="T12" s="29">
+      <c r="T12" s="25">
         <f>VLOOKUP(B12,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>307</v>
       </c>
     </row>
     <row r="13" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
+      <c r="B13" s="13">
         <v>103</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="14">
         <v>42</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="14">
         <v>49</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="14">
         <v>43</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="14">
         <v>50</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="14">
         <v>28</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="14">
         <v>45</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="14">
         <v>53</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="14">
         <v>60</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="14">
         <v>73</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="14">
         <v>99</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="14">
         <v>143</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="14">
         <v>208</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="14">
         <v>158</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="14">
         <v>184</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="14">
         <f>VLOOKUP(B13,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>187</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="25">
         <f>VLOOKUP(B13,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
+      <c r="B14" s="13">
         <v>151</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="14">
         <v>12</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="14">
         <v>8</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="14">
         <v>11</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="14">
         <v>34</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="14">
         <v>12</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="14">
         <v>8</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="14">
         <v>4</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="14">
         <v>35</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="14">
         <v>31</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="14">
         <v>62</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="14">
         <v>86</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="14">
         <v>106</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="14">
         <v>115</v>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="14">
         <v>129</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="14">
         <f>VLOOKUP(B14,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>128</v>
       </c>
-      <c r="T14" s="29">
+      <c r="T14" s="25">
         <f>VLOOKUP(B14,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>136</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>153</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="14">
         <v>44</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="14">
         <v>44</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="14">
         <v>28</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="14">
         <v>39</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="14">
         <v>43</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="14">
         <v>32</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="14">
         <v>39</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="14">
         <v>41</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="14">
         <v>59</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="14">
         <v>54</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="14">
         <v>105</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="14">
         <v>164</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="14">
         <v>149</v>
       </c>
-      <c r="R15" s="17">
+      <c r="R15" s="14">
         <v>159</v>
       </c>
-      <c r="S15" s="17">
+      <c r="S15" s="14">
         <f>VLOOKUP(B15,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>133</v>
       </c>
-      <c r="T15" s="29">
+      <c r="T15" s="25">
         <f>VLOOKUP(B15,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
+      <c r="B16" s="13">
         <v>154</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="14">
         <v>20</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="14">
         <v>12</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="14">
         <v>15</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="14">
         <v>16</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="14">
         <v>14</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="14">
         <v>8</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="14">
         <v>10</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="14">
         <v>11</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="14">
         <v>19</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="14">
         <v>15</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="14">
         <v>33</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="14">
         <v>75</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="14">
         <v>86</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R16" s="14">
         <v>53</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="14">
         <f>VLOOKUP(B16,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>75</v>
       </c>
-      <c r="T16" s="29">
+      <c r="T16" s="25">
         <f>VLOOKUP(B16,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16">
+      <c r="B17" s="13">
         <v>155</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="14">
         <v>41</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="14">
         <v>40</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="14">
         <v>49</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="14">
         <v>55</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="14">
         <v>35</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="14">
         <v>35</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="14">
         <v>36</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="14">
         <v>32</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="14">
         <v>40</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="14">
         <v>55</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="14">
         <v>79</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="14">
         <v>141</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="14">
         <v>129</v>
       </c>
-      <c r="R17" s="17">
+      <c r="R17" s="14">
         <v>109</v>
       </c>
-      <c r="S17" s="17">
+      <c r="S17" s="14">
         <f>VLOOKUP(B17,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>111</v>
       </c>
-      <c r="T17" s="29">
+      <c r="T17" s="25">
         <f>VLOOKUP(B17,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>103</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
+      <c r="B18" s="13">
         <v>157</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="14">
         <v>38</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="14">
         <v>29</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="14">
         <v>27</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="14">
         <v>28</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="14">
         <v>23</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="14">
         <v>26</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="14">
         <v>30</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="14">
         <v>38</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="14">
         <v>28</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="14">
         <v>43</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="14">
         <v>70</v>
       </c>
-      <c r="P18" s="17">
+      <c r="P18" s="14">
         <v>121</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="14">
         <v>112</v>
       </c>
-      <c r="R18" s="17">
+      <c r="R18" s="14">
         <v>109</v>
       </c>
-      <c r="S18" s="17">
+      <c r="S18" s="14">
         <f>VLOOKUP(B18,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>128</v>
       </c>
-      <c r="T18" s="29">
+      <c r="T18" s="25">
         <f>VLOOKUP(B18,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>104</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16">
+      <c r="B19" s="13">
         <v>158</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="14">
         <v>18</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="14">
         <v>19</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="14">
         <v>26</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="14">
         <v>9</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="14">
         <v>25</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="14">
         <v>23</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="14">
         <v>13</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="14">
         <v>19</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="14">
         <v>21</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N19" s="14">
         <v>37</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="14">
         <v>38</v>
       </c>
-      <c r="P19" s="17">
+      <c r="P19" s="14">
         <v>125</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="Q19" s="14">
         <v>78</v>
       </c>
-      <c r="R19" s="17">
+      <c r="R19" s="14">
         <v>91</v>
       </c>
-      <c r="S19" s="17">
+      <c r="S19" s="14">
         <f>VLOOKUP(B19,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>79</v>
       </c>
-      <c r="T19" s="29">
+      <c r="T19" s="25">
         <f>VLOOKUP(B19,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
+      <c r="B20" s="13">
         <v>159</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="14">
         <v>128</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="14">
         <v>114</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="14">
         <v>113</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="14">
         <v>117</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="14">
         <v>115</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="14">
         <v>127</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="14">
         <v>126</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="14">
         <v>150</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="14">
         <v>158</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="14">
         <v>185</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="14">
         <v>202</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P20" s="14">
         <v>337</v>
       </c>
-      <c r="Q20" s="17">
+      <c r="Q20" s="14">
         <v>310</v>
       </c>
-      <c r="R20" s="17">
+      <c r="R20" s="14">
         <v>346</v>
       </c>
-      <c r="S20" s="17">
+      <c r="S20" s="14">
         <f>VLOOKUP(B20,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>287</v>
       </c>
-      <c r="T20" s="29">
+      <c r="T20" s="25">
         <f>VLOOKUP(B20,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>311</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="16">
+    <row r="21" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="13">
         <v>1</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="15">
         <v>468</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="15">
         <v>424</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="15">
         <v>426</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="15">
         <v>447</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="15">
         <v>378</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="15">
         <v>418</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="15">
         <v>423</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="15">
         <v>518</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="15">
         <v>589</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="15">
         <v>759</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="15">
         <v>1013</v>
       </c>
-      <c r="P21" s="18">
+      <c r="P21" s="15">
         <v>1709</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="Q21" s="15">
         <v>1588</v>
       </c>
-      <c r="R21" s="18">
+      <c r="R21" s="15">
         <v>1748</v>
       </c>
-      <c r="S21" s="18">
+      <c r="S21" s="15">
         <f>VLOOKUP(B21,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>1659</v>
       </c>
-      <c r="T21" s="30">
+      <c r="T21" s="26">
         <f>VLOOKUP(B21,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>1657</v>
       </c>
     </row>
     <row r="22" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
+      <c r="B22" s="13">
         <v>241</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="14">
         <v>404</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="14">
         <v>467</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="14">
         <v>421</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="14">
         <v>395</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="14">
         <v>394</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="14">
         <v>397</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="14">
         <v>415</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="14">
         <v>466</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="14">
         <v>531</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N22" s="14">
         <v>770</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O22" s="14">
         <v>933</v>
       </c>
-      <c r="P22" s="17">
+      <c r="P22" s="14">
         <v>1603</v>
       </c>
-      <c r="Q22" s="17">
+      <c r="Q22" s="14">
         <v>1490</v>
       </c>
-      <c r="R22" s="17">
+      <c r="R22" s="14">
         <v>1596</v>
       </c>
-      <c r="S22" s="17">
+      <c r="S22" s="14">
         <f>VLOOKUP(B22,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>1360</v>
       </c>
-      <c r="T22" s="29">
+      <c r="T22" s="25">
         <f>VLOOKUP(B22,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>1763</v>
       </c>
     </row>
     <row r="23" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16">
+      <c r="B23" s="13">
         <v>241001</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="17" t="s">
+      <c r="C23" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="14">
         <v>270</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="14">
         <v>293</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="14">
         <v>262</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="14">
         <v>237</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="14">
         <v>246</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="14">
         <v>258</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="14">
         <v>284</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="14">
         <v>335</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="14">
         <v>351</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N23" s="14">
         <v>493</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O23" s="14">
         <v>569</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P23" s="14">
         <v>831</v>
       </c>
-      <c r="Q23" s="17">
+      <c r="Q23" s="14">
         <v>779</v>
       </c>
-      <c r="R23" s="17">
+      <c r="R23" s="14">
         <v>870</v>
       </c>
-      <c r="S23" s="17">
+      <c r="S23" s="14">
         <f>VLOOKUP(B23,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>798</v>
       </c>
-      <c r="T23" s="29">
+      <c r="T23" s="25">
         <f>VLOOKUP(B23,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>1020</v>
       </c>
     </row>
     <row r="24" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
+      <c r="B24" s="13">
         <v>241999</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="17" t="s">
+      <c r="C24" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="14">
         <v>134</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="14">
         <v>174</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="14">
         <v>159</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="14">
         <v>158</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="14">
         <v>148</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="14">
         <v>139</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="14">
         <v>131</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="14">
         <v>131</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="14">
         <v>180</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N24" s="14">
         <v>277</v>
       </c>
-      <c r="O24" s="17">
+      <c r="O24" s="14">
         <v>364</v>
       </c>
-      <c r="P24" s="17">
+      <c r="P24" s="14">
         <v>772</v>
       </c>
-      <c r="Q24" s="17">
+      <c r="Q24" s="14">
         <v>711</v>
       </c>
-      <c r="R24" s="17">
+      <c r="R24" s="14">
         <v>726</v>
       </c>
-      <c r="S24" s="17">
+      <c r="S24" s="14">
         <f>VLOOKUP(B24,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>562</v>
       </c>
-      <c r="T24" s="29">
+      <c r="T24" s="25">
         <f>VLOOKUP(B24,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>743</v>
       </c>
     </row>
     <row r="25" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="16">
+      <c r="B25" s="13">
         <v>251</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="14">
         <v>50</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="14">
         <v>48</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="14">
         <v>43</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="14">
         <v>61</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="14">
         <v>61</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="14">
         <v>54</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="14">
         <v>45</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="14">
         <v>58</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25" s="14">
         <v>75</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N25" s="14">
         <v>102</v>
       </c>
-      <c r="O25" s="17">
+      <c r="O25" s="14">
         <v>127</v>
       </c>
-      <c r="P25" s="17">
+      <c r="P25" s="14">
         <v>232</v>
       </c>
-      <c r="Q25" s="17">
+      <c r="Q25" s="14">
         <v>240</v>
       </c>
-      <c r="R25" s="17">
+      <c r="R25" s="14">
         <v>233</v>
       </c>
-      <c r="S25" s="17">
+      <c r="S25" s="14">
         <f>VLOOKUP(B25,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>218</v>
       </c>
-      <c r="T25" s="29">
+      <c r="T25" s="25">
         <f>VLOOKUP(B25,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>228</v>
       </c>
     </row>
     <row r="26" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
+      <c r="B26" s="13">
         <v>252</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="14">
         <v>35</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="14">
         <v>64</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="14">
         <v>66</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="14">
         <v>75</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="14">
         <v>39</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="14">
         <v>39</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="14">
         <v>43</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="14">
         <v>64</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="14">
         <v>73</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N26" s="14">
         <v>101</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O26" s="14">
         <v>109</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P26" s="14">
         <v>197</v>
       </c>
-      <c r="Q26" s="17">
+      <c r="Q26" s="14">
         <v>174</v>
       </c>
-      <c r="R26" s="17">
+      <c r="R26" s="14">
         <v>200</v>
       </c>
-      <c r="S26" s="17">
+      <c r="S26" s="14">
         <f>VLOOKUP(B26,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>198</v>
       </c>
-      <c r="T26" s="29">
+      <c r="T26" s="25">
         <f>VLOOKUP(B26,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>202</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="16">
+      <c r="B27" s="13">
         <v>254</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="14">
         <v>118</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="14">
         <v>107</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="14">
         <v>111</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="14">
         <v>109</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="14">
         <v>82</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="14">
         <v>91</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="14">
         <v>90</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="14">
         <v>93</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="14">
         <v>120</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N27" s="14">
         <v>124</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O27" s="14">
         <v>163</v>
       </c>
-      <c r="P27" s="17">
+      <c r="P27" s="14">
         <v>284</v>
       </c>
-      <c r="Q27" s="17">
+      <c r="Q27" s="14">
         <v>226</v>
       </c>
-      <c r="R27" s="17">
+      <c r="R27" s="14">
         <v>270</v>
       </c>
-      <c r="S27" s="17">
+      <c r="S27" s="14">
         <f>VLOOKUP(B27,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>262</v>
       </c>
-      <c r="T27" s="29">
+      <c r="T27" s="25">
         <f>VLOOKUP(B27,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>269</v>
       </c>
     </row>
     <row r="28" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="16">
+      <c r="B28" s="13">
         <v>255</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="14">
         <v>13</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="14">
         <v>16</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="14">
         <v>18</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="14">
         <v>10</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="14">
         <v>14</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="14">
         <v>14</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="14">
         <v>14</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="14">
         <v>11</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M28" s="14">
         <v>9</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="14">
         <v>20</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O28" s="14">
         <v>38</v>
       </c>
-      <c r="P28" s="17">
+      <c r="P28" s="14">
         <v>71</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="Q28" s="14">
         <v>61</v>
       </c>
-      <c r="R28" s="17">
+      <c r="R28" s="14">
         <v>52</v>
       </c>
-      <c r="S28" s="17">
+      <c r="S28" s="14">
         <f>VLOOKUP(B28,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="T28" s="29">
+      <c r="T28" s="25">
         <f>VLOOKUP(B28,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="16">
+      <c r="B29" s="13">
         <v>256</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="14">
         <v>48</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="14">
         <v>36</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="14">
         <v>29</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="14">
         <v>34</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="14">
         <v>19</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="14">
         <v>15</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="14">
         <v>12</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="14">
         <v>24</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="14">
         <v>35</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="14">
         <v>27</v>
       </c>
-      <c r="O29" s="17">
+      <c r="O29" s="14">
         <v>58</v>
       </c>
-      <c r="P29" s="17">
+      <c r="P29" s="14">
         <v>154</v>
       </c>
-      <c r="Q29" s="17">
+      <c r="Q29" s="14">
         <v>116</v>
       </c>
-      <c r="R29" s="17">
+      <c r="R29" s="14">
         <v>109</v>
       </c>
-      <c r="S29" s="17">
+      <c r="S29" s="14">
         <f>VLOOKUP(B29,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>142</v>
       </c>
-      <c r="T29" s="29">
+      <c r="T29" s="25">
         <f>VLOOKUP(B29,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>119</v>
       </c>
     </row>
     <row r="30" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="16">
+      <c r="B30" s="13">
         <v>257</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="14">
         <v>33</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="14">
         <v>33</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="14">
         <v>47</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="14">
         <v>50</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="14">
         <v>6</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="14">
         <v>12</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="14">
         <v>6</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="14">
         <v>27</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M30" s="14">
         <v>49</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N30" s="14">
         <v>85</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O30" s="14">
         <v>83</v>
       </c>
-      <c r="P30" s="17">
+      <c r="P30" s="14">
         <v>166</v>
       </c>
-      <c r="Q30" s="17">
+      <c r="Q30" s="14">
         <v>155</v>
       </c>
-      <c r="R30" s="17">
+      <c r="R30" s="14">
         <v>195</v>
       </c>
-      <c r="S30" s="17">
+      <c r="S30" s="14">
         <f>VLOOKUP(B30,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>139</v>
       </c>
-      <c r="T30" s="29">
+      <c r="T30" s="25">
         <f>VLOOKUP(B30,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="16">
+    <row r="31" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="13">
         <v>2</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="18" t="s">
+      <c r="C31" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="15">
         <v>701</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="15">
         <v>771</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="15">
         <v>735</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="15">
         <v>734</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="15">
         <v>615</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="15">
         <v>622</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="15">
         <v>625</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L31" s="15">
         <v>743</v>
       </c>
-      <c r="M31" s="18">
+      <c r="M31" s="15">
         <v>892</v>
       </c>
-      <c r="N31" s="18">
+      <c r="N31" s="15">
         <v>1229</v>
       </c>
-      <c r="O31" s="18">
+      <c r="O31" s="15">
         <v>1511</v>
       </c>
-      <c r="P31" s="18">
+      <c r="P31" s="15">
         <v>2707</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="Q31" s="15">
         <v>2462</v>
       </c>
-      <c r="R31" s="18">
+      <c r="R31" s="15">
         <v>2655</v>
       </c>
-      <c r="S31" s="18">
+      <c r="S31" s="15">
         <f>VLOOKUP(B31,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>2369</v>
       </c>
-      <c r="T31" s="30">
+      <c r="T31" s="26">
         <f>VLOOKUP(B31,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>2765</v>
       </c>
     </row>
     <row r="32" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="16">
+      <c r="B32" s="13">
         <v>351</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="17" t="s">
+      <c r="C32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="14">
         <v>40</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="14">
         <v>29</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="14">
         <v>35</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="14">
         <v>33</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="14">
         <v>32</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="14">
         <v>33</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="14">
         <v>40</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="14">
         <v>30</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32" s="14">
         <v>67</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="14">
         <v>97</v>
       </c>
-      <c r="O32" s="17">
+      <c r="O32" s="14">
         <v>87</v>
       </c>
-      <c r="P32" s="17">
+      <c r="P32" s="14">
         <v>182</v>
       </c>
-      <c r="Q32" s="17">
+      <c r="Q32" s="14">
         <v>168</v>
       </c>
-      <c r="R32" s="17">
+      <c r="R32" s="14">
         <v>176</v>
       </c>
-      <c r="S32" s="17">
+      <c r="S32" s="14">
         <f>VLOOKUP(B32,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>160</v>
       </c>
-      <c r="T32" s="29">
+      <c r="T32" s="25">
         <f>VLOOKUP(B32,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>170</v>
       </c>
     </row>
     <row r="33" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="16">
+      <c r="B33" s="13">
         <v>352</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="17" t="s">
+      <c r="C33" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="14">
         <v>45</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="14">
         <v>44</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="14">
         <v>49</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="14">
         <v>44</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="14">
         <v>47</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="14">
         <v>47</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="14">
         <v>45</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="14">
         <v>41</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M33" s="14">
         <v>48</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="14">
         <v>83</v>
       </c>
-      <c r="O33" s="17">
+      <c r="O33" s="14">
         <v>84</v>
       </c>
-      <c r="P33" s="17">
+      <c r="P33" s="14">
         <v>168</v>
       </c>
-      <c r="Q33" s="17">
+      <c r="Q33" s="14">
         <v>165</v>
       </c>
-      <c r="R33" s="17">
+      <c r="R33" s="14">
         <v>143</v>
       </c>
-      <c r="S33" s="17">
+      <c r="S33" s="14">
         <f>VLOOKUP(B33,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>131</v>
       </c>
-      <c r="T33" s="29">
+      <c r="T33" s="25">
         <f>VLOOKUP(B33,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>111</v>
       </c>
     </row>
     <row r="34" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="16">
+      <c r="B34" s="13">
         <v>353</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="17" t="s">
+      <c r="C34" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="14">
         <v>55</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="14">
         <v>47</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="14">
         <v>60</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="14">
         <v>62</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="14">
         <v>58</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="14">
         <v>60</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="14">
         <v>44</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="14">
         <v>42</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="14">
         <v>67</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="14">
         <v>84</v>
       </c>
-      <c r="O34" s="17">
+      <c r="O34" s="14">
         <v>90</v>
       </c>
-      <c r="P34" s="17">
+      <c r="P34" s="14">
         <v>128</v>
       </c>
-      <c r="Q34" s="17">
+      <c r="Q34" s="14">
         <v>157</v>
       </c>
-      <c r="R34" s="17">
+      <c r="R34" s="14">
         <v>149</v>
       </c>
-      <c r="S34" s="17">
+      <c r="S34" s="14">
         <f>VLOOKUP(B34,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>185</v>
       </c>
-      <c r="T34" s="29">
+      <c r="T34" s="25">
         <f>VLOOKUP(B34,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>196</v>
       </c>
     </row>
     <row r="35" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>354</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="17" t="s">
+      <c r="C35" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="14">
         <v>5</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="14">
         <v>10</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="14">
         <v>10</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="14">
         <v>3</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="14">
         <v>10</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="14">
         <v>4</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="14">
         <v>5</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="14">
         <v>9</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M35" s="14">
         <v>15</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N35" s="14">
         <v>22</v>
       </c>
-      <c r="O35" s="17">
+      <c r="O35" s="14">
         <v>35</v>
       </c>
-      <c r="P35" s="17">
+      <c r="P35" s="14">
         <v>52</v>
       </c>
-      <c r="Q35" s="17">
+      <c r="Q35" s="14">
         <v>30</v>
       </c>
-      <c r="R35" s="17">
+      <c r="R35" s="14">
         <v>41</v>
       </c>
-      <c r="S35" s="17">
+      <c r="S35" s="14">
         <f>VLOOKUP(B35,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="T35" s="29">
+      <c r="T35" s="25">
         <f>VLOOKUP(B35,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="16">
+      <c r="B36" s="13">
         <v>355</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="14">
+        <v>42</v>
+      </c>
+      <c r="F36" s="14">
+        <v>29</v>
+      </c>
+      <c r="G36" s="14">
+        <v>33</v>
+      </c>
+      <c r="H36" s="14">
+        <v>21</v>
+      </c>
+      <c r="I36" s="14">
+        <v>29</v>
+      </c>
+      <c r="J36" s="14">
+        <v>21</v>
+      </c>
+      <c r="K36" s="14">
+        <v>32</v>
+      </c>
+      <c r="L36" s="14">
         <v>30</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="17">
-        <v>42</v>
-      </c>
-      <c r="F36" s="17">
-        <v>29</v>
-      </c>
-      <c r="G36" s="17">
-        <v>33</v>
-      </c>
-      <c r="H36" s="17">
-        <v>21</v>
-      </c>
-      <c r="I36" s="17">
-        <v>29</v>
-      </c>
-      <c r="J36" s="17">
-        <v>21</v>
-      </c>
-      <c r="K36" s="17">
-        <v>32</v>
-      </c>
-      <c r="L36" s="17">
-        <v>30</v>
-      </c>
-      <c r="M36" s="17">
+      <c r="M36" s="14">
         <v>39</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N36" s="14">
         <v>52</v>
       </c>
-      <c r="O36" s="17">
+      <c r="O36" s="14">
         <v>62</v>
       </c>
-      <c r="P36" s="17">
+      <c r="P36" s="14">
         <v>168</v>
       </c>
-      <c r="Q36" s="17">
+      <c r="Q36" s="14">
         <v>126</v>
       </c>
-      <c r="R36" s="17">
+      <c r="R36" s="14">
         <v>111</v>
       </c>
-      <c r="S36" s="17">
+      <c r="S36" s="14">
         <f>VLOOKUP(B36,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>146</v>
       </c>
-      <c r="T36" s="29">
+      <c r="T36" s="25">
         <f>VLOOKUP(B36,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>137</v>
       </c>
     </row>
     <row r="37" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="16">
+      <c r="B37" s="13">
         <v>356</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="17" t="s">
+      <c r="C37" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="14">
         <v>42</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="14">
         <v>28</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="14">
         <v>29</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="14">
         <v>22</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="14">
         <v>22</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="14">
         <v>24</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="14">
         <v>14</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L37" s="14">
         <v>14</v>
       </c>
-      <c r="M37" s="17">
+      <c r="M37" s="14">
         <v>30</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N37" s="14">
         <v>42</v>
       </c>
-      <c r="O37" s="17">
+      <c r="O37" s="14">
         <v>60</v>
       </c>
-      <c r="P37" s="17">
+      <c r="P37" s="14">
         <v>106</v>
       </c>
-      <c r="Q37" s="17">
+      <c r="Q37" s="14">
         <v>72</v>
       </c>
-      <c r="R37" s="17">
+      <c r="R37" s="14">
         <v>62</v>
       </c>
-      <c r="S37" s="17">
+      <c r="S37" s="14">
         <f>VLOOKUP(B37,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>82</v>
       </c>
-      <c r="T37" s="29">
+      <c r="T37" s="25">
         <f>VLOOKUP(B37,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>61</v>
       </c>
     </row>
     <row r="38" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="16">
+      <c r="B38" s="13">
         <v>357</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="17" t="s">
+      <c r="C38" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="14">
         <v>37</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="14">
         <v>41</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="14">
         <v>38</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="14">
         <v>23</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="14">
         <v>11</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="14">
         <v>10</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="14">
         <v>10</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="14">
         <v>27</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M38" s="14">
         <v>41</v>
       </c>
-      <c r="N38" s="17">
+      <c r="N38" s="14">
         <v>58</v>
       </c>
-      <c r="O38" s="17">
+      <c r="O38" s="14">
         <v>62</v>
       </c>
-      <c r="P38" s="17">
+      <c r="P38" s="14">
         <v>125</v>
       </c>
-      <c r="Q38" s="17">
+      <c r="Q38" s="14">
         <v>122</v>
       </c>
-      <c r="R38" s="17">
+      <c r="R38" s="14">
         <v>100</v>
       </c>
-      <c r="S38" s="17">
+      <c r="S38" s="14">
         <f>VLOOKUP(B38,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>105</v>
       </c>
-      <c r="T38" s="29">
+      <c r="T38" s="25">
         <f>VLOOKUP(B38,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="16">
+      <c r="B39" s="13">
         <v>358</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="17" t="s">
+      <c r="C39" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="14">
         <v>42</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="14">
         <v>40</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="14">
         <v>23</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="14">
         <v>22</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="14">
         <v>22</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J39" s="14">
         <v>18</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="14">
         <v>18</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="14">
         <v>22</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M39" s="14">
         <v>49</v>
       </c>
-      <c r="N39" s="17">
+      <c r="N39" s="14">
         <v>67</v>
       </c>
-      <c r="O39" s="17">
+      <c r="O39" s="14">
         <v>95</v>
       </c>
-      <c r="P39" s="17">
+      <c r="P39" s="14">
         <v>160</v>
       </c>
-      <c r="Q39" s="17">
+      <c r="Q39" s="14">
         <v>124</v>
       </c>
-      <c r="R39" s="17">
+      <c r="R39" s="14">
         <v>160</v>
       </c>
-      <c r="S39" s="17">
+      <c r="S39" s="14">
         <f>VLOOKUP(B39,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>185</v>
       </c>
-      <c r="T39" s="29">
+      <c r="T39" s="25">
         <f>VLOOKUP(B39,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>180</v>
       </c>
     </row>
     <row r="40" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="16">
+      <c r="B40" s="13">
         <v>359</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="17" t="s">
+      <c r="C40" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="14">
         <v>43</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="14">
         <v>50</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="14">
         <v>31</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="14">
         <v>38</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="14">
         <v>48</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="14">
         <v>29</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K40" s="14">
         <v>26</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L40" s="14">
         <v>44</v>
       </c>
-      <c r="M40" s="17">
+      <c r="M40" s="14">
         <v>53</v>
       </c>
-      <c r="N40" s="17">
+      <c r="N40" s="14">
         <v>90</v>
       </c>
-      <c r="O40" s="17">
+      <c r="O40" s="14">
         <v>127</v>
       </c>
-      <c r="P40" s="17">
+      <c r="P40" s="14">
         <v>243</v>
       </c>
-      <c r="Q40" s="17">
+      <c r="Q40" s="14">
         <v>222</v>
       </c>
-      <c r="R40" s="17">
+      <c r="R40" s="14">
         <v>251</v>
       </c>
-      <c r="S40" s="17">
+      <c r="S40" s="14">
         <f>VLOOKUP(B40,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>218</v>
       </c>
-      <c r="T40" s="29">
+      <c r="T40" s="25">
         <f>VLOOKUP(B40,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>235</v>
       </c>
     </row>
     <row r="41" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="16">
+      <c r="B41" s="13">
         <v>360</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="17" t="s">
+      <c r="C41" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="14">
         <v>28</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="14">
         <v>25</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="14">
         <v>20</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="14">
         <v>21</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="14">
         <v>21</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="14">
         <v>21</v>
       </c>
-      <c r="K41" s="17">
+      <c r="K41" s="14">
         <v>17</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L41" s="14">
         <v>17</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M41" s="14">
         <v>19</v>
       </c>
-      <c r="N41" s="17">
+      <c r="N41" s="14">
         <v>44</v>
       </c>
-      <c r="O41" s="17">
+      <c r="O41" s="14">
         <v>53</v>
       </c>
-      <c r="P41" s="17">
+      <c r="P41" s="14">
         <v>71</v>
       </c>
-      <c r="Q41" s="17">
+      <c r="Q41" s="14">
         <v>52</v>
       </c>
-      <c r="R41" s="17">
+      <c r="R41" s="14">
         <v>67</v>
       </c>
-      <c r="S41" s="17">
+      <c r="S41" s="14">
         <f>VLOOKUP(B41,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>57</v>
       </c>
-      <c r="T41" s="29">
+      <c r="T41" s="25">
         <f>VLOOKUP(B41,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="16">
+      <c r="B42" s="13">
         <v>361</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="17" t="s">
+      <c r="C42" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="14">
         <v>44</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="14">
         <v>28</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="14">
         <v>46</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="14">
         <v>33</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="14">
         <v>19</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42" s="14">
         <v>22</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K42" s="14">
         <v>20</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="14">
         <v>34</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M42" s="14">
         <v>35</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N42" s="14">
         <v>38</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O42" s="14">
         <v>58</v>
       </c>
-      <c r="P42" s="17">
+      <c r="P42" s="14">
         <v>132</v>
       </c>
-      <c r="Q42" s="17">
+      <c r="Q42" s="14">
         <v>110</v>
       </c>
-      <c r="R42" s="17">
+      <c r="R42" s="14">
         <v>127</v>
       </c>
-      <c r="S42" s="17">
+      <c r="S42" s="14">
         <f>VLOOKUP(B42,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>113</v>
       </c>
-      <c r="T42" s="29">
+      <c r="T42" s="25">
         <f>VLOOKUP(B42,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="16">
+    <row r="43" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="13">
         <v>3</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="18" t="s">
+      <c r="C43" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="15">
         <v>423</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="15">
         <v>371</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="15">
         <v>374</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="15">
         <v>322</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="15">
         <v>319</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J43" s="15">
         <v>289</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K43" s="15">
         <v>271</v>
       </c>
-      <c r="L43" s="18">
+      <c r="L43" s="15">
         <v>310</v>
       </c>
-      <c r="M43" s="18">
+      <c r="M43" s="15">
         <v>463</v>
       </c>
-      <c r="N43" s="18">
+      <c r="N43" s="15">
         <v>677</v>
       </c>
-      <c r="O43" s="18">
+      <c r="O43" s="15">
         <v>813</v>
       </c>
-      <c r="P43" s="18">
+      <c r="P43" s="15">
         <v>1535</v>
       </c>
-      <c r="Q43" s="18">
+      <c r="Q43" s="15">
         <v>1348</v>
       </c>
-      <c r="R43" s="18">
+      <c r="R43" s="15">
         <v>1387</v>
       </c>
-      <c r="S43" s="18">
+      <c r="S43" s="15">
         <f>VLOOKUP(B43,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>1412</v>
       </c>
-      <c r="T43" s="30">
+      <c r="T43" s="26">
         <f>VLOOKUP(B43,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>1416</v>
       </c>
     </row>
     <row r="44" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="16">
+      <c r="B44" s="13">
         <v>401</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="17" t="s">
+      <c r="C44" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="14">
         <v>18</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="14">
         <v>16</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="14">
         <v>28</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="14">
         <v>25</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="14">
         <v>24</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J44" s="14">
         <v>29</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="14">
         <v>20</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="14">
         <v>46</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="14">
         <v>23</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N44" s="14">
         <v>50</v>
       </c>
-      <c r="O44" s="17">
+      <c r="O44" s="14">
         <v>83</v>
       </c>
-      <c r="P44" s="17">
+      <c r="P44" s="14">
         <v>180</v>
       </c>
-      <c r="Q44" s="17">
+      <c r="Q44" s="14">
         <v>202</v>
       </c>
-      <c r="R44" s="17">
+      <c r="R44" s="14">
         <v>184</v>
       </c>
-      <c r="S44" s="17">
+      <c r="S44" s="14">
         <f>VLOOKUP(B44,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>186</v>
       </c>
-      <c r="T44" s="29">
+      <c r="T44" s="25">
         <f>VLOOKUP(B44,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>179</v>
       </c>
     </row>
     <row r="45" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="16">
+      <c r="B45" s="13">
         <v>402</v>
       </c>
-      <c r="C45" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="17" t="s">
+      <c r="C45" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="14">
         <v>14</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="14">
         <v>15</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="14">
         <v>16</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="14">
         <v>17</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="14">
         <v>17</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="14">
         <v>12</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K45" s="14">
         <v>13</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="14">
         <v>16</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M45" s="14">
         <v>26</v>
       </c>
-      <c r="N45" s="17">
+      <c r="N45" s="14">
         <v>29</v>
       </c>
-      <c r="O45" s="17">
+      <c r="O45" s="14">
         <v>40</v>
       </c>
-      <c r="P45" s="17">
+      <c r="P45" s="14">
         <v>80</v>
       </c>
-      <c r="Q45" s="17">
+      <c r="Q45" s="14">
         <v>68</v>
       </c>
-      <c r="R45" s="17">
+      <c r="R45" s="14">
         <v>79</v>
       </c>
-      <c r="S45" s="17">
+      <c r="S45" s="14">
         <f>VLOOKUP(B45,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>77</v>
       </c>
-      <c r="T45" s="29">
+      <c r="T45" s="25">
         <f>VLOOKUP(B45,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>75</v>
       </c>
     </row>
     <row r="46" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="16">
+      <c r="B46" s="13">
         <v>403</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="17" t="s">
+      <c r="C46" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="14">
         <v>101</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="14">
         <v>97</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="14">
         <v>95</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="14">
         <v>80</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="14">
         <v>101</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J46" s="14">
         <v>113</v>
       </c>
-      <c r="K46" s="17">
+      <c r="K46" s="14">
         <v>84</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L46" s="14">
         <v>107</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M46" s="14">
         <v>105</v>
       </c>
-      <c r="N46" s="17">
+      <c r="N46" s="14">
         <v>136</v>
       </c>
-      <c r="O46" s="17">
+      <c r="O46" s="14">
         <v>140</v>
       </c>
-      <c r="P46" s="17">
+      <c r="P46" s="14">
         <v>211</v>
       </c>
-      <c r="Q46" s="17">
+      <c r="Q46" s="14">
         <v>221</v>
       </c>
-      <c r="R46" s="17">
+      <c r="R46" s="14">
         <v>223</v>
       </c>
-      <c r="S46" s="17">
+      <c r="S46" s="14">
         <f>VLOOKUP(B46,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>214</v>
       </c>
-      <c r="T46" s="29">
+      <c r="T46" s="25">
         <f>VLOOKUP(B46,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>256</v>
       </c>
     </row>
     <row r="47" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="16">
+      <c r="B47" s="13">
         <v>404</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="17" t="s">
+      <c r="C47" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="14">
         <v>60</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="14">
         <v>80</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="14">
         <v>75</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="14">
         <v>89</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="14">
         <v>49</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="14">
         <v>93</v>
       </c>
-      <c r="K47" s="17">
+      <c r="K47" s="14">
         <v>82</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L47" s="14">
         <v>74</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M47" s="14">
         <v>102</v>
       </c>
-      <c r="N47" s="17">
+      <c r="N47" s="14">
         <v>137</v>
       </c>
-      <c r="O47" s="17">
+      <c r="O47" s="14">
         <v>151</v>
       </c>
-      <c r="P47" s="17">
+      <c r="P47" s="14">
         <v>220</v>
       </c>
-      <c r="Q47" s="17">
+      <c r="Q47" s="14">
         <v>241</v>
       </c>
-      <c r="R47" s="17">
+      <c r="R47" s="14">
         <v>234</v>
       </c>
-      <c r="S47" s="17">
+      <c r="S47" s="14">
         <f>VLOOKUP(B47,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>253</v>
       </c>
-      <c r="T47" s="29">
+      <c r="T47" s="25">
         <f>VLOOKUP(B47,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>242</v>
       </c>
     </row>
     <row r="48" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="16">
+      <c r="B48" s="13">
         <v>405</v>
       </c>
-      <c r="C48" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="17" t="s">
+      <c r="C48" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="14">
         <v>26</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="14">
         <v>22</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="14">
         <v>16</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="14">
         <v>9</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="14">
         <v>14</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J48" s="14">
         <v>21</v>
       </c>
-      <c r="K48" s="17">
+      <c r="K48" s="14">
         <v>24</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L48" s="14">
         <v>19</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M48" s="14">
         <v>18</v>
       </c>
-      <c r="N48" s="17">
+      <c r="N48" s="14">
         <v>35</v>
       </c>
-      <c r="O48" s="17">
+      <c r="O48" s="14">
         <v>84</v>
       </c>
-      <c r="P48" s="17">
+      <c r="P48" s="14">
         <v>106</v>
       </c>
-      <c r="Q48" s="17">
+      <c r="Q48" s="14">
         <v>137</v>
       </c>
-      <c r="R48" s="17">
+      <c r="R48" s="14">
         <v>133</v>
       </c>
-      <c r="S48" s="17">
+      <c r="S48" s="14">
         <f>VLOOKUP(B48,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>136</v>
       </c>
-      <c r="T48" s="29">
+      <c r="T48" s="25">
         <f>VLOOKUP(B48,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>150</v>
       </c>
     </row>
     <row r="49" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="16">
+      <c r="B49" s="13">
         <v>451</v>
       </c>
-      <c r="C49" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="17" t="s">
+      <c r="C49" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="14">
         <v>14</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="14">
         <v>16</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="14">
         <v>20</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="14">
         <v>22</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="14">
         <v>19</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="14">
         <v>12</v>
       </c>
-      <c r="K49" s="17">
+      <c r="K49" s="14">
         <v>27</v>
       </c>
-      <c r="L49" s="17">
+      <c r="L49" s="14">
         <v>29</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M49" s="14">
         <v>25</v>
       </c>
-      <c r="N49" s="17">
+      <c r="N49" s="14">
         <v>37</v>
       </c>
-      <c r="O49" s="17">
+      <c r="O49" s="14">
         <v>63</v>
       </c>
-      <c r="P49" s="17">
+      <c r="P49" s="14">
         <v>119</v>
       </c>
-      <c r="Q49" s="17">
+      <c r="Q49" s="14">
         <v>94</v>
       </c>
-      <c r="R49" s="17">
+      <c r="R49" s="14">
         <v>104</v>
       </c>
-      <c r="S49" s="17">
+      <c r="S49" s="14">
         <f>VLOOKUP(B49,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>95</v>
       </c>
-      <c r="T49" s="29">
+      <c r="T49" s="25">
         <f>VLOOKUP(B49,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>81</v>
       </c>
     </row>
     <row r="50" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="16">
+      <c r="B50" s="13">
         <v>452</v>
       </c>
-      <c r="C50" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="17" t="s">
+      <c r="C50" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="14">
         <v>43</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="14">
         <v>37</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="14">
         <v>60</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="14">
         <v>33</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="14">
         <v>30</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J50" s="14">
         <v>9</v>
       </c>
-      <c r="K50" s="17">
+      <c r="K50" s="14">
         <v>14</v>
       </c>
-      <c r="L50" s="17">
+      <c r="L50" s="14">
         <v>30</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M50" s="14">
         <v>43</v>
       </c>
-      <c r="N50" s="17">
+      <c r="N50" s="14">
         <v>62</v>
       </c>
-      <c r="O50" s="17">
+      <c r="O50" s="14">
         <v>97</v>
       </c>
-      <c r="P50" s="17">
+      <c r="P50" s="14">
         <v>162</v>
       </c>
-      <c r="Q50" s="17">
+      <c r="Q50" s="14">
         <v>153</v>
       </c>
-      <c r="R50" s="17">
+      <c r="R50" s="14">
         <v>138</v>
       </c>
-      <c r="S50" s="17">
+      <c r="S50" s="14">
         <f>VLOOKUP(B50,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>132</v>
       </c>
-      <c r="T50" s="29">
+      <c r="T50" s="25">
         <f>VLOOKUP(B50,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>122</v>
       </c>
     </row>
     <row r="51" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="16">
+      <c r="B51" s="13">
         <v>453</v>
       </c>
-      <c r="C51" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="17" t="s">
+      <c r="C51" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="14">
         <v>32</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="14">
         <v>20</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="14">
         <v>44</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="14">
         <v>39</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="14">
         <v>24</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="14">
         <v>23</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K51" s="14">
         <v>17</v>
       </c>
-      <c r="L51" s="17">
+      <c r="L51" s="14">
         <v>62</v>
       </c>
-      <c r="M51" s="17">
+      <c r="M51" s="14">
         <v>116</v>
       </c>
-      <c r="N51" s="17">
+      <c r="N51" s="14">
         <v>159</v>
       </c>
-      <c r="O51" s="17">
+      <c r="O51" s="14">
         <v>180</v>
       </c>
-      <c r="P51" s="17">
+      <c r="P51" s="14">
         <v>260</v>
       </c>
-      <c r="Q51" s="17">
+      <c r="Q51" s="14">
         <v>242</v>
       </c>
-      <c r="R51" s="17">
+      <c r="R51" s="14">
         <v>299</v>
       </c>
-      <c r="S51" s="17">
+      <c r="S51" s="14">
         <f>VLOOKUP(B51,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>299</v>
       </c>
-      <c r="T51" s="29">
+      <c r="T51" s="25">
         <f>VLOOKUP(B51,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>284</v>
       </c>
     </row>
     <row r="52" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="16">
+      <c r="B52" s="13">
         <v>454</v>
       </c>
-      <c r="C52" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="17" t="s">
+      <c r="C52" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="14">
         <v>87</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="14">
         <v>81</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="14">
         <v>89</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="14">
         <v>108</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="14">
         <v>85</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J52" s="14">
         <v>65</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K52" s="14">
         <v>84</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L52" s="14">
         <v>115</v>
       </c>
-      <c r="M52" s="17">
+      <c r="M52" s="14">
         <v>147</v>
       </c>
-      <c r="N52" s="17">
+      <c r="N52" s="14">
         <v>236</v>
       </c>
-      <c r="O52" s="17">
+      <c r="O52" s="14">
         <v>291</v>
       </c>
-      <c r="P52" s="17">
+      <c r="P52" s="14">
         <v>419</v>
       </c>
-      <c r="Q52" s="17">
+      <c r="Q52" s="14">
         <v>420</v>
       </c>
-      <c r="R52" s="17">
+      <c r="R52" s="14">
         <v>421</v>
       </c>
-      <c r="S52" s="17">
+      <c r="S52" s="14">
         <f>VLOOKUP(B52,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>434</v>
       </c>
-      <c r="T52" s="29">
+      <c r="T52" s="25">
         <f>VLOOKUP(B52,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>434</v>
       </c>
     </row>
     <row r="53" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="16">
+      <c r="B53" s="13">
         <v>455</v>
       </c>
-      <c r="C53" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="17" t="s">
+      <c r="C53" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="14">
         <v>17</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="14">
         <v>19</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="14">
         <v>18</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="14">
         <v>15</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="14">
         <v>18</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J53" s="14">
         <v>12</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K53" s="14">
         <v>15</v>
       </c>
-      <c r="L53" s="17">
+      <c r="L53" s="14">
         <v>16</v>
       </c>
-      <c r="M53" s="17">
+      <c r="M53" s="14">
         <v>22</v>
       </c>
-      <c r="N53" s="17">
+      <c r="N53" s="14">
         <v>29</v>
       </c>
-      <c r="O53" s="17">
+      <c r="O53" s="14">
         <v>62</v>
       </c>
-      <c r="P53" s="17">
+      <c r="P53" s="14">
         <v>126</v>
       </c>
-      <c r="Q53" s="17">
+      <c r="Q53" s="14">
         <v>85</v>
       </c>
-      <c r="R53" s="17">
+      <c r="R53" s="14">
         <v>63</v>
       </c>
-      <c r="S53" s="17">
+      <c r="S53" s="14">
         <f>VLOOKUP(B53,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="T53" s="29">
+      <c r="T53" s="25">
         <f>VLOOKUP(B53,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>47</v>
       </c>
     </row>
     <row r="54" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="16">
+      <c r="B54" s="13">
         <v>456</v>
       </c>
-      <c r="C54" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="17" t="s">
+      <c r="C54" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="14">
         <v>57</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="14">
         <v>86</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="14">
         <v>109</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="14">
         <v>100</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="14">
         <v>92</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J54" s="14">
         <v>87</v>
       </c>
-      <c r="K54" s="17">
+      <c r="K54" s="14">
         <v>56</v>
       </c>
-      <c r="L54" s="17">
+      <c r="L54" s="14">
         <v>74</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M54" s="14">
         <v>79</v>
       </c>
-      <c r="N54" s="17">
+      <c r="N54" s="14">
         <v>108</v>
       </c>
-      <c r="O54" s="17">
+      <c r="O54" s="14">
         <v>132</v>
       </c>
-      <c r="P54" s="17">
+      <c r="P54" s="14">
         <v>185</v>
       </c>
-      <c r="Q54" s="17">
+      <c r="Q54" s="14">
         <v>156</v>
       </c>
-      <c r="R54" s="17">
+      <c r="R54" s="14">
         <v>160</v>
       </c>
-      <c r="S54" s="17">
+      <c r="S54" s="14">
         <f>VLOOKUP(B54,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>148</v>
       </c>
-      <c r="T54" s="29">
+      <c r="T54" s="25">
         <f>VLOOKUP(B54,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>175</v>
       </c>
     </row>
     <row r="55" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="16">
+      <c r="B55" s="13">
         <v>457</v>
       </c>
-      <c r="C55" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="17" t="s">
+      <c r="C55" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="14">
         <v>35</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="14">
         <v>23</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="14">
         <v>40</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="14">
         <v>36</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="14">
         <v>36</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J55" s="14">
         <v>46</v>
       </c>
-      <c r="K55" s="17">
+      <c r="K55" s="14">
         <v>41</v>
       </c>
-      <c r="L55" s="17">
+      <c r="L55" s="14">
         <v>36</v>
       </c>
-      <c r="M55" s="17">
+      <c r="M55" s="14">
         <v>46</v>
       </c>
-      <c r="N55" s="17">
+      <c r="N55" s="14">
         <v>78</v>
       </c>
-      <c r="O55" s="17">
+      <c r="O55" s="14">
         <v>93</v>
       </c>
-      <c r="P55" s="17">
+      <c r="P55" s="14">
         <v>170</v>
       </c>
-      <c r="Q55" s="17">
+      <c r="Q55" s="14">
         <v>160</v>
       </c>
-      <c r="R55" s="17">
+      <c r="R55" s="14">
         <v>183</v>
       </c>
-      <c r="S55" s="17">
+      <c r="S55" s="14">
         <f>VLOOKUP(B55,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>196</v>
       </c>
-      <c r="T55" s="29">
+      <c r="T55" s="25">
         <f>VLOOKUP(B55,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>209</v>
       </c>
     </row>
     <row r="56" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="16">
+      <c r="B56" s="13">
         <v>458</v>
       </c>
-      <c r="C56" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="17" t="s">
+      <c r="C56" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="14">
         <v>28</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="14">
         <v>15</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="14">
         <v>30</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="14">
         <v>28</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="14">
         <v>24</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J56" s="14">
         <v>25</v>
       </c>
-      <c r="K56" s="17">
+      <c r="K56" s="14">
         <v>21</v>
       </c>
-      <c r="L56" s="17">
+      <c r="L56" s="14">
         <v>43</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M56" s="14">
         <v>64</v>
       </c>
-      <c r="N56" s="17">
+      <c r="N56" s="14">
         <v>80</v>
       </c>
-      <c r="O56" s="17">
+      <c r="O56" s="14">
         <v>83</v>
       </c>
-      <c r="P56" s="17">
+      <c r="P56" s="14">
         <v>155</v>
       </c>
-      <c r="Q56" s="17">
+      <c r="Q56" s="14">
         <v>132</v>
       </c>
-      <c r="R56" s="17">
+      <c r="R56" s="14">
         <v>136</v>
       </c>
-      <c r="S56" s="17">
+      <c r="S56" s="14">
         <f>VLOOKUP(B56,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>138</v>
       </c>
-      <c r="T56" s="29">
+      <c r="T56" s="25">
         <f>VLOOKUP(B56,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>120</v>
       </c>
     </row>
     <row r="57" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="16">
+      <c r="B57" s="13">
         <v>459</v>
       </c>
-      <c r="C57" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="17" t="s">
+      <c r="C57" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="14">
         <v>61</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="14">
         <v>59</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G57" s="14">
         <v>87</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="14">
         <v>83</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="14">
         <v>69</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J57" s="14">
         <v>75</v>
       </c>
-      <c r="K57" s="17">
+      <c r="K57" s="14">
         <v>65</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L57" s="14">
         <v>81</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M57" s="14">
         <v>107</v>
       </c>
-      <c r="N57" s="17">
+      <c r="N57" s="14">
         <v>185</v>
       </c>
-      <c r="O57" s="17">
+      <c r="O57" s="14">
         <v>199</v>
       </c>
-      <c r="P57" s="17">
+      <c r="P57" s="14">
         <v>335</v>
       </c>
-      <c r="Q57" s="17">
+      <c r="Q57" s="14">
         <v>341</v>
       </c>
-      <c r="R57" s="17">
+      <c r="R57" s="14">
         <v>350</v>
       </c>
-      <c r="S57" s="17">
+      <c r="S57" s="14">
         <f>VLOOKUP(B57,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>385</v>
       </c>
-      <c r="T57" s="29">
+      <c r="T57" s="25">
         <f>VLOOKUP(B57,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>382</v>
       </c>
     </row>
     <row r="58" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="16">
+      <c r="B58" s="13">
         <v>460</v>
       </c>
-      <c r="C58" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="17" t="s">
+      <c r="C58" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="14">
         <v>86</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="14">
         <v>92</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="14">
         <v>86</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="14">
         <v>88</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="14">
         <v>63</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J58" s="14">
         <v>62</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K58" s="14">
         <v>53</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L58" s="14">
         <v>90</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M58" s="14">
         <v>113</v>
       </c>
-      <c r="N58" s="17">
+      <c r="N58" s="14">
         <v>171</v>
       </c>
-      <c r="O58" s="17">
+      <c r="O58" s="14">
         <v>212</v>
       </c>
-      <c r="P58" s="17">
+      <c r="P58" s="14">
         <v>279</v>
       </c>
-      <c r="Q58" s="17">
+      <c r="Q58" s="14">
         <v>239</v>
       </c>
-      <c r="R58" s="17">
+      <c r="R58" s="14">
         <v>235</v>
       </c>
-      <c r="S58" s="17">
+      <c r="S58" s="14">
         <f>VLOOKUP(B58,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>263</v>
       </c>
-      <c r="T58" s="29">
+      <c r="T58" s="25">
         <f>VLOOKUP(B58,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>288</v>
       </c>
     </row>
     <row r="59" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="16">
+      <c r="B59" s="13">
         <v>461</v>
       </c>
-      <c r="C59" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D59" s="17" t="s">
+      <c r="C59" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="14">
         <v>17</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="14">
         <v>16</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="14">
         <v>28</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="14">
         <v>26</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="14">
         <v>19</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J59" s="14">
         <v>17</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K59" s="14">
         <v>19</v>
       </c>
-      <c r="L59" s="17">
+      <c r="L59" s="14">
         <v>18</v>
       </c>
-      <c r="M59" s="17">
+      <c r="M59" s="14">
         <v>27</v>
       </c>
-      <c r="N59" s="17">
+      <c r="N59" s="14">
         <v>33</v>
       </c>
-      <c r="O59" s="17">
+      <c r="O59" s="14">
         <v>50</v>
       </c>
-      <c r="P59" s="17">
+      <c r="P59" s="14">
         <v>94</v>
       </c>
-      <c r="Q59" s="17">
+      <c r="Q59" s="14">
         <v>79</v>
       </c>
-      <c r="R59" s="17">
+      <c r="R59" s="14">
         <v>84</v>
       </c>
-      <c r="S59" s="17">
+      <c r="S59" s="14">
         <f>VLOOKUP(B59,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>72</v>
       </c>
-      <c r="T59" s="29">
+      <c r="T59" s="25">
         <f>VLOOKUP(B59,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>83</v>
       </c>
     </row>
     <row r="60" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="16">
+      <c r="B60" s="13">
         <v>462</v>
       </c>
-      <c r="C60" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" s="17" t="s">
+      <c r="C60" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="14">
         <v>16</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="14">
         <v>14</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="14">
         <v>9</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="14">
         <v>17</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="14">
         <v>9</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="14">
         <v>9</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K60" s="14">
         <v>12</v>
       </c>
-      <c r="L60" s="17">
+      <c r="L60" s="14">
         <v>12</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M60" s="14">
         <v>9</v>
       </c>
-      <c r="N60" s="17">
+      <c r="N60" s="14">
         <v>18</v>
       </c>
-      <c r="O60" s="17">
+      <c r="O60" s="14">
         <v>25</v>
       </c>
-      <c r="P60" s="17">
+      <c r="P60" s="14">
         <v>41</v>
       </c>
-      <c r="Q60" s="17">
+      <c r="Q60" s="14">
         <v>36</v>
       </c>
-      <c r="R60" s="17">
+      <c r="R60" s="14">
         <v>23</v>
       </c>
-      <c r="S60" s="17">
+      <c r="S60" s="14">
         <f>VLOOKUP(B60,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="T60" s="29">
+      <c r="T60" s="25">
         <f>VLOOKUP(B60,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="16">
+    <row r="61" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="13">
         <v>4</v>
       </c>
-      <c r="C61" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D61" s="18" t="s">
+      <c r="C61" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="15">
         <v>712</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="15">
         <v>708</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="15">
         <v>850</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="15">
         <v>815</v>
       </c>
-      <c r="I61" s="18">
+      <c r="I61" s="15">
         <v>693</v>
       </c>
-      <c r="J61" s="18">
+      <c r="J61" s="15">
         <v>710</v>
       </c>
-      <c r="K61" s="18">
+      <c r="K61" s="15">
         <v>647</v>
       </c>
-      <c r="L61" s="18">
+      <c r="L61" s="15">
         <v>868</v>
       </c>
-      <c r="M61" s="18">
+      <c r="M61" s="15">
         <v>1072</v>
       </c>
-      <c r="N61" s="18">
+      <c r="N61" s="15">
         <v>1583</v>
       </c>
-      <c r="O61" s="18">
+      <c r="O61" s="15">
         <v>1985</v>
       </c>
-      <c r="P61" s="18">
+      <c r="P61" s="15">
         <v>3142</v>
       </c>
-      <c r="Q61" s="18">
+      <c r="Q61" s="15">
         <v>3006</v>
       </c>
-      <c r="R61" s="18">
+      <c r="R61" s="15">
         <v>3049</v>
       </c>
-      <c r="S61" s="18">
+      <c r="S61" s="15">
         <f>VLOOKUP(B61,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>3107</v>
       </c>
-      <c r="T61" s="30">
+      <c r="T61" s="26">
         <f>VLOOKUP(B61,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>3166</v>
       </c>
     </row>
-    <row r="62" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="16">
+    <row r="62" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="13">
         <v>0</v>
       </c>
-      <c r="C62" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" s="18" t="s">
+      <c r="C62" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="15">
         <v>2304</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="15">
         <v>2274</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="15">
         <v>2385</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="15">
         <v>2318</v>
       </c>
-      <c r="I62" s="18">
+      <c r="I62" s="15">
         <v>2005</v>
       </c>
-      <c r="J62" s="18">
+      <c r="J62" s="15">
         <v>2039</v>
       </c>
-      <c r="K62" s="18">
+      <c r="K62" s="15">
         <v>1966</v>
       </c>
-      <c r="L62" s="18">
+      <c r="L62" s="15">
         <v>2439</v>
       </c>
-      <c r="M62" s="18">
+      <c r="M62" s="15">
         <v>3016</v>
       </c>
-      <c r="N62" s="18">
+      <c r="N62" s="15">
         <v>4248</v>
       </c>
-      <c r="O62" s="18">
+      <c r="O62" s="15">
         <v>5322</v>
       </c>
-      <c r="P62" s="18">
+      <c r="P62" s="15">
         <v>9093</v>
       </c>
-      <c r="Q62" s="18">
+      <c r="Q62" s="15">
         <v>8404</v>
       </c>
-      <c r="R62" s="18">
+      <c r="R62" s="15">
         <v>8839</v>
       </c>
-      <c r="S62" s="18">
+      <c r="S62" s="15">
         <f>VLOOKUP(B62,[1]Rohdaten_Berechnung!$A$4:$H$55,7,FALSE)</f>
         <v>8547</v>
       </c>
-      <c r="T62" s="30">
+      <c r="T62" s="26">
         <f>VLOOKUP(B62,[1]Rohdaten_2020!$A$19:$I$70,8,FALSE)</f>
         <v>9004</v>
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
     </row>
     <row r="65" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="48"/>
-      <c r="L65" s="48"/>
-      <c r="M65" s="48"/>
-      <c r="N65" s="48"/>
-      <c r="O65" s="48"/>
-      <c r="P65" s="48"/>
-      <c r="Q65" s="48"/>
-      <c r="R65" s="48"/>
-      <c r="S65" s="48"/>
-      <c r="T65" s="48"/>
+      <c r="E65" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="44"/>
+      <c r="R65" s="44"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="44"/>
     </row>
     <row r="66" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="50"/>
-      <c r="L66" s="50"/>
-      <c r="M66" s="50"/>
-      <c r="N66" s="50"/>
-      <c r="O66" s="50"/>
-      <c r="P66" s="50"/>
-      <c r="Q66" s="50"/>
-      <c r="R66" s="50"/>
-      <c r="S66" s="50"/>
-      <c r="T66" s="50"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="46"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="46"/>
+      <c r="R66" s="46"/>
+      <c r="S66" s="46"/>
+      <c r="T66" s="46"/>
     </row>
     <row r="67" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="19">
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="16">
         <v>2005</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F67" s="17">
         <v>2006</v>
       </c>
-      <c r="G67" s="20">
+      <c r="G67" s="17">
         <v>2007</v>
       </c>
-      <c r="H67" s="20">
+      <c r="H67" s="17">
         <v>2008</v>
       </c>
-      <c r="I67" s="20">
+      <c r="I67" s="17">
         <v>2009</v>
       </c>
-      <c r="J67" s="20">
+      <c r="J67" s="17">
         <v>2010</v>
       </c>
-      <c r="K67" s="20">
+      <c r="K67" s="17">
         <v>2011</v>
       </c>
-      <c r="L67" s="20">
+      <c r="L67" s="17">
         <v>2012</v>
       </c>
-      <c r="M67" s="20">
+      <c r="M67" s="17">
         <v>2013</v>
       </c>
-      <c r="N67" s="20">
+      <c r="N67" s="17">
         <v>2014</v>
       </c>
-      <c r="O67" s="20">
+      <c r="O67" s="17">
         <v>2015</v>
       </c>
-      <c r="P67" s="21">
+      <c r="P67" s="18">
         <v>2016</v>
       </c>
-      <c r="Q67" s="21">
+      <c r="Q67" s="18">
         <v>2017</v>
       </c>
-      <c r="R67" s="21">
+      <c r="R67" s="18">
         <v>2018</v>
       </c>
-      <c r="S67" s="21">
+      <c r="S67" s="18">
         <v>2019</v>
       </c>
-      <c r="T67" s="31">
+      <c r="T67" s="27">
         <v>2020</v>
       </c>
     </row>
     <row r="68" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="45" t="s">
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="46"/>
-      <c r="N68" s="46"/>
-      <c r="O68" s="46"/>
-      <c r="P68" s="46"/>
-      <c r="Q68" s="46"/>
-      <c r="R68" s="46"/>
-      <c r="S68" s="46"/>
-      <c r="T68" s="46"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="42"/>
+      <c r="Q68" s="42"/>
+      <c r="R68" s="42"/>
+      <c r="S68" s="42"/>
+      <c r="T68" s="42"/>
     </row>
     <row r="69" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="13">
+      <c r="C69" s="47">
         <v>1</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="48">
         <v>2</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="48">
         <v>3</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="48">
         <v>4</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G69" s="47">
         <v>5</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H69" s="48">
         <v>6</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I69" s="48">
         <v>7</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J69" s="48">
         <v>8</v>
       </c>
-      <c r="K69" s="15">
+      <c r="K69" s="47">
         <v>9</v>
       </c>
-      <c r="L69" s="14">
+      <c r="L69" s="48">
         <v>10</v>
       </c>
-      <c r="M69" s="14">
+      <c r="M69" s="48">
         <v>11</v>
       </c>
-      <c r="N69" s="14">
+      <c r="N69" s="48">
         <v>12</v>
       </c>
-      <c r="O69" s="15">
+      <c r="O69" s="47">
         <v>13</v>
       </c>
-      <c r="P69" s="14">
+      <c r="P69" s="48">
         <v>14</v>
       </c>
-      <c r="Q69" s="14">
+      <c r="Q69" s="48">
         <v>15</v>
       </c>
-      <c r="R69" s="14">
+      <c r="R69" s="48">
         <v>16</v>
       </c>
-      <c r="S69" s="15">
+      <c r="S69" s="47">
         <v>17</v>
       </c>
-      <c r="T69" s="28">
+      <c r="T69" s="49">
         <v>18</v>
       </c>
     </row>
@@ -7425,59 +7393,59 @@
       <c r="B70">
         <v>101</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E70" s="22">
+      <c r="D70" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="19">
         <v>1968</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="19">
         <v>1999</v>
       </c>
-      <c r="G70" s="22">
+      <c r="G70" s="19">
         <v>2110</v>
       </c>
-      <c r="H70" s="22">
+      <c r="H70" s="19">
         <v>2060</v>
       </c>
-      <c r="I70" s="22">
+      <c r="I70" s="19">
         <v>2050</v>
       </c>
-      <c r="J70" s="22">
+      <c r="J70" s="19">
         <v>2152</v>
       </c>
-      <c r="K70" s="22">
+      <c r="K70" s="19">
         <v>2134</v>
       </c>
-      <c r="L70" s="22">
+      <c r="L70" s="19">
         <v>2171</v>
       </c>
-      <c r="M70" s="22">
+      <c r="M70" s="19">
         <v>2117</v>
       </c>
-      <c r="N70" s="22">
+      <c r="N70" s="19">
         <v>2160</v>
       </c>
-      <c r="O70" s="22">
+      <c r="O70" s="19">
         <v>2241</v>
       </c>
-      <c r="P70" s="22">
+      <c r="P70" s="19">
         <v>2345</v>
       </c>
-      <c r="Q70" s="22">
+      <c r="Q70" s="19">
         <v>2178</v>
       </c>
-      <c r="R70" s="22">
+      <c r="R70" s="19">
         <v>2236</v>
       </c>
-      <c r="S70" s="22">
+      <c r="S70" s="19">
         <f>VLOOKUP(B70,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>2192</v>
       </c>
-      <c r="T70" s="32">
+      <c r="T70" s="28">
         <f>VLOOKUP(B70,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>2036</v>
       </c>
@@ -7486,59 +7454,59 @@
       <c r="B71">
         <v>102</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E71" s="22">
+      <c r="D71" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E71" s="19">
         <v>825</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="19">
         <v>812</v>
       </c>
-      <c r="G71" s="22">
+      <c r="G71" s="19">
         <v>784</v>
       </c>
-      <c r="H71" s="22">
+      <c r="H71" s="19">
         <v>807</v>
       </c>
-      <c r="I71" s="22">
+      <c r="I71" s="19">
         <v>749</v>
       </c>
-      <c r="J71" s="22">
+      <c r="J71" s="19">
         <v>755</v>
       </c>
-      <c r="K71" s="22">
+      <c r="K71" s="19">
         <v>766</v>
       </c>
-      <c r="L71" s="22">
+      <c r="L71" s="19">
         <v>763</v>
       </c>
-      <c r="M71" s="22">
+      <c r="M71" s="19">
         <v>750</v>
       </c>
-      <c r="N71" s="22">
+      <c r="N71" s="19">
         <v>769</v>
       </c>
-      <c r="O71" s="22">
+      <c r="O71" s="19">
         <v>774</v>
       </c>
-      <c r="P71" s="22">
+      <c r="P71" s="19">
         <v>891</v>
       </c>
-      <c r="Q71" s="22">
+      <c r="Q71" s="19">
         <v>836</v>
       </c>
-      <c r="R71" s="22">
+      <c r="R71" s="19">
         <v>854</v>
       </c>
-      <c r="S71" s="22">
+      <c r="S71" s="19">
         <f>VLOOKUP(B71,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>835</v>
       </c>
-      <c r="T71" s="32">
+      <c r="T71" s="28">
         <f>VLOOKUP(B71,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>830</v>
       </c>
@@ -7547,59 +7515,59 @@
       <c r="B72">
         <v>103</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E72" s="22">
+      <c r="D72" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" s="19">
         <v>853</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="19">
         <v>893</v>
       </c>
-      <c r="G72" s="22">
+      <c r="G72" s="19">
         <v>903</v>
       </c>
-      <c r="H72" s="22">
+      <c r="H72" s="19">
         <v>894</v>
       </c>
-      <c r="I72" s="22">
+      <c r="I72" s="19">
         <v>971</v>
       </c>
-      <c r="J72" s="22">
+      <c r="J72" s="19">
         <v>948</v>
       </c>
-      <c r="K72" s="22">
+      <c r="K72" s="19">
         <v>951</v>
       </c>
-      <c r="L72" s="22">
+      <c r="L72" s="19">
         <v>1019</v>
       </c>
-      <c r="M72" s="22">
+      <c r="M72" s="19">
         <v>1029</v>
       </c>
-      <c r="N72" s="22">
+      <c r="N72" s="19">
         <v>1097</v>
       </c>
-      <c r="O72" s="22">
+      <c r="O72" s="19">
         <v>1117</v>
       </c>
-      <c r="P72" s="22">
+      <c r="P72" s="19">
         <v>1224</v>
       </c>
-      <c r="Q72" s="22">
+      <c r="Q72" s="19">
         <v>1121</v>
       </c>
-      <c r="R72" s="22">
+      <c r="R72" s="19">
         <v>1146</v>
       </c>
-      <c r="S72" s="22">
+      <c r="S72" s="19">
         <f>VLOOKUP(B72,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1110</v>
       </c>
-      <c r="T72" s="32">
+      <c r="T72" s="28">
         <f>VLOOKUP(B72,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1093</v>
       </c>
@@ -7608,59 +7576,59 @@
       <c r="B73">
         <v>151</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E73" s="22">
+      <c r="D73" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E73" s="19">
         <v>1537</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F73" s="19">
         <v>1463</v>
       </c>
-      <c r="G73" s="22">
+      <c r="G73" s="19">
         <v>1509</v>
       </c>
-      <c r="H73" s="22">
+      <c r="H73" s="19">
         <v>1479</v>
       </c>
-      <c r="I73" s="22">
+      <c r="I73" s="19">
         <v>1383</v>
       </c>
-      <c r="J73" s="22">
+      <c r="J73" s="19">
         <v>1385</v>
       </c>
-      <c r="K73" s="22">
+      <c r="K73" s="19">
         <v>1268</v>
       </c>
-      <c r="L73" s="22">
+      <c r="L73" s="19">
         <v>1424</v>
       </c>
-      <c r="M73" s="22">
+      <c r="M73" s="19">
         <v>1386</v>
       </c>
-      <c r="N73" s="22">
+      <c r="N73" s="19">
         <v>1483</v>
       </c>
-      <c r="O73" s="22">
+      <c r="O73" s="19">
         <v>1474</v>
       </c>
-      <c r="P73" s="22">
+      <c r="P73" s="19">
         <v>1718</v>
       </c>
-      <c r="Q73" s="22">
+      <c r="Q73" s="19">
         <v>1534</v>
       </c>
-      <c r="R73" s="22">
+      <c r="R73" s="19">
         <v>1638</v>
       </c>
-      <c r="S73" s="22">
+      <c r="S73" s="19">
         <f>VLOOKUP(B73,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1655</v>
       </c>
-      <c r="T73" s="32">
+      <c r="T73" s="28">
         <f>VLOOKUP(B73,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1610</v>
       </c>
@@ -7669,59 +7637,59 @@
       <c r="B74">
         <v>153</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E74" s="22">
+      <c r="D74" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="19">
         <v>940</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F74" s="19">
         <v>914</v>
       </c>
-      <c r="G74" s="22">
+      <c r="G74" s="19">
         <v>903</v>
       </c>
-      <c r="H74" s="22">
+      <c r="H74" s="19">
         <v>943</v>
       </c>
-      <c r="I74" s="22">
+      <c r="I74" s="19">
         <v>824</v>
       </c>
-      <c r="J74" s="22">
+      <c r="J74" s="19">
         <v>847</v>
       </c>
-      <c r="K74" s="22">
+      <c r="K74" s="19">
         <v>763</v>
       </c>
-      <c r="L74" s="22">
+      <c r="L74" s="19">
         <v>743</v>
       </c>
-      <c r="M74" s="22">
+      <c r="M74" s="19">
         <v>768</v>
       </c>
-      <c r="N74" s="22">
+      <c r="N74" s="19">
         <v>832</v>
       </c>
-      <c r="O74" s="22">
+      <c r="O74" s="19">
         <v>832</v>
       </c>
-      <c r="P74" s="22">
+      <c r="P74" s="19">
         <v>823</v>
       </c>
-      <c r="Q74" s="22">
+      <c r="Q74" s="19">
         <v>808</v>
       </c>
-      <c r="R74" s="22">
+      <c r="R74" s="19">
         <v>801</v>
       </c>
-      <c r="S74" s="22">
+      <c r="S74" s="19">
         <f>VLOOKUP(B74,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>796</v>
       </c>
-      <c r="T74" s="32">
+      <c r="T74" s="28">
         <f>VLOOKUP(B74,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>806</v>
       </c>
@@ -7730,59 +7698,59 @@
       <c r="B75">
         <v>154</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E75" s="22">
+      <c r="D75" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E75" s="19">
         <v>673</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F75" s="19">
         <v>685</v>
       </c>
-      <c r="G75" s="22">
+      <c r="G75" s="19">
         <v>712</v>
       </c>
-      <c r="H75" s="22">
+      <c r="H75" s="19">
         <v>646</v>
       </c>
-      <c r="I75" s="22">
+      <c r="I75" s="19">
         <v>586</v>
       </c>
-      <c r="J75" s="22">
+      <c r="J75" s="19">
         <v>652</v>
       </c>
-      <c r="K75" s="22">
+      <c r="K75" s="19">
         <v>546</v>
       </c>
-      <c r="L75" s="22">
+      <c r="L75" s="19">
         <v>560</v>
       </c>
-      <c r="M75" s="22">
+      <c r="M75" s="19">
         <v>652</v>
       </c>
-      <c r="N75" s="22">
+      <c r="N75" s="19">
         <v>656</v>
       </c>
-      <c r="O75" s="22">
+      <c r="O75" s="19">
         <v>684</v>
       </c>
-      <c r="P75" s="22">
+      <c r="P75" s="19">
         <v>700</v>
       </c>
-      <c r="Q75" s="22">
+      <c r="Q75" s="19">
         <v>745</v>
       </c>
-      <c r="R75" s="22">
+      <c r="R75" s="19">
         <v>731</v>
       </c>
-      <c r="S75" s="22">
+      <c r="S75" s="19">
         <f>VLOOKUP(B75,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>734</v>
       </c>
-      <c r="T75" s="32">
+      <c r="T75" s="28">
         <f>VLOOKUP(B75,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>786</v>
       </c>
@@ -7791,59 +7759,59 @@
       <c r="B76">
         <v>155</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E76" s="22">
+      <c r="D76" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76" s="19">
         <v>1037</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F76" s="19">
         <v>984</v>
       </c>
-      <c r="G76" s="22">
+      <c r="G76" s="19">
         <v>986</v>
       </c>
-      <c r="H76" s="22">
+      <c r="H76" s="19">
         <v>991</v>
       </c>
-      <c r="I76" s="22">
+      <c r="I76" s="19">
         <v>889</v>
       </c>
-      <c r="J76" s="22">
+      <c r="J76" s="19">
         <v>931</v>
       </c>
-      <c r="K76" s="22">
+      <c r="K76" s="19">
         <v>872</v>
       </c>
-      <c r="L76" s="22">
+      <c r="L76" s="19">
         <v>872</v>
       </c>
-      <c r="M76" s="22">
+      <c r="M76" s="19">
         <v>915</v>
       </c>
-      <c r="N76" s="22">
+      <c r="N76" s="19">
         <v>941</v>
       </c>
-      <c r="O76" s="22">
+      <c r="O76" s="19">
         <v>904</v>
       </c>
-      <c r="P76" s="22">
+      <c r="P76" s="19">
         <v>927</v>
       </c>
-      <c r="Q76" s="22">
+      <c r="Q76" s="19">
         <v>895</v>
       </c>
-      <c r="R76" s="22">
+      <c r="R76" s="19">
         <v>896</v>
       </c>
-      <c r="S76" s="22">
+      <c r="S76" s="19">
         <f>VLOOKUP(B76,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>920</v>
       </c>
-      <c r="T76" s="32">
+      <c r="T76" s="28">
         <f>VLOOKUP(B76,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>959</v>
       </c>
@@ -7852,59 +7820,59 @@
       <c r="B77">
         <v>157</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E77" s="22">
+      <c r="D77" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77" s="19">
         <v>1089</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F77" s="19">
         <v>1061</v>
       </c>
-      <c r="G77" s="22">
+      <c r="G77" s="19">
         <v>1013</v>
       </c>
-      <c r="H77" s="22">
+      <c r="H77" s="19">
         <v>1049</v>
       </c>
-      <c r="I77" s="22">
+      <c r="I77" s="19">
         <v>983</v>
       </c>
-      <c r="J77" s="22">
+      <c r="J77" s="19">
         <v>980</v>
       </c>
-      <c r="K77" s="22">
+      <c r="K77" s="19">
         <v>945</v>
       </c>
-      <c r="L77" s="22">
+      <c r="L77" s="19">
         <v>979</v>
       </c>
-      <c r="M77" s="22">
+      <c r="M77" s="19">
         <v>937</v>
       </c>
-      <c r="N77" s="22">
+      <c r="N77" s="19">
         <v>1026</v>
       </c>
-      <c r="O77" s="22">
+      <c r="O77" s="19">
         <v>974</v>
       </c>
-      <c r="P77" s="22">
+      <c r="P77" s="19">
         <v>1138</v>
       </c>
-      <c r="Q77" s="22">
+      <c r="Q77" s="19">
         <v>1116</v>
       </c>
-      <c r="R77" s="22">
+      <c r="R77" s="19">
         <v>1122</v>
       </c>
-      <c r="S77" s="22">
+      <c r="S77" s="19">
         <f>VLOOKUP(B77,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1119</v>
       </c>
-      <c r="T77" s="32">
+      <c r="T77" s="28">
         <f>VLOOKUP(B77,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1246</v>
       </c>
@@ -7913,59 +7881,59 @@
       <c r="B78">
         <v>158</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E78" s="22">
+      <c r="D78" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E78" s="19">
         <v>916</v>
       </c>
-      <c r="F78" s="22">
+      <c r="F78" s="19">
         <v>894</v>
       </c>
-      <c r="G78" s="22">
+      <c r="G78" s="19">
         <v>885</v>
       </c>
-      <c r="H78" s="22">
+      <c r="H78" s="19">
         <v>831</v>
       </c>
-      <c r="I78" s="22">
+      <c r="I78" s="19">
         <v>758</v>
       </c>
-      <c r="J78" s="22">
+      <c r="J78" s="19">
         <v>825</v>
       </c>
-      <c r="K78" s="22">
+      <c r="K78" s="19">
         <v>850</v>
       </c>
-      <c r="L78" s="22">
+      <c r="L78" s="19">
         <v>796</v>
       </c>
-      <c r="M78" s="22">
+      <c r="M78" s="19">
         <v>782</v>
       </c>
-      <c r="N78" s="22">
+      <c r="N78" s="19">
         <v>839</v>
       </c>
-      <c r="O78" s="22">
+      <c r="O78" s="19">
         <v>819</v>
       </c>
-      <c r="P78" s="22">
+      <c r="P78" s="19">
         <v>875</v>
       </c>
-      <c r="Q78" s="22">
+      <c r="Q78" s="19">
         <v>890</v>
       </c>
-      <c r="R78" s="22">
+      <c r="R78" s="19">
         <v>907</v>
       </c>
-      <c r="S78" s="22">
+      <c r="S78" s="19">
         <f>VLOOKUP(B78,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>914</v>
       </c>
-      <c r="T78" s="32">
+      <c r="T78" s="28">
         <f>VLOOKUP(B78,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>933</v>
       </c>
@@ -7974,120 +7942,120 @@
       <c r="B79">
         <v>159</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E79" s="22">
+      <c r="D79" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" s="19">
         <v>2531</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F79" s="19">
         <v>2487</v>
       </c>
-      <c r="G79" s="22">
+      <c r="G79" s="19">
         <v>2555</v>
       </c>
-      <c r="H79" s="22">
+      <c r="H79" s="19">
         <v>2380</v>
       </c>
-      <c r="I79" s="22">
+      <c r="I79" s="19">
         <v>2357</v>
       </c>
-      <c r="J79" s="22">
+      <c r="J79" s="19">
         <v>2303</v>
       </c>
-      <c r="K79" s="22">
+      <c r="K79" s="19">
         <v>2289</v>
       </c>
-      <c r="L79" s="22">
+      <c r="L79" s="19">
         <v>2236</v>
       </c>
-      <c r="M79" s="22">
+      <c r="M79" s="19">
         <v>2241</v>
       </c>
-      <c r="N79" s="22">
+      <c r="N79" s="19">
         <v>2440</v>
       </c>
-      <c r="O79" s="22">
+      <c r="O79" s="19">
         <v>2415</v>
       </c>
-      <c r="P79" s="22">
+      <c r="P79" s="19">
         <v>2650</v>
       </c>
-      <c r="Q79" s="22">
+      <c r="Q79" s="19">
         <v>2464</v>
       </c>
-      <c r="R79" s="22">
+      <c r="R79" s="19">
         <v>2525</v>
       </c>
-      <c r="S79" s="22">
+      <c r="S79" s="19">
         <f>VLOOKUP(B79,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>2348</v>
       </c>
-      <c r="T79" s="32">
+      <c r="T79" s="28">
         <f>VLOOKUP(B79,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>2472</v>
       </c>
     </row>
-    <row r="80" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>1</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C80" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E80" s="23">
+      <c r="D80" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E80" s="20">
         <v>12369</v>
       </c>
-      <c r="F80" s="23">
+      <c r="F80" s="20">
         <v>12192</v>
       </c>
-      <c r="G80" s="23">
+      <c r="G80" s="20">
         <v>12360</v>
       </c>
-      <c r="H80" s="23">
+      <c r="H80" s="20">
         <v>12080</v>
       </c>
-      <c r="I80" s="23">
+      <c r="I80" s="20">
         <v>11550</v>
       </c>
-      <c r="J80" s="23">
+      <c r="J80" s="20">
         <v>11778</v>
       </c>
-      <c r="K80" s="23">
+      <c r="K80" s="20">
         <v>11384</v>
       </c>
-      <c r="L80" s="23">
+      <c r="L80" s="20">
         <v>11563</v>
       </c>
-      <c r="M80" s="23">
+      <c r="M80" s="20">
         <v>11577</v>
       </c>
-      <c r="N80" s="23">
+      <c r="N80" s="20">
         <v>12243</v>
       </c>
-      <c r="O80" s="23">
+      <c r="O80" s="20">
         <v>12234</v>
       </c>
-      <c r="P80" s="23">
+      <c r="P80" s="20">
         <v>13291</v>
       </c>
-      <c r="Q80" s="23">
+      <c r="Q80" s="20">
         <v>12587</v>
       </c>
-      <c r="R80" s="23">
+      <c r="R80" s="20">
         <v>12856</v>
       </c>
-      <c r="S80" s="23">
+      <c r="S80" s="20">
         <f>VLOOKUP(B80,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>12623</v>
       </c>
-      <c r="T80" s="33">
+      <c r="T80" s="29">
         <f>VLOOKUP(B80,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>12771</v>
       </c>
@@ -8096,59 +8064,59 @@
       <c r="B81">
         <v>241</v>
       </c>
-      <c r="C81" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D81" s="22" t="s">
+      <c r="C81" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E81" s="22">
+      <c r="D81" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E81" s="19">
         <v>9082</v>
       </c>
-      <c r="F81" s="22">
+      <c r="F81" s="19">
         <v>9079</v>
       </c>
-      <c r="G81" s="22">
+      <c r="G81" s="19">
         <v>9328</v>
       </c>
-      <c r="H81" s="22">
+      <c r="H81" s="19">
         <v>9406</v>
       </c>
-      <c r="I81" s="22">
+      <c r="I81" s="19">
         <v>9130</v>
       </c>
-      <c r="J81" s="22">
+      <c r="J81" s="19">
         <v>9392</v>
       </c>
-      <c r="K81" s="22">
+      <c r="K81" s="19">
         <v>9302</v>
       </c>
-      <c r="L81" s="22">
+      <c r="L81" s="19">
         <v>9072</v>
       </c>
-      <c r="M81" s="22">
+      <c r="M81" s="19">
         <v>9427</v>
       </c>
-      <c r="N81" s="22">
+      <c r="N81" s="19">
         <v>9833</v>
       </c>
-      <c r="O81" s="22">
+      <c r="O81" s="19">
         <v>9645</v>
       </c>
-      <c r="P81" s="22">
+      <c r="P81" s="19">
         <v>10342</v>
       </c>
-      <c r="Q81" s="22">
+      <c r="Q81" s="19">
         <v>9855</v>
       </c>
-      <c r="R81" s="22">
+      <c r="R81" s="19">
         <v>9767</v>
       </c>
-      <c r="S81" s="22">
+      <c r="S81" s="19">
         <f>VLOOKUP(B81,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>9538</v>
       </c>
-      <c r="T81" s="32">
+      <c r="T81" s="28">
         <f>VLOOKUP(B81,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>9737</v>
       </c>
@@ -8157,59 +8125,59 @@
       <c r="B82">
         <v>241001</v>
       </c>
-      <c r="C82" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E82" s="22">
+      <c r="C82" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E82" s="19">
         <v>4519</v>
       </c>
-      <c r="F82" s="22">
+      <c r="F82" s="19">
         <v>4537</v>
       </c>
-      <c r="G82" s="22">
+      <c r="G82" s="19">
         <v>4755</v>
       </c>
-      <c r="H82" s="22">
+      <c r="H82" s="19">
         <v>4732</v>
       </c>
-      <c r="I82" s="22">
+      <c r="I82" s="19">
         <v>4682</v>
       </c>
-      <c r="J82" s="22">
+      <c r="J82" s="19">
         <v>4848</v>
       </c>
-      <c r="K82" s="22">
+      <c r="K82" s="19">
         <v>4793</v>
       </c>
-      <c r="L82" s="22">
+      <c r="L82" s="19">
         <v>4609</v>
       </c>
-      <c r="M82" s="22">
+      <c r="M82" s="19">
         <v>4855</v>
       </c>
-      <c r="N82" s="22">
+      <c r="N82" s="19">
         <v>5142</v>
       </c>
-      <c r="O82" s="22">
+      <c r="O82" s="19">
         <v>4976</v>
       </c>
-      <c r="P82" s="22">
+      <c r="P82" s="19">
         <v>5228</v>
       </c>
-      <c r="Q82" s="22">
+      <c r="Q82" s="19">
         <v>4860</v>
       </c>
-      <c r="R82" s="22">
+      <c r="R82" s="19">
         <v>4767</v>
       </c>
-      <c r="S82" s="22">
+      <c r="S82" s="19">
         <f>VLOOKUP(B82,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>4625</v>
       </c>
-      <c r="T82" s="32">
+      <c r="T82" s="28">
         <f>VLOOKUP(B82,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>4728</v>
       </c>
@@ -8218,59 +8186,59 @@
       <c r="B83">
         <v>241999</v>
       </c>
-      <c r="C83" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E83" s="22">
+      <c r="C83" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E83" s="19">
         <v>4563</v>
       </c>
-      <c r="F83" s="22">
+      <c r="F83" s="19">
         <v>4542</v>
       </c>
-      <c r="G83" s="22">
+      <c r="G83" s="19">
         <v>4573</v>
       </c>
-      <c r="H83" s="22">
+      <c r="H83" s="19">
         <v>4674</v>
       </c>
-      <c r="I83" s="22">
+      <c r="I83" s="19">
         <v>4448</v>
       </c>
-      <c r="J83" s="22">
+      <c r="J83" s="19">
         <v>4544</v>
       </c>
-      <c r="K83" s="22">
+      <c r="K83" s="19">
         <v>4509</v>
       </c>
-      <c r="L83" s="22">
+      <c r="L83" s="19">
         <v>4463</v>
       </c>
-      <c r="M83" s="22">
+      <c r="M83" s="19">
         <v>4572</v>
       </c>
-      <c r="N83" s="22">
+      <c r="N83" s="19">
         <v>4691</v>
       </c>
-      <c r="O83" s="22">
+      <c r="O83" s="19">
         <v>4669</v>
       </c>
-      <c r="P83" s="22">
+      <c r="P83" s="19">
         <v>5114</v>
       </c>
-      <c r="Q83" s="22">
+      <c r="Q83" s="19">
         <v>4995</v>
       </c>
-      <c r="R83" s="22">
+      <c r="R83" s="19">
         <v>5000</v>
       </c>
-      <c r="S83" s="22">
+      <c r="S83" s="19">
         <f>VLOOKUP(B83,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>4913</v>
       </c>
-      <c r="T83" s="32">
+      <c r="T83" s="28">
         <f>VLOOKUP(B83,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>5009</v>
       </c>
@@ -8279,59 +8247,59 @@
       <c r="B84">
         <v>251</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D84" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E84" s="22">
+      <c r="D84" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84" s="19">
         <v>1728</v>
       </c>
-      <c r="F84" s="22">
+      <c r="F84" s="19">
         <v>1630</v>
       </c>
-      <c r="G84" s="22">
+      <c r="G84" s="19">
         <v>1611</v>
       </c>
-      <c r="H84" s="22">
+      <c r="H84" s="19">
         <v>1637</v>
       </c>
-      <c r="I84" s="22">
+      <c r="I84" s="19">
         <v>1502</v>
       </c>
-      <c r="J84" s="22">
+      <c r="J84" s="19">
         <v>1554</v>
       </c>
-      <c r="K84" s="22">
+      <c r="K84" s="19">
         <v>1510</v>
       </c>
-      <c r="L84" s="22">
+      <c r="L84" s="19">
         <v>1471</v>
       </c>
-      <c r="M84" s="22">
+      <c r="M84" s="19">
         <v>1436</v>
       </c>
-      <c r="N84" s="22">
+      <c r="N84" s="19">
         <v>1579</v>
       </c>
-      <c r="O84" s="22">
+      <c r="O84" s="19">
         <v>1515</v>
       </c>
-      <c r="P84" s="22">
+      <c r="P84" s="19">
         <v>1734</v>
       </c>
-      <c r="Q84" s="22">
+      <c r="Q84" s="19">
         <v>1600</v>
       </c>
-      <c r="R84" s="22">
+      <c r="R84" s="19">
         <v>1620</v>
       </c>
-      <c r="S84" s="22">
+      <c r="S84" s="19">
         <f>VLOOKUP(B84,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1731</v>
       </c>
-      <c r="T84" s="32">
+      <c r="T84" s="28">
         <f>VLOOKUP(B84,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1705</v>
       </c>
@@ -8340,59 +8308,59 @@
       <c r="B85">
         <v>252</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E85" s="22">
+      <c r="D85" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E85" s="19">
         <v>1189</v>
       </c>
-      <c r="F85" s="22">
+      <c r="F85" s="19">
         <v>1111</v>
       </c>
-      <c r="G85" s="22">
+      <c r="G85" s="19">
         <v>1116</v>
       </c>
-      <c r="H85" s="22">
+      <c r="H85" s="19">
         <v>1120</v>
       </c>
-      <c r="I85" s="22">
+      <c r="I85" s="19">
         <v>1033</v>
       </c>
-      <c r="J85" s="22">
+      <c r="J85" s="19">
         <v>1010</v>
       </c>
-      <c r="K85" s="22">
+      <c r="K85" s="19">
         <v>1014</v>
       </c>
-      <c r="L85" s="22">
+      <c r="L85" s="19">
         <v>919</v>
       </c>
-      <c r="M85" s="22">
+      <c r="M85" s="19">
         <v>996</v>
       </c>
-      <c r="N85" s="22">
+      <c r="N85" s="19">
         <v>1006</v>
       </c>
-      <c r="O85" s="22">
+      <c r="O85" s="19">
         <v>1007</v>
       </c>
-      <c r="P85" s="22">
+      <c r="P85" s="19">
         <v>1109</v>
       </c>
-      <c r="Q85" s="22">
+      <c r="Q85" s="19">
         <v>1046</v>
       </c>
-      <c r="R85" s="22">
+      <c r="R85" s="19">
         <v>1044</v>
       </c>
-      <c r="S85" s="22">
+      <c r="S85" s="19">
         <f>VLOOKUP(B85,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1089</v>
       </c>
-      <c r="T85" s="32">
+      <c r="T85" s="28">
         <f>VLOOKUP(B85,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1080</v>
       </c>
@@ -8401,59 +8369,59 @@
       <c r="B86">
         <v>254</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D86" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E86" s="22">
+      <c r="D86" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E86" s="19">
         <v>2221</v>
       </c>
-      <c r="F86" s="22">
+      <c r="F86" s="19">
         <v>2059</v>
       </c>
-      <c r="G86" s="22">
+      <c r="G86" s="19">
         <v>2071</v>
       </c>
-      <c r="H86" s="22">
+      <c r="H86" s="19">
         <v>2074</v>
       </c>
-      <c r="I86" s="22">
+      <c r="I86" s="19">
         <v>1900</v>
       </c>
-      <c r="J86" s="22">
+      <c r="J86" s="19">
         <v>1946</v>
       </c>
-      <c r="K86" s="22">
+      <c r="K86" s="19">
         <v>1851</v>
       </c>
-      <c r="L86" s="22">
+      <c r="L86" s="19">
         <v>1870</v>
       </c>
-      <c r="M86" s="22">
+      <c r="M86" s="19">
         <v>1931</v>
       </c>
-      <c r="N86" s="22">
+      <c r="N86" s="19">
         <v>1970</v>
       </c>
-      <c r="O86" s="22">
+      <c r="O86" s="19">
         <v>2025</v>
       </c>
-      <c r="P86" s="22">
+      <c r="P86" s="19">
         <v>2004</v>
       </c>
-      <c r="Q86" s="22">
+      <c r="Q86" s="19">
         <v>1960</v>
       </c>
-      <c r="R86" s="22">
+      <c r="R86" s="19">
         <v>2112</v>
       </c>
-      <c r="S86" s="22">
+      <c r="S86" s="19">
         <f>VLOOKUP(B86,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>2077</v>
       </c>
-      <c r="T86" s="32">
+      <c r="T86" s="28">
         <f>VLOOKUP(B86,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>2048</v>
       </c>
@@ -8462,59 +8430,59 @@
       <c r="B87">
         <v>255</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E87" s="22">
+      <c r="D87" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E87" s="19">
         <v>548</v>
       </c>
-      <c r="F87" s="22">
+      <c r="F87" s="19">
         <v>521</v>
       </c>
-      <c r="G87" s="22">
+      <c r="G87" s="19">
         <v>491</v>
       </c>
-      <c r="H87" s="22">
+      <c r="H87" s="19">
         <v>498</v>
       </c>
-      <c r="I87" s="22">
+      <c r="I87" s="19">
         <v>523</v>
       </c>
-      <c r="J87" s="22">
+      <c r="J87" s="19">
         <v>506</v>
       </c>
-      <c r="K87" s="22">
+      <c r="K87" s="19">
         <v>436</v>
       </c>
-      <c r="L87" s="22">
+      <c r="L87" s="19">
         <v>466</v>
       </c>
-      <c r="M87" s="22">
+      <c r="M87" s="19">
         <v>474</v>
       </c>
-      <c r="N87" s="22">
+      <c r="N87" s="19">
         <v>444</v>
       </c>
-      <c r="O87" s="22">
+      <c r="O87" s="19">
         <v>458</v>
       </c>
-      <c r="P87" s="22">
+      <c r="P87" s="19">
         <v>513</v>
       </c>
-      <c r="Q87" s="22">
+      <c r="Q87" s="19">
         <v>478</v>
       </c>
-      <c r="R87" s="22">
+      <c r="R87" s="19">
         <v>548</v>
       </c>
-      <c r="S87" s="22">
+      <c r="S87" s="19">
         <f>VLOOKUP(B87,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>448</v>
       </c>
-      <c r="T87" s="32">
+      <c r="T87" s="28">
         <f>VLOOKUP(B87,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>542</v>
       </c>
@@ -8523,59 +8491,59 @@
       <c r="B88">
         <v>256</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D88" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E88" s="22">
+      <c r="D88" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E88" s="19">
         <v>1035</v>
       </c>
-      <c r="F88" s="22">
+      <c r="F88" s="19">
         <v>982</v>
       </c>
-      <c r="G88" s="22">
+      <c r="G88" s="19">
         <v>979</v>
       </c>
-      <c r="H88" s="22">
+      <c r="H88" s="19">
         <v>959</v>
       </c>
-      <c r="I88" s="22">
+      <c r="I88" s="19">
         <v>900</v>
       </c>
-      <c r="J88" s="22">
+      <c r="J88" s="19">
         <v>949</v>
       </c>
-      <c r="K88" s="22">
+      <c r="K88" s="19">
         <v>919</v>
       </c>
-      <c r="L88" s="22">
+      <c r="L88" s="19">
         <v>835</v>
       </c>
-      <c r="M88" s="22">
+      <c r="M88" s="19">
         <v>908</v>
       </c>
-      <c r="N88" s="22">
+      <c r="N88" s="19">
         <v>859</v>
       </c>
-      <c r="O88" s="22">
+      <c r="O88" s="19">
         <v>912</v>
       </c>
-      <c r="P88" s="22">
+      <c r="P88" s="19">
         <v>949</v>
       </c>
-      <c r="Q88" s="22">
+      <c r="Q88" s="19">
         <v>923</v>
       </c>
-      <c r="R88" s="22">
+      <c r="R88" s="19">
         <v>914</v>
       </c>
-      <c r="S88" s="22">
+      <c r="S88" s="19">
         <f>VLOOKUP(B88,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>923</v>
       </c>
-      <c r="T88" s="32">
+      <c r="T88" s="28">
         <f>VLOOKUP(B88,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>991</v>
       </c>
@@ -8584,120 +8552,120 @@
       <c r="B89">
         <v>257</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D89" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E89" s="22">
+      <c r="D89" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E89" s="19">
         <v>1187</v>
       </c>
-      <c r="F89" s="22">
+      <c r="F89" s="19">
         <v>1276</v>
       </c>
-      <c r="G89" s="22">
+      <c r="G89" s="19">
         <v>1152</v>
       </c>
-      <c r="H89" s="22">
+      <c r="H89" s="19">
         <v>1121</v>
       </c>
-      <c r="I89" s="22">
+      <c r="I89" s="19">
         <v>1100</v>
       </c>
-      <c r="J89" s="22">
+      <c r="J89" s="19">
         <v>1109</v>
       </c>
-      <c r="K89" s="22">
+      <c r="K89" s="19">
         <v>1053</v>
       </c>
-      <c r="L89" s="22">
+      <c r="L89" s="19">
         <v>1027</v>
       </c>
-      <c r="M89" s="22">
+      <c r="M89" s="19">
         <v>1048</v>
       </c>
-      <c r="N89" s="22">
+      <c r="N89" s="19">
         <v>1056</v>
       </c>
-      <c r="O89" s="22">
+      <c r="O89" s="19">
         <v>1060</v>
       </c>
-      <c r="P89" s="22">
+      <c r="P89" s="19">
         <v>1191</v>
       </c>
-      <c r="Q89" s="22">
+      <c r="Q89" s="19">
         <v>1082</v>
       </c>
-      <c r="R89" s="22">
+      <c r="R89" s="19">
         <v>1117</v>
       </c>
-      <c r="S89" s="22">
+      <c r="S89" s="19">
         <f>VLOOKUP(B89,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1114</v>
       </c>
-      <c r="T89" s="32">
+      <c r="T89" s="28">
         <f>VLOOKUP(B89,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1143</v>
       </c>
     </row>
-    <row r="90" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>2</v>
       </c>
-      <c r="C90" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E90" s="23">
+      <c r="C90" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E90" s="20">
         <v>16990</v>
       </c>
-      <c r="F90" s="23">
+      <c r="F90" s="20">
         <v>16658</v>
       </c>
-      <c r="G90" s="23">
+      <c r="G90" s="20">
         <v>16748</v>
       </c>
-      <c r="H90" s="23">
+      <c r="H90" s="20">
         <v>16815</v>
       </c>
-      <c r="I90" s="23">
+      <c r="I90" s="20">
         <v>16088</v>
       </c>
-      <c r="J90" s="23">
+      <c r="J90" s="20">
         <v>16466</v>
       </c>
-      <c r="K90" s="23">
+      <c r="K90" s="20">
         <v>16085</v>
       </c>
-      <c r="L90" s="23">
+      <c r="L90" s="20">
         <v>15660</v>
       </c>
-      <c r="M90" s="23">
+      <c r="M90" s="20">
         <v>16220</v>
       </c>
-      <c r="N90" s="23">
+      <c r="N90" s="20">
         <v>16747</v>
       </c>
-      <c r="O90" s="23">
+      <c r="O90" s="20">
         <v>16622</v>
       </c>
-      <c r="P90" s="23">
+      <c r="P90" s="20">
         <v>17842</v>
       </c>
-      <c r="Q90" s="23">
+      <c r="Q90" s="20">
         <v>16944</v>
       </c>
-      <c r="R90" s="23">
+      <c r="R90" s="20">
         <v>17122</v>
       </c>
-      <c r="S90" s="23">
+      <c r="S90" s="20">
         <f>VLOOKUP(B90,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>16920</v>
       </c>
-      <c r="T90" s="33">
+      <c r="T90" s="29">
         <f>VLOOKUP(B90,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>17246</v>
       </c>
@@ -8706,59 +8674,59 @@
       <c r="B91">
         <v>351</v>
       </c>
-      <c r="C91" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D91" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E91" s="22">
+      <c r="C91" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E91" s="19">
         <v>1602</v>
       </c>
-      <c r="F91" s="22">
+      <c r="F91" s="19">
         <v>1467</v>
       </c>
-      <c r="G91" s="22">
+      <c r="G91" s="19">
         <v>1438</v>
       </c>
-      <c r="H91" s="22">
+      <c r="H91" s="19">
         <v>1422</v>
       </c>
-      <c r="I91" s="22">
+      <c r="I91" s="19">
         <v>1399</v>
       </c>
-      <c r="J91" s="22">
+      <c r="J91" s="19">
         <v>1370</v>
       </c>
-      <c r="K91" s="22">
+      <c r="K91" s="19">
         <v>1355</v>
       </c>
-      <c r="L91" s="22">
+      <c r="L91" s="19">
         <v>1296</v>
       </c>
-      <c r="M91" s="22">
+      <c r="M91" s="19">
         <v>1313</v>
       </c>
-      <c r="N91" s="22">
+      <c r="N91" s="19">
         <v>1444</v>
       </c>
-      <c r="O91" s="22">
+      <c r="O91" s="19">
         <v>1420</v>
       </c>
-      <c r="P91" s="22">
+      <c r="P91" s="19">
         <v>1458</v>
       </c>
-      <c r="Q91" s="22">
+      <c r="Q91" s="19">
         <v>1431</v>
       </c>
-      <c r="R91" s="22">
+      <c r="R91" s="19">
         <v>1422</v>
       </c>
-      <c r="S91" s="22">
+      <c r="S91" s="19">
         <f>VLOOKUP(B91,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1483</v>
       </c>
-      <c r="T91" s="32">
+      <c r="T91" s="28">
         <f>VLOOKUP(B91,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1416</v>
       </c>
@@ -8767,59 +8735,59 @@
       <c r="B92">
         <v>352</v>
       </c>
-      <c r="C92" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E92" s="22">
+      <c r="C92" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E92" s="19">
         <v>1438</v>
       </c>
-      <c r="F92" s="22">
+      <c r="F92" s="19">
         <v>1435</v>
       </c>
-      <c r="G92" s="22">
+      <c r="G92" s="19">
         <v>1457</v>
       </c>
-      <c r="H92" s="22">
+      <c r="H92" s="19">
         <v>1514</v>
       </c>
-      <c r="I92" s="22">
+      <c r="I92" s="19">
         <v>1424</v>
       </c>
-      <c r="J92" s="22">
+      <c r="J92" s="19">
         <v>1352</v>
       </c>
-      <c r="K92" s="22">
+      <c r="K92" s="19">
         <v>1358</v>
       </c>
-      <c r="L92" s="22">
+      <c r="L92" s="19">
         <v>1331</v>
       </c>
-      <c r="M92" s="22">
+      <c r="M92" s="19">
         <v>1430</v>
       </c>
-      <c r="N92" s="22">
+      <c r="N92" s="19">
         <v>1352</v>
       </c>
-      <c r="O92" s="22">
+      <c r="O92" s="19">
         <v>1384</v>
       </c>
-      <c r="P92" s="22">
+      <c r="P92" s="19">
         <v>1464</v>
       </c>
-      <c r="Q92" s="22">
+      <c r="Q92" s="19">
         <v>1495</v>
       </c>
-      <c r="R92" s="22">
+      <c r="R92" s="19">
         <v>1554</v>
       </c>
-      <c r="S92" s="22">
+      <c r="S92" s="19">
         <f>VLOOKUP(B92,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1390</v>
       </c>
-      <c r="T92" s="32">
+      <c r="T92" s="28">
         <f>VLOOKUP(B92,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1584</v>
       </c>
@@ -8828,59 +8796,59 @@
       <c r="B93">
         <v>353</v>
       </c>
-      <c r="C93" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E93" s="22">
+      <c r="C93" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E93" s="19">
         <v>1990</v>
       </c>
-      <c r="F93" s="22">
+      <c r="F93" s="19">
         <v>1843</v>
       </c>
-      <c r="G93" s="22">
+      <c r="G93" s="19">
         <v>1955</v>
       </c>
-      <c r="H93" s="22">
+      <c r="H93" s="19">
         <v>1952</v>
       </c>
-      <c r="I93" s="22">
+      <c r="I93" s="19">
         <v>1809</v>
       </c>
-      <c r="J93" s="22">
+      <c r="J93" s="19">
         <v>1802</v>
       </c>
-      <c r="K93" s="22">
+      <c r="K93" s="19">
         <v>1864</v>
       </c>
-      <c r="L93" s="22">
+      <c r="L93" s="19">
         <v>1850</v>
       </c>
-      <c r="M93" s="22">
+      <c r="M93" s="19">
         <v>1944</v>
       </c>
-      <c r="N93" s="22">
+      <c r="N93" s="19">
         <v>1974</v>
       </c>
-      <c r="O93" s="22">
+      <c r="O93" s="19">
         <v>2070</v>
       </c>
-      <c r="P93" s="22">
+      <c r="P93" s="19">
         <v>2151</v>
       </c>
-      <c r="Q93" s="22">
+      <c r="Q93" s="19">
         <v>2135</v>
       </c>
-      <c r="R93" s="22">
+      <c r="R93" s="19">
         <v>2144</v>
       </c>
-      <c r="S93" s="22">
+      <c r="S93" s="19">
         <f>VLOOKUP(B93,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>2094</v>
       </c>
-      <c r="T93" s="32">
+      <c r="T93" s="28">
         <f>VLOOKUP(B93,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>2003</v>
       </c>
@@ -8889,59 +8857,59 @@
       <c r="B94">
         <v>354</v>
       </c>
-      <c r="C94" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D94" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E94" s="22">
+      <c r="C94" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E94" s="19">
         <v>415</v>
       </c>
-      <c r="F94" s="22">
+      <c r="F94" s="19">
         <v>351</v>
       </c>
-      <c r="G94" s="22">
+      <c r="G94" s="19">
         <v>337</v>
       </c>
-      <c r="H94" s="22">
+      <c r="H94" s="19">
         <v>300</v>
       </c>
-      <c r="I94" s="22">
+      <c r="I94" s="19">
         <v>305</v>
       </c>
-      <c r="J94" s="22">
+      <c r="J94" s="19">
         <v>321</v>
       </c>
-      <c r="K94" s="22">
+      <c r="K94" s="19">
         <v>286</v>
       </c>
-      <c r="L94" s="22">
+      <c r="L94" s="19">
         <v>310</v>
       </c>
-      <c r="M94" s="22">
+      <c r="M94" s="19">
         <v>305</v>
       </c>
-      <c r="N94" s="22">
+      <c r="N94" s="19">
         <v>326</v>
       </c>
-      <c r="O94" s="22">
+      <c r="O94" s="19">
         <v>291</v>
       </c>
-      <c r="P94" s="22">
+      <c r="P94" s="19">
         <v>297</v>
       </c>
-      <c r="Q94" s="22">
+      <c r="Q94" s="19">
         <v>318</v>
       </c>
-      <c r="R94" s="22">
+      <c r="R94" s="19">
         <v>314</v>
       </c>
-      <c r="S94" s="22">
+      <c r="S94" s="19">
         <f>VLOOKUP(B94,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>328</v>
       </c>
-      <c r="T94" s="32">
+      <c r="T94" s="28">
         <f>VLOOKUP(B94,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>300</v>
       </c>
@@ -8950,59 +8918,59 @@
       <c r="B95">
         <v>355</v>
       </c>
-      <c r="C95" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D95" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E95" s="22">
+      <c r="C95" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E95" s="19">
         <v>1445</v>
       </c>
-      <c r="F95" s="22">
+      <c r="F95" s="19">
         <v>1496</v>
       </c>
-      <c r="G95" s="22">
+      <c r="G95" s="19">
         <v>1479</v>
       </c>
-      <c r="H95" s="22">
+      <c r="H95" s="19">
         <v>1452</v>
       </c>
-      <c r="I95" s="22">
+      <c r="I95" s="19">
         <v>1467</v>
       </c>
-      <c r="J95" s="22">
+      <c r="J95" s="19">
         <v>1489</v>
       </c>
-      <c r="K95" s="22">
+      <c r="K95" s="19">
         <v>1411</v>
       </c>
-      <c r="L95" s="22">
+      <c r="L95" s="19">
         <v>1398</v>
       </c>
-      <c r="M95" s="22">
+      <c r="M95" s="19">
         <v>1537</v>
       </c>
-      <c r="N95" s="22">
+      <c r="N95" s="19">
         <v>1577</v>
       </c>
-      <c r="O95" s="22">
+      <c r="O95" s="19">
         <v>1481</v>
       </c>
-      <c r="P95" s="22">
+      <c r="P95" s="19">
         <v>1558</v>
       </c>
-      <c r="Q95" s="22">
+      <c r="Q95" s="19">
         <v>1521</v>
       </c>
-      <c r="R95" s="22">
+      <c r="R95" s="19">
         <v>1522</v>
       </c>
-      <c r="S95" s="22">
+      <c r="S95" s="19">
         <f>VLOOKUP(B95,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1510</v>
       </c>
-      <c r="T95" s="32">
+      <c r="T95" s="28">
         <f>VLOOKUP(B95,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1519</v>
       </c>
@@ -9011,59 +8979,59 @@
       <c r="B96">
         <v>356</v>
       </c>
-      <c r="C96" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E96" s="22">
+      <c r="C96" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E96" s="19">
         <v>798</v>
       </c>
-      <c r="F96" s="22">
+      <c r="F96" s="19">
         <v>832</v>
       </c>
-      <c r="G96" s="22">
+      <c r="G96" s="19">
         <v>824</v>
       </c>
-      <c r="H96" s="22">
+      <c r="H96" s="19">
         <v>772</v>
       </c>
-      <c r="I96" s="22">
+      <c r="I96" s="19">
         <v>779</v>
       </c>
-      <c r="J96" s="22">
+      <c r="J96" s="19">
         <v>777</v>
       </c>
-      <c r="K96" s="22">
+      <c r="K96" s="19">
         <v>793</v>
       </c>
-      <c r="L96" s="22">
+      <c r="L96" s="19">
         <v>721</v>
       </c>
-      <c r="M96" s="22">
+      <c r="M96" s="19">
         <v>753</v>
       </c>
-      <c r="N96" s="22">
+      <c r="N96" s="19">
         <v>805</v>
       </c>
-      <c r="O96" s="22">
+      <c r="O96" s="19">
         <v>808</v>
       </c>
-      <c r="P96" s="22">
+      <c r="P96" s="19">
         <v>863</v>
       </c>
-      <c r="Q96" s="22">
+      <c r="Q96" s="19">
         <v>884</v>
       </c>
-      <c r="R96" s="22">
+      <c r="R96" s="19">
         <v>883</v>
       </c>
-      <c r="S96" s="22">
+      <c r="S96" s="19">
         <f>VLOOKUP(B96,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>908</v>
       </c>
-      <c r="T96" s="32">
+      <c r="T96" s="28">
         <f>VLOOKUP(B96,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>877</v>
       </c>
@@ -9072,59 +9040,59 @@
       <c r="B97">
         <v>357</v>
       </c>
-      <c r="C97" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D97" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E97" s="22">
+      <c r="C97" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E97" s="19">
         <v>1424</v>
       </c>
-      <c r="F97" s="22">
+      <c r="F97" s="19">
         <v>1418</v>
       </c>
-      <c r="G97" s="22">
+      <c r="G97" s="19">
         <v>1418</v>
       </c>
-      <c r="H97" s="22">
+      <c r="H97" s="19">
         <v>1332</v>
       </c>
-      <c r="I97" s="22">
+      <c r="I97" s="19">
         <v>1318</v>
       </c>
-      <c r="J97" s="22">
+      <c r="J97" s="19">
         <v>1317</v>
       </c>
-      <c r="K97" s="22">
+      <c r="K97" s="19">
         <v>1191</v>
       </c>
-      <c r="L97" s="22">
+      <c r="L97" s="19">
         <v>1191</v>
       </c>
-      <c r="M97" s="22">
+      <c r="M97" s="19">
         <v>1168</v>
       </c>
-      <c r="N97" s="22">
+      <c r="N97" s="19">
         <v>1260</v>
       </c>
-      <c r="O97" s="22">
+      <c r="O97" s="19">
         <v>1253</v>
       </c>
-      <c r="P97" s="22">
+      <c r="P97" s="19">
         <v>1291</v>
       </c>
-      <c r="Q97" s="22">
+      <c r="Q97" s="19">
         <v>1307</v>
       </c>
-      <c r="R97" s="22">
+      <c r="R97" s="19">
         <v>1376</v>
       </c>
-      <c r="S97" s="22">
+      <c r="S97" s="19">
         <f>VLOOKUP(B97,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1370</v>
       </c>
-      <c r="T97" s="32">
+      <c r="T97" s="28">
         <f>VLOOKUP(B97,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1369</v>
       </c>
@@ -9133,59 +9101,59 @@
       <c r="B98">
         <v>358</v>
       </c>
-      <c r="C98" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D98" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E98" s="22">
+      <c r="C98" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E98" s="19">
         <v>1175</v>
       </c>
-      <c r="F98" s="22">
+      <c r="F98" s="19">
         <v>1178</v>
       </c>
-      <c r="G98" s="22">
+      <c r="G98" s="19">
         <v>1120</v>
       </c>
-      <c r="H98" s="22">
+      <c r="H98" s="19">
         <v>1094</v>
       </c>
-      <c r="I98" s="22">
+      <c r="I98" s="19">
         <v>1086</v>
       </c>
-      <c r="J98" s="22">
+      <c r="J98" s="19">
         <v>1134</v>
       </c>
-      <c r="K98" s="22">
+      <c r="K98" s="19">
         <v>1017</v>
       </c>
-      <c r="L98" s="22">
+      <c r="L98" s="19">
         <v>995</v>
       </c>
-      <c r="M98" s="22">
+      <c r="M98" s="19">
         <v>1016</v>
       </c>
-      <c r="N98" s="22">
+      <c r="N98" s="19">
         <v>991</v>
       </c>
-      <c r="O98" s="22">
+      <c r="O98" s="19">
         <v>1058</v>
       </c>
-      <c r="P98" s="22">
+      <c r="P98" s="19">
         <v>1032</v>
       </c>
-      <c r="Q98" s="22">
+      <c r="Q98" s="19">
         <v>1056</v>
       </c>
-      <c r="R98" s="22">
+      <c r="R98" s="19">
         <v>1091</v>
       </c>
-      <c r="S98" s="22">
+      <c r="S98" s="19">
         <f>VLOOKUP(B98,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1101</v>
       </c>
-      <c r="T98" s="32">
+      <c r="T98" s="28">
         <f>VLOOKUP(B98,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1120</v>
       </c>
@@ -9194,59 +9162,59 @@
       <c r="B99">
         <v>359</v>
       </c>
-      <c r="C99" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E99" s="22">
+      <c r="C99" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E99" s="19">
         <v>1633</v>
       </c>
-      <c r="F99" s="22">
+      <c r="F99" s="19">
         <v>1672</v>
       </c>
-      <c r="G99" s="22">
+      <c r="G99" s="19">
         <v>1622</v>
       </c>
-      <c r="H99" s="22">
+      <c r="H99" s="19">
         <v>1635</v>
       </c>
-      <c r="I99" s="22">
+      <c r="I99" s="19">
         <v>1592</v>
       </c>
-      <c r="J99" s="22">
+      <c r="J99" s="19">
         <v>1698</v>
       </c>
-      <c r="K99" s="22">
+      <c r="K99" s="19">
         <v>1572</v>
       </c>
-      <c r="L99" s="22">
+      <c r="L99" s="19">
         <v>1514</v>
       </c>
-      <c r="M99" s="22">
+      <c r="M99" s="19">
         <v>1623</v>
       </c>
-      <c r="N99" s="22">
+      <c r="N99" s="19">
         <v>1573</v>
       </c>
-      <c r="O99" s="22">
+      <c r="O99" s="19">
         <v>1635</v>
       </c>
-      <c r="P99" s="22">
+      <c r="P99" s="19">
         <v>1741</v>
       </c>
-      <c r="Q99" s="22">
+      <c r="Q99" s="19">
         <v>1702</v>
       </c>
-      <c r="R99" s="22">
+      <c r="R99" s="19">
         <v>1704</v>
       </c>
-      <c r="S99" s="22">
+      <c r="S99" s="19">
         <f>VLOOKUP(B99,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1716</v>
       </c>
-      <c r="T99" s="32">
+      <c r="T99" s="28">
         <f>VLOOKUP(B99,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1779</v>
       </c>
@@ -9255,59 +9223,59 @@
       <c r="B100">
         <v>360</v>
       </c>
-      <c r="C100" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D100" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E100" s="22">
+      <c r="C100" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E100" s="19">
         <v>713</v>
       </c>
-      <c r="F100" s="22">
+      <c r="F100" s="19">
         <v>727</v>
       </c>
-      <c r="G100" s="22">
+      <c r="G100" s="19">
         <v>685</v>
       </c>
-      <c r="H100" s="22">
+      <c r="H100" s="19">
         <v>649</v>
       </c>
-      <c r="I100" s="22">
+      <c r="I100" s="19">
         <v>632</v>
       </c>
-      <c r="J100" s="22">
+      <c r="J100" s="19">
         <v>647</v>
       </c>
-      <c r="K100" s="22">
+      <c r="K100" s="19">
         <v>602</v>
       </c>
-      <c r="L100" s="22">
+      <c r="L100" s="19">
         <v>611</v>
       </c>
-      <c r="M100" s="22">
+      <c r="M100" s="19">
         <v>610</v>
       </c>
-      <c r="N100" s="22">
+      <c r="N100" s="19">
         <v>629</v>
       </c>
-      <c r="O100" s="22">
+      <c r="O100" s="19">
         <v>591</v>
       </c>
-      <c r="P100" s="22">
+      <c r="P100" s="19">
         <v>623</v>
       </c>
-      <c r="Q100" s="22">
+      <c r="Q100" s="19">
         <v>652</v>
       </c>
-      <c r="R100" s="22">
+      <c r="R100" s="19">
         <v>633</v>
       </c>
-      <c r="S100" s="22">
+      <c r="S100" s="19">
         <f>VLOOKUP(B100,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>671</v>
       </c>
-      <c r="T100" s="32">
+      <c r="T100" s="28">
         <f>VLOOKUP(B100,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>651</v>
       </c>
@@ -9316,120 +9284,120 @@
       <c r="B101">
         <v>361</v>
       </c>
-      <c r="C101" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D101" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E101" s="22">
+      <c r="C101" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E101" s="19">
         <v>1113</v>
       </c>
-      <c r="F101" s="22">
+      <c r="F101" s="19">
         <v>1083</v>
       </c>
-      <c r="G101" s="22">
+      <c r="G101" s="19">
         <v>1102</v>
       </c>
-      <c r="H101" s="22">
+      <c r="H101" s="19">
         <v>1076</v>
       </c>
-      <c r="I101" s="22">
+      <c r="I101" s="19">
         <v>1046</v>
       </c>
-      <c r="J101" s="22">
+      <c r="J101" s="19">
         <v>1099</v>
       </c>
-      <c r="K101" s="22">
+      <c r="K101" s="19">
         <v>1002</v>
       </c>
-      <c r="L101" s="22">
+      <c r="L101" s="19">
         <v>1062</v>
       </c>
-      <c r="M101" s="22">
+      <c r="M101" s="19">
         <v>1074</v>
       </c>
-      <c r="N101" s="22">
+      <c r="N101" s="19">
         <v>1166</v>
       </c>
-      <c r="O101" s="22">
+      <c r="O101" s="19">
         <v>1169</v>
       </c>
-      <c r="P101" s="22">
+      <c r="P101" s="19">
         <v>1171</v>
       </c>
-      <c r="Q101" s="22">
+      <c r="Q101" s="19">
         <v>1266</v>
       </c>
-      <c r="R101" s="22">
+      <c r="R101" s="19">
         <v>1172</v>
       </c>
-      <c r="S101" s="22">
+      <c r="S101" s="19">
         <f>VLOOKUP(B101,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1156</v>
       </c>
-      <c r="T101" s="32">
+      <c r="T101" s="28">
         <f>VLOOKUP(B101,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1163</v>
       </c>
     </row>
-    <row r="102" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>3</v>
       </c>
-      <c r="C102" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D102" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E102" s="23">
+      <c r="C102" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E102" s="20">
         <v>13746</v>
       </c>
-      <c r="F102" s="23">
+      <c r="F102" s="20">
         <v>13502</v>
       </c>
-      <c r="G102" s="23">
+      <c r="G102" s="20">
         <v>13437</v>
       </c>
-      <c r="H102" s="23">
+      <c r="H102" s="20">
         <v>13198</v>
       </c>
-      <c r="I102" s="23">
+      <c r="I102" s="20">
         <v>12857</v>
       </c>
-      <c r="J102" s="23">
+      <c r="J102" s="20">
         <v>13006</v>
       </c>
-      <c r="K102" s="23">
+      <c r="K102" s="20">
         <v>12451</v>
       </c>
-      <c r="L102" s="23">
+      <c r="L102" s="20">
         <v>12279</v>
       </c>
-      <c r="M102" s="23">
+      <c r="M102" s="20">
         <v>12773</v>
       </c>
-      <c r="N102" s="23">
+      <c r="N102" s="20">
         <v>13097</v>
       </c>
-      <c r="O102" s="23">
+      <c r="O102" s="20">
         <v>13160</v>
       </c>
-      <c r="P102" s="23">
+      <c r="P102" s="20">
         <v>13649</v>
       </c>
-      <c r="Q102" s="23">
+      <c r="Q102" s="20">
         <v>13767</v>
       </c>
-      <c r="R102" s="23">
+      <c r="R102" s="20">
         <v>13815</v>
       </c>
-      <c r="S102" s="23">
+      <c r="S102" s="20">
         <f>VLOOKUP(B102,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>13727</v>
       </c>
-      <c r="T102" s="33">
+      <c r="T102" s="29">
         <f>VLOOKUP(B102,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>13781</v>
       </c>
@@ -9438,59 +9406,59 @@
       <c r="B103">
         <v>401</v>
       </c>
-      <c r="C103" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D103" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E103" s="22">
+      <c r="C103" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E103" s="19">
         <v>604</v>
       </c>
-      <c r="F103" s="22">
+      <c r="F103" s="19">
         <v>623</v>
       </c>
-      <c r="G103" s="22">
+      <c r="G103" s="19">
         <v>574</v>
       </c>
-      <c r="H103" s="22">
+      <c r="H103" s="19">
         <v>583</v>
       </c>
-      <c r="I103" s="22">
+      <c r="I103" s="19">
         <v>520</v>
       </c>
-      <c r="J103" s="22">
+      <c r="J103" s="19">
         <v>565</v>
       </c>
-      <c r="K103" s="22">
+      <c r="K103" s="19">
         <v>584</v>
       </c>
-      <c r="L103" s="22">
+      <c r="L103" s="19">
         <v>559</v>
       </c>
-      <c r="M103" s="22">
+      <c r="M103" s="19">
         <v>550</v>
       </c>
-      <c r="N103" s="22">
+      <c r="N103" s="19">
         <v>643</v>
       </c>
-      <c r="O103" s="22">
+      <c r="O103" s="19">
         <v>632</v>
       </c>
-      <c r="P103" s="22">
+      <c r="P103" s="19">
         <v>673</v>
       </c>
-      <c r="Q103" s="22">
+      <c r="Q103" s="19">
         <v>656</v>
       </c>
-      <c r="R103" s="22">
+      <c r="R103" s="19">
         <v>641</v>
       </c>
-      <c r="S103" s="22">
+      <c r="S103" s="19">
         <f>VLOOKUP(B103,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>663</v>
       </c>
-      <c r="T103" s="32">
+      <c r="T103" s="28">
         <f>VLOOKUP(B103,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>559</v>
       </c>
@@ -9499,59 +9467,59 @@
       <c r="B104">
         <v>402</v>
       </c>
-      <c r="C104" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D104" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E104" s="22">
+      <c r="C104" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E104" s="19">
         <v>390</v>
       </c>
-      <c r="F104" s="22">
+      <c r="F104" s="19">
         <v>430</v>
       </c>
-      <c r="G104" s="22">
+      <c r="G104" s="19">
         <v>398</v>
       </c>
-      <c r="H104" s="22">
+      <c r="H104" s="19">
         <v>394</v>
       </c>
-      <c r="I104" s="22">
+      <c r="I104" s="19">
         <v>419</v>
       </c>
-      <c r="J104" s="22">
+      <c r="J104" s="19">
         <v>458</v>
       </c>
-      <c r="K104" s="22">
+      <c r="K104" s="19">
         <v>402</v>
       </c>
-      <c r="L104" s="22">
+      <c r="L104" s="19">
         <v>408</v>
       </c>
-      <c r="M104" s="22">
+      <c r="M104" s="19">
         <v>396</v>
       </c>
-      <c r="N104" s="22">
+      <c r="N104" s="19">
         <v>420</v>
       </c>
-      <c r="O104" s="22">
+      <c r="O104" s="19">
         <v>399</v>
       </c>
-      <c r="P104" s="22">
+      <c r="P104" s="19">
         <v>438</v>
       </c>
-      <c r="Q104" s="22">
+      <c r="Q104" s="19">
         <v>413</v>
       </c>
-      <c r="R104" s="22">
+      <c r="R104" s="19">
         <v>389</v>
       </c>
-      <c r="S104" s="22">
+      <c r="S104" s="19">
         <f>VLOOKUP(B104,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>391</v>
       </c>
-      <c r="T104" s="32">
+      <c r="T104" s="28">
         <f>VLOOKUP(B104,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>360</v>
       </c>
@@ -9560,59 +9528,59 @@
       <c r="B105">
         <v>403</v>
       </c>
-      <c r="C105" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D105" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E105" s="22">
+      <c r="C105" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E105" s="19">
         <v>1311</v>
       </c>
-      <c r="F105" s="22">
+      <c r="F105" s="19">
         <v>1318</v>
       </c>
-      <c r="G105" s="22">
+      <c r="G105" s="19">
         <v>1264</v>
       </c>
-      <c r="H105" s="22">
+      <c r="H105" s="19">
         <v>1298</v>
       </c>
-      <c r="I105" s="22">
+      <c r="I105" s="19">
         <v>1322</v>
       </c>
-      <c r="J105" s="22">
+      <c r="J105" s="19">
         <v>1289</v>
       </c>
-      <c r="K105" s="22">
+      <c r="K105" s="19">
         <v>1299</v>
       </c>
-      <c r="L105" s="22">
+      <c r="L105" s="19">
         <v>1282</v>
       </c>
-      <c r="M105" s="22">
+      <c r="M105" s="19">
         <v>1349</v>
       </c>
-      <c r="N105" s="22">
+      <c r="N105" s="19">
         <v>1394</v>
       </c>
-      <c r="O105" s="22">
+      <c r="O105" s="19">
         <v>1372</v>
       </c>
-      <c r="P105" s="22">
+      <c r="P105" s="19">
         <v>1409</v>
       </c>
-      <c r="Q105" s="22">
+      <c r="Q105" s="19">
         <v>1423</v>
       </c>
-      <c r="R105" s="22">
+      <c r="R105" s="19">
         <v>1409</v>
       </c>
-      <c r="S105" s="22">
+      <c r="S105" s="19">
         <f>VLOOKUP(B105,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1373</v>
       </c>
-      <c r="T105" s="32">
+      <c r="T105" s="28">
         <f>VLOOKUP(B105,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1400</v>
       </c>
@@ -9621,59 +9589,59 @@
       <c r="B106">
         <v>404</v>
       </c>
-      <c r="C106" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D106" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E106" s="22">
+      <c r="C106" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E106" s="19">
         <v>1319</v>
       </c>
-      <c r="F106" s="22">
+      <c r="F106" s="19">
         <v>1274</v>
       </c>
-      <c r="G106" s="22">
+      <c r="G106" s="19">
         <v>1389</v>
       </c>
-      <c r="H106" s="22">
+      <c r="H106" s="19">
         <v>1398</v>
       </c>
-      <c r="I106" s="22">
+      <c r="I106" s="19">
         <v>1314</v>
       </c>
-      <c r="J106" s="22">
+      <c r="J106" s="19">
         <v>1296</v>
       </c>
-      <c r="K106" s="22">
+      <c r="K106" s="19">
         <v>1342</v>
       </c>
-      <c r="L106" s="22">
+      <c r="L106" s="19">
         <v>1342</v>
       </c>
-      <c r="M106" s="22">
+      <c r="M106" s="19">
         <v>1356</v>
       </c>
-      <c r="N106" s="22">
+      <c r="N106" s="19">
         <v>1339</v>
       </c>
-      <c r="O106" s="22">
+      <c r="O106" s="19">
         <v>1347</v>
       </c>
-      <c r="P106" s="22">
+      <c r="P106" s="19">
         <v>1452</v>
       </c>
-      <c r="Q106" s="22">
+      <c r="Q106" s="19">
         <v>1433</v>
       </c>
-      <c r="R106" s="22">
+      <c r="R106" s="19">
         <v>1426</v>
       </c>
-      <c r="S106" s="22">
+      <c r="S106" s="19">
         <f>VLOOKUP(B106,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1372</v>
       </c>
-      <c r="T106" s="32">
+      <c r="T106" s="28">
         <f>VLOOKUP(B106,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1282</v>
       </c>
@@ -9682,59 +9650,59 @@
       <c r="B107">
         <v>405</v>
       </c>
-      <c r="C107" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D107" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E107" s="22">
+      <c r="C107" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E107" s="19">
         <v>563</v>
       </c>
-      <c r="F107" s="22">
+      <c r="F107" s="19">
         <v>583</v>
       </c>
-      <c r="G107" s="22">
+      <c r="G107" s="19">
         <v>570</v>
       </c>
-      <c r="H107" s="22">
+      <c r="H107" s="19">
         <v>574</v>
       </c>
-      <c r="I107" s="22">
+      <c r="I107" s="19">
         <v>535</v>
       </c>
-      <c r="J107" s="22">
+      <c r="J107" s="19">
         <v>594</v>
       </c>
-      <c r="K107" s="22">
+      <c r="K107" s="19">
         <v>534</v>
       </c>
-      <c r="L107" s="22">
+      <c r="L107" s="19">
         <v>551</v>
       </c>
-      <c r="M107" s="22">
+      <c r="M107" s="19">
         <v>527</v>
       </c>
-      <c r="N107" s="22">
+      <c r="N107" s="19">
         <v>527</v>
       </c>
-      <c r="O107" s="22">
+      <c r="O107" s="19">
         <v>510</v>
       </c>
-      <c r="P107" s="22">
+      <c r="P107" s="19">
         <v>580</v>
       </c>
-      <c r="Q107" s="22">
+      <c r="Q107" s="19">
         <v>574</v>
       </c>
-      <c r="R107" s="22">
+      <c r="R107" s="19">
         <v>527</v>
       </c>
-      <c r="S107" s="22">
+      <c r="S107" s="19">
         <f>VLOOKUP(B107,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>536</v>
       </c>
-      <c r="T107" s="32">
+      <c r="T107" s="28">
         <f>VLOOKUP(B107,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>533</v>
       </c>
@@ -9743,59 +9711,59 @@
       <c r="B108">
         <v>451</v>
       </c>
-      <c r="C108" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D108" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E108" s="22">
+      <c r="C108" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E108" s="19">
         <v>984</v>
       </c>
-      <c r="F108" s="22">
+      <c r="F108" s="19">
         <v>949</v>
       </c>
-      <c r="G108" s="22">
+      <c r="G108" s="19">
         <v>872</v>
       </c>
-      <c r="H108" s="22">
+      <c r="H108" s="19">
         <v>901</v>
       </c>
-      <c r="I108" s="22">
+      <c r="I108" s="19">
         <v>831</v>
       </c>
-      <c r="J108" s="22">
+      <c r="J108" s="19">
         <v>918</v>
       </c>
-      <c r="K108" s="22">
+      <c r="K108" s="19">
         <v>884</v>
       </c>
-      <c r="L108" s="22">
+      <c r="L108" s="19">
         <v>893</v>
       </c>
-      <c r="M108" s="22">
+      <c r="M108" s="19">
         <v>852</v>
       </c>
-      <c r="N108" s="22">
+      <c r="N108" s="19">
         <v>945</v>
       </c>
-      <c r="O108" s="22">
+      <c r="O108" s="19">
         <v>944</v>
       </c>
-      <c r="P108" s="22">
+      <c r="P108" s="19">
         <v>1029</v>
       </c>
-      <c r="Q108" s="22">
+      <c r="Q108" s="19">
         <v>960</v>
       </c>
-      <c r="R108" s="22">
+      <c r="R108" s="19">
         <v>992</v>
       </c>
-      <c r="S108" s="22">
+      <c r="S108" s="19">
         <f>VLOOKUP(B108,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1071</v>
       </c>
-      <c r="T108" s="32">
+      <c r="T108" s="28">
         <f>VLOOKUP(B108,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1007</v>
       </c>
@@ -9804,59 +9772,59 @@
       <c r="B109">
         <v>452</v>
       </c>
-      <c r="C109" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D109" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E109" s="22">
+      <c r="C109" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E109" s="19">
         <v>1616</v>
       </c>
-      <c r="F109" s="22">
+      <c r="F109" s="19">
         <v>1522</v>
       </c>
-      <c r="G109" s="22">
+      <c r="G109" s="19">
         <v>1579</v>
       </c>
-      <c r="H109" s="22">
+      <c r="H109" s="19">
         <v>1520</v>
       </c>
-      <c r="I109" s="22">
+      <c r="I109" s="19">
         <v>1440</v>
       </c>
-      <c r="J109" s="22">
+      <c r="J109" s="19">
         <v>1477</v>
       </c>
-      <c r="K109" s="22">
+      <c r="K109" s="19">
         <v>1422</v>
       </c>
-      <c r="L109" s="22">
+      <c r="L109" s="19">
         <v>1420</v>
       </c>
-      <c r="M109" s="22">
+      <c r="M109" s="19">
         <v>1414</v>
       </c>
-      <c r="N109" s="22">
+      <c r="N109" s="19">
         <v>1413</v>
       </c>
-      <c r="O109" s="22">
+      <c r="O109" s="19">
         <v>1433</v>
       </c>
-      <c r="P109" s="22">
+      <c r="P109" s="19">
         <v>1513</v>
       </c>
-      <c r="Q109" s="22">
+      <c r="Q109" s="19">
         <v>1552</v>
       </c>
-      <c r="R109" s="22">
+      <c r="R109" s="19">
         <v>1498</v>
       </c>
-      <c r="S109" s="22">
+      <c r="S109" s="19">
         <f>VLOOKUP(B109,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1524</v>
       </c>
-      <c r="T109" s="32">
+      <c r="T109" s="28">
         <f>VLOOKUP(B109,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1471</v>
       </c>
@@ -9865,59 +9833,59 @@
       <c r="B110">
         <v>453</v>
       </c>
-      <c r="C110" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D110" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E110" s="22">
+      <c r="C110" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E110" s="19">
         <v>1683</v>
       </c>
-      <c r="F110" s="22">
+      <c r="F110" s="19">
         <v>1663</v>
       </c>
-      <c r="G110" s="22">
+      <c r="G110" s="19">
         <v>1603</v>
       </c>
-      <c r="H110" s="22">
+      <c r="H110" s="19">
         <v>1518</v>
       </c>
-      <c r="I110" s="22">
+      <c r="I110" s="19">
         <v>1549</v>
       </c>
-      <c r="J110" s="22">
+      <c r="J110" s="19">
         <v>1528</v>
       </c>
-      <c r="K110" s="22">
+      <c r="K110" s="19">
         <v>1524</v>
       </c>
-      <c r="L110" s="22">
+      <c r="L110" s="19">
         <v>1481</v>
       </c>
-      <c r="M110" s="22">
+      <c r="M110" s="19">
         <v>1473</v>
       </c>
-      <c r="N110" s="22">
+      <c r="N110" s="19">
         <v>1538</v>
       </c>
-      <c r="O110" s="22">
+      <c r="O110" s="19">
         <v>1563</v>
       </c>
-      <c r="P110" s="22">
+      <c r="P110" s="19">
         <v>1631</v>
       </c>
-      <c r="Q110" s="22">
+      <c r="Q110" s="19">
         <v>1664</v>
       </c>
-      <c r="R110" s="22">
+      <c r="R110" s="19">
         <v>1604</v>
       </c>
-      <c r="S110" s="22">
+      <c r="S110" s="19">
         <f>VLOOKUP(B110,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1683</v>
       </c>
-      <c r="T110" s="32">
+      <c r="T110" s="28">
         <f>VLOOKUP(B110,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1752</v>
       </c>
@@ -9926,59 +9894,59 @@
       <c r="B111">
         <v>454</v>
       </c>
-      <c r="C111" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D111" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E111" s="22">
+      <c r="C111" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E111" s="19">
         <v>2937</v>
       </c>
-      <c r="F111" s="22">
+      <c r="F111" s="19">
         <v>2769</v>
       </c>
-      <c r="G111" s="22">
+      <c r="G111" s="19">
         <v>2756</v>
       </c>
-      <c r="H111" s="22">
+      <c r="H111" s="19">
         <v>2707</v>
       </c>
-      <c r="I111" s="22">
+      <c r="I111" s="19">
         <v>2636</v>
       </c>
-      <c r="J111" s="22">
+      <c r="J111" s="19">
         <v>2562</v>
       </c>
-      <c r="K111" s="22">
+      <c r="K111" s="19">
         <v>2566</v>
       </c>
-      <c r="L111" s="22">
+      <c r="L111" s="19">
         <v>2542</v>
       </c>
-      <c r="M111" s="22">
+      <c r="M111" s="19">
         <v>2464</v>
       </c>
-      <c r="N111" s="22">
+      <c r="N111" s="19">
         <v>2679</v>
       </c>
-      <c r="O111" s="22">
+      <c r="O111" s="19">
         <v>2598</v>
       </c>
-      <c r="P111" s="22">
+      <c r="P111" s="19">
         <v>2882</v>
       </c>
-      <c r="Q111" s="22">
+      <c r="Q111" s="19">
         <v>2828</v>
       </c>
-      <c r="R111" s="22">
+      <c r="R111" s="19">
         <v>2791</v>
       </c>
-      <c r="S111" s="22">
+      <c r="S111" s="19">
         <f>VLOOKUP(B111,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>2834</v>
       </c>
-      <c r="T111" s="32">
+      <c r="T111" s="28">
         <f>VLOOKUP(B111,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>2902</v>
       </c>
@@ -9987,59 +9955,59 @@
       <c r="B112">
         <v>455</v>
       </c>
-      <c r="C112" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D112" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E112" s="22">
+      <c r="C112" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E112" s="19">
         <v>687</v>
       </c>
-      <c r="F112" s="22">
+      <c r="F112" s="19">
         <v>687</v>
       </c>
-      <c r="G112" s="22">
+      <c r="G112" s="19">
         <v>730</v>
       </c>
-      <c r="H112" s="22">
+      <c r="H112" s="19">
         <v>689</v>
       </c>
-      <c r="I112" s="22">
+      <c r="I112" s="19">
         <v>682</v>
       </c>
-      <c r="J112" s="22">
+      <c r="J112" s="19">
         <v>680</v>
       </c>
-      <c r="K112" s="22">
+      <c r="K112" s="19">
         <v>648</v>
       </c>
-      <c r="L112" s="22">
+      <c r="L112" s="19">
         <v>659</v>
       </c>
-      <c r="M112" s="22">
+      <c r="M112" s="19">
         <v>630</v>
       </c>
-      <c r="N112" s="22">
+      <c r="N112" s="19">
         <v>663</v>
       </c>
-      <c r="O112" s="22">
+      <c r="O112" s="19">
         <v>704</v>
       </c>
-      <c r="P112" s="22">
+      <c r="P112" s="19">
         <v>727</v>
       </c>
-      <c r="Q112" s="22">
+      <c r="Q112" s="19">
         <v>707</v>
       </c>
-      <c r="R112" s="22">
+      <c r="R112" s="19">
         <v>693</v>
       </c>
-      <c r="S112" s="22">
+      <c r="S112" s="19">
         <f>VLOOKUP(B112,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>754</v>
       </c>
-      <c r="T112" s="32">
+      <c r="T112" s="28">
         <f>VLOOKUP(B112,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>765</v>
       </c>
@@ -10048,59 +10016,59 @@
       <c r="B113">
         <v>456</v>
       </c>
-      <c r="C113" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D113" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E113" s="22">
+      <c r="C113" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D113" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E113" s="19">
         <v>1154</v>
       </c>
-      <c r="F113" s="22">
+      <c r="F113" s="19">
         <v>1136</v>
       </c>
-      <c r="G113" s="22">
+      <c r="G113" s="19">
         <v>1027</v>
       </c>
-      <c r="H113" s="22">
+      <c r="H113" s="19">
         <v>1121</v>
       </c>
-      <c r="I113" s="22">
+      <c r="I113" s="19">
         <v>1075</v>
       </c>
-      <c r="J113" s="22">
+      <c r="J113" s="19">
         <v>1096</v>
       </c>
-      <c r="K113" s="22">
+      <c r="K113" s="19">
         <v>1007</v>
       </c>
-      <c r="L113" s="22">
+      <c r="L113" s="19">
         <v>1009</v>
       </c>
-      <c r="M113" s="22">
+      <c r="M113" s="19">
         <v>1079</v>
       </c>
-      <c r="N113" s="22">
+      <c r="N113" s="19">
         <v>1118</v>
       </c>
-      <c r="O113" s="22">
+      <c r="O113" s="19">
         <v>1086</v>
       </c>
-      <c r="P113" s="22">
+      <c r="P113" s="19">
         <v>1044</v>
       </c>
-      <c r="Q113" s="22">
+      <c r="Q113" s="19">
         <v>1146</v>
       </c>
-      <c r="R113" s="22">
+      <c r="R113" s="19">
         <v>1149</v>
       </c>
-      <c r="S113" s="22">
+      <c r="S113" s="19">
         <f>VLOOKUP(B113,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1166</v>
       </c>
-      <c r="T113" s="32">
+      <c r="T113" s="28">
         <f>VLOOKUP(B113,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1158</v>
       </c>
@@ -10109,59 +10077,59 @@
       <c r="B114">
         <v>457</v>
       </c>
-      <c r="C114" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E114" s="22">
+      <c r="C114" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D114" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E114" s="19">
         <v>1444</v>
       </c>
-      <c r="F114" s="22">
+      <c r="F114" s="19">
         <v>1350</v>
       </c>
-      <c r="G114" s="22">
+      <c r="G114" s="19">
         <v>1364</v>
       </c>
-      <c r="H114" s="22">
+      <c r="H114" s="19">
         <v>1314</v>
       </c>
-      <c r="I114" s="22">
+      <c r="I114" s="19">
         <v>1301</v>
       </c>
-      <c r="J114" s="22">
+      <c r="J114" s="19">
         <v>1316</v>
       </c>
-      <c r="K114" s="22">
+      <c r="K114" s="19">
         <v>1222</v>
       </c>
-      <c r="L114" s="22">
+      <c r="L114" s="19">
         <v>1323</v>
       </c>
-      <c r="M114" s="22">
+      <c r="M114" s="19">
         <v>1312</v>
       </c>
-      <c r="N114" s="22">
+      <c r="N114" s="19">
         <v>1295</v>
       </c>
-      <c r="O114" s="22">
+      <c r="O114" s="19">
         <v>1301</v>
       </c>
-      <c r="P114" s="22">
+      <c r="P114" s="19">
         <v>1453</v>
       </c>
-      <c r="Q114" s="22">
+      <c r="Q114" s="19">
         <v>1419</v>
       </c>
-      <c r="R114" s="22">
+      <c r="R114" s="19">
         <v>1464</v>
       </c>
-      <c r="S114" s="22">
+      <c r="S114" s="19">
         <f>VLOOKUP(B114,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1392</v>
       </c>
-      <c r="T114" s="32">
+      <c r="T114" s="28">
         <f>VLOOKUP(B114,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1431</v>
       </c>
@@ -10170,59 +10138,59 @@
       <c r="B115">
         <v>458</v>
       </c>
-      <c r="C115" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D115" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E115" s="22">
+      <c r="C115" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E115" s="19">
         <v>1060</v>
       </c>
-      <c r="F115" s="22">
+      <c r="F115" s="19">
         <v>987</v>
       </c>
-      <c r="G115" s="22">
+      <c r="G115" s="19">
         <v>931</v>
       </c>
-      <c r="H115" s="22">
+      <c r="H115" s="19">
         <v>967</v>
       </c>
-      <c r="I115" s="22">
+      <c r="I115" s="19">
         <v>983</v>
       </c>
-      <c r="J115" s="22">
+      <c r="J115" s="19">
         <v>920</v>
       </c>
-      <c r="K115" s="22">
+      <c r="K115" s="19">
         <v>885</v>
       </c>
-      <c r="L115" s="22">
+      <c r="L115" s="19">
         <v>909</v>
       </c>
-      <c r="M115" s="22">
+      <c r="M115" s="19">
         <v>885</v>
       </c>
-      <c r="N115" s="22">
+      <c r="N115" s="19">
         <v>886</v>
       </c>
-      <c r="O115" s="22">
+      <c r="O115" s="19">
         <v>890</v>
       </c>
-      <c r="P115" s="22">
+      <c r="P115" s="19">
         <v>1058</v>
       </c>
-      <c r="Q115" s="22">
+      <c r="Q115" s="19">
         <v>1040</v>
       </c>
-      <c r="R115" s="22">
+      <c r="R115" s="19">
         <v>1024</v>
       </c>
-      <c r="S115" s="22">
+      <c r="S115" s="19">
         <f>VLOOKUP(B115,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1034</v>
       </c>
-      <c r="T115" s="32">
+      <c r="T115" s="28">
         <f>VLOOKUP(B115,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1030</v>
       </c>
@@ -10231,59 +10199,59 @@
       <c r="B116">
         <v>459</v>
       </c>
-      <c r="C116" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D116" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E116" s="22">
+      <c r="C116" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E116" s="19">
         <v>3274</v>
       </c>
-      <c r="F116" s="22">
+      <c r="F116" s="19">
         <v>3073</v>
       </c>
-      <c r="G116" s="22">
+      <c r="G116" s="19">
         <v>2931</v>
       </c>
-      <c r="H116" s="22">
+      <c r="H116" s="19">
         <v>3118</v>
       </c>
-      <c r="I116" s="22">
+      <c r="I116" s="19">
         <v>2811</v>
       </c>
-      <c r="J116" s="22">
+      <c r="J116" s="19">
         <v>2892</v>
       </c>
-      <c r="K116" s="22">
+      <c r="K116" s="19">
         <v>2879</v>
       </c>
-      <c r="L116" s="22">
+      <c r="L116" s="19">
         <v>2848</v>
       </c>
-      <c r="M116" s="22">
+      <c r="M116" s="19">
         <v>2793</v>
       </c>
-      <c r="N116" s="22">
+      <c r="N116" s="19">
         <v>2934</v>
       </c>
-      <c r="O116" s="22">
+      <c r="O116" s="19">
         <v>2906</v>
       </c>
-      <c r="P116" s="22">
+      <c r="P116" s="19">
         <v>3038</v>
       </c>
-      <c r="Q116" s="22">
+      <c r="Q116" s="19">
         <v>3094</v>
       </c>
-      <c r="R116" s="22">
+      <c r="R116" s="19">
         <v>3050</v>
       </c>
-      <c r="S116" s="22">
+      <c r="S116" s="19">
         <f>VLOOKUP(B116,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>3197</v>
       </c>
-      <c r="T116" s="32">
+      <c r="T116" s="28">
         <f>VLOOKUP(B116,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>3140</v>
       </c>
@@ -10292,59 +10260,59 @@
       <c r="B117">
         <v>460</v>
       </c>
-      <c r="C117" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D117" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E117" s="22">
+      <c r="C117" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E117" s="19">
         <v>1344</v>
       </c>
-      <c r="F117" s="22">
+      <c r="F117" s="19">
         <v>1185</v>
       </c>
-      <c r="G117" s="22">
+      <c r="G117" s="19">
         <v>1281</v>
       </c>
-      <c r="H117" s="22">
+      <c r="H117" s="19">
         <v>1266</v>
       </c>
-      <c r="I117" s="22">
+      <c r="I117" s="19">
         <v>1255</v>
       </c>
-      <c r="J117" s="22">
+      <c r="J117" s="19">
         <v>1237</v>
       </c>
-      <c r="K117" s="22">
+      <c r="K117" s="19">
         <v>1208</v>
       </c>
-      <c r="L117" s="22">
+      <c r="L117" s="19">
         <v>1290</v>
       </c>
-      <c r="M117" s="22">
+      <c r="M117" s="19">
         <v>1232</v>
       </c>
-      <c r="N117" s="22">
+      <c r="N117" s="19">
         <v>1251</v>
       </c>
-      <c r="O117" s="22">
+      <c r="O117" s="19">
         <v>1151</v>
       </c>
-      <c r="P117" s="22">
+      <c r="P117" s="19">
         <v>1313</v>
       </c>
-      <c r="Q117" s="22">
+      <c r="Q117" s="19">
         <v>1308</v>
       </c>
-      <c r="R117" s="22">
+      <c r="R117" s="19">
         <v>1317</v>
       </c>
-      <c r="S117" s="22">
+      <c r="S117" s="19">
         <f>VLOOKUP(B117,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>1403</v>
       </c>
-      <c r="T117" s="32">
+      <c r="T117" s="28">
         <f>VLOOKUP(B117,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>1380</v>
       </c>
@@ -10353,59 +10321,59 @@
       <c r="B118">
         <v>461</v>
       </c>
-      <c r="C118" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D118" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E118" s="22">
+      <c r="C118" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E118" s="19">
         <v>740</v>
       </c>
-      <c r="F118" s="22">
+      <c r="F118" s="19">
         <v>685</v>
       </c>
-      <c r="G118" s="22">
+      <c r="G118" s="19">
         <v>685</v>
       </c>
-      <c r="H118" s="22">
+      <c r="H118" s="19">
         <v>673</v>
       </c>
-      <c r="I118" s="22">
+      <c r="I118" s="19">
         <v>628</v>
       </c>
-      <c r="J118" s="22">
+      <c r="J118" s="19">
         <v>600</v>
       </c>
-      <c r="K118" s="22">
+      <c r="K118" s="19">
         <v>588</v>
       </c>
-      <c r="L118" s="22">
+      <c r="L118" s="19">
         <v>596</v>
       </c>
-      <c r="M118" s="22">
+      <c r="M118" s="19">
         <v>594</v>
       </c>
-      <c r="N118" s="22">
+      <c r="N118" s="19">
         <v>612</v>
       </c>
-      <c r="O118" s="22">
+      <c r="O118" s="19">
         <v>572</v>
       </c>
-      <c r="P118" s="22">
+      <c r="P118" s="19">
         <v>704</v>
       </c>
-      <c r="Q118" s="22">
+      <c r="Q118" s="19">
         <v>681</v>
       </c>
-      <c r="R118" s="22">
+      <c r="R118" s="19">
         <v>649</v>
       </c>
-      <c r="S118" s="22">
+      <c r="S118" s="19">
         <f>VLOOKUP(B118,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>669</v>
       </c>
-      <c r="T118" s="32">
+      <c r="T118" s="28">
         <f>VLOOKUP(B118,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>692</v>
       </c>
@@ -10414,237 +10382,238 @@
       <c r="B119">
         <v>462</v>
       </c>
-      <c r="C119" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D119" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E119" s="22">
+      <c r="C119" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E119" s="19">
         <v>474</v>
       </c>
-      <c r="F119" s="22">
+      <c r="F119" s="19">
         <v>467</v>
       </c>
-      <c r="G119" s="22">
+      <c r="G119" s="19">
         <v>442</v>
       </c>
-      <c r="H119" s="22">
+      <c r="H119" s="19">
         <v>435</v>
       </c>
-      <c r="I119" s="22">
+      <c r="I119" s="19">
         <v>427</v>
       </c>
-      <c r="J119" s="22">
+      <c r="J119" s="19">
         <v>413</v>
       </c>
-      <c r="K119" s="22">
+      <c r="K119" s="19">
         <v>400</v>
       </c>
-      <c r="L119" s="22">
+      <c r="L119" s="19">
         <v>425</v>
       </c>
-      <c r="M119" s="22">
+      <c r="M119" s="19">
         <v>387</v>
       </c>
-      <c r="N119" s="22">
+      <c r="N119" s="19">
         <v>414</v>
       </c>
-      <c r="O119" s="22">
+      <c r="O119" s="19">
         <v>437</v>
       </c>
-      <c r="P119" s="22">
+      <c r="P119" s="19">
         <v>396</v>
       </c>
-      <c r="Q119" s="22">
+      <c r="Q119" s="19">
         <v>420</v>
       </c>
-      <c r="R119" s="22">
+      <c r="R119" s="19">
         <v>397</v>
       </c>
-      <c r="S119" s="22">
+      <c r="S119" s="19">
         <f>VLOOKUP(B119,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>407</v>
       </c>
-      <c r="T119" s="32">
+      <c r="T119" s="28">
         <f>VLOOKUP(B119,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>455</v>
       </c>
     </row>
-    <row r="120" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>4</v>
       </c>
-      <c r="C120" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D120" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E120" s="23">
+      <c r="C120" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D120" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E120" s="20">
         <v>21584</v>
       </c>
-      <c r="F120" s="23">
+      <c r="F120" s="20">
         <v>20701</v>
       </c>
-      <c r="G120" s="23">
+      <c r="G120" s="20">
         <v>20396</v>
       </c>
-      <c r="H120" s="23">
+      <c r="H120" s="20">
         <v>20476</v>
       </c>
-      <c r="I120" s="23">
+      <c r="I120" s="20">
         <v>19728</v>
       </c>
-      <c r="J120" s="23">
+      <c r="J120" s="20">
         <v>19841</v>
       </c>
-      <c r="K120" s="23">
+      <c r="K120" s="20">
         <v>19394</v>
       </c>
-      <c r="L120" s="23">
+      <c r="L120" s="20">
         <v>19537</v>
       </c>
-      <c r="M120" s="23">
+      <c r="M120" s="20">
         <v>19293</v>
       </c>
-      <c r="N120" s="23">
+      <c r="N120" s="20">
         <v>20071</v>
       </c>
-      <c r="O120" s="23">
+      <c r="O120" s="20">
         <v>19845</v>
       </c>
-      <c r="P120" s="23">
+      <c r="P120" s="20">
         <v>21340</v>
       </c>
-      <c r="Q120" s="23">
+      <c r="Q120" s="20">
         <v>21318</v>
       </c>
-      <c r="R120" s="23">
+      <c r="R120" s="20">
         <v>21020</v>
       </c>
-      <c r="S120" s="23">
+      <c r="S120" s="20">
         <f>VLOOKUP(B120,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>21469</v>
       </c>
-      <c r="T120" s="33">
+      <c r="T120" s="29">
         <f>VLOOKUP(B120,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>21317</v>
       </c>
     </row>
-    <row r="121" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>0</v>
       </c>
-      <c r="C121" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D121" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E121" s="23">
+      <c r="C121" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D121" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E121" s="20">
         <v>64689</v>
       </c>
-      <c r="F121" s="23">
+      <c r="F121" s="20">
         <v>63053</v>
       </c>
-      <c r="G121" s="23">
+      <c r="G121" s="20">
         <v>62941</v>
       </c>
-      <c r="H121" s="23">
+      <c r="H121" s="20">
         <v>62569</v>
       </c>
-      <c r="I121" s="23">
+      <c r="I121" s="20">
         <v>60223</v>
       </c>
-      <c r="J121" s="23">
+      <c r="J121" s="20">
         <v>61091</v>
       </c>
-      <c r="K121" s="23">
+      <c r="K121" s="20">
         <v>59314</v>
       </c>
-      <c r="L121" s="23">
+      <c r="L121" s="20">
         <v>59039</v>
       </c>
-      <c r="M121" s="23">
+      <c r="M121" s="20">
         <v>59863</v>
       </c>
-      <c r="N121" s="23">
+      <c r="N121" s="20">
         <v>62158</v>
       </c>
-      <c r="O121" s="23">
+      <c r="O121" s="20">
         <v>61861</v>
       </c>
-      <c r="P121" s="23">
+      <c r="P121" s="20">
         <v>66122</v>
       </c>
-      <c r="Q121" s="23">
+      <c r="Q121" s="20">
         <v>64616</v>
       </c>
-      <c r="R121" s="23">
+      <c r="R121" s="20">
         <v>64813</v>
       </c>
-      <c r="S121" s="23">
+      <c r="S121" s="20">
         <f>VLOOKUP(B121,[1]Rohdaten_Berechnung!$A$4:$H$55,8,FALSE)</f>
         <v>64739</v>
       </c>
-      <c r="T121" s="33">
+      <c r="T121" s="29">
         <f>VLOOKUP(B121,[1]Rohdaten_2020!$A$19:$I$70,6,FALSE)</f>
         <v>65115</v>
       </c>
     </row>
     <row r="122" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C122" s="24"/>
-      <c r="D122" s="24"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="24"/>
-      <c r="H122" s="24"/>
-      <c r="I122" s="24"/>
-      <c r="J122" s="24"/>
-      <c r="K122" s="24"/>
-      <c r="L122" s="24"/>
-      <c r="M122" s="24"/>
-      <c r="N122" s="24"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="21"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="21"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="21"/>
       <c r="O122" s="5"/>
-      <c r="P122" s="24"/>
+      <c r="P122" s="21"/>
     </row>
     <row r="123" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="25" t="s">
+      <c r="C123" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="21"/>
+      <c r="M123" s="21"/>
+      <c r="N123" s="21"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="21"/>
+    </row>
+    <row r="124" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C125" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D123" s="24"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="24"/>
-      <c r="H123" s="24"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="24"/>
-      <c r="K123" s="24"/>
-      <c r="L123" s="24"/>
-      <c r="M123" s="24"/>
-      <c r="N123" s="24"/>
-      <c r="O123" s="5"/>
-      <c r="P123" s="24"/>
-    </row>
-    <row r="125" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="36" t="s">
+    </row>
+    <row r="126" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C126" s="32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="126" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="36" t="s">
+    <row r="127" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C127" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="127" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="36" t="s">
+    <row r="128" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="33" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="128" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="37" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
